--- a/Figures/TestResults.xlsx
+++ b/Figures/TestResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eoin/Dropbox/Work/PhDWork/EnergyWork/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eoin/Work/PhdThesis/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA51BE7-A6CD-D547-B9FF-4D3F1ED1305F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876640EF-BE28-EF48-9E45-2161BE248178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="600" windowWidth="27340" windowHeight="14960" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
+    <workbookView xWindow="1060" yWindow="720" windowWidth="27340" windowHeight="14960" activeTab="2" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="Scenarios" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$B$4:$P$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$B$4:$Q$38</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Results!$C$31:$C$42</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Results!$E$31:$E$42</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Results!$I$31:$I$42</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Results!$N$31:$N$42</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -79,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
   <si>
     <t>Scenario</t>
   </si>
@@ -153,9 +157,6 @@
     <t>20180708-095644</t>
   </si>
   <si>
-    <t>20180708-011016</t>
-  </si>
-  <si>
     <t>three-cpu-x50</t>
   </si>
   <si>
@@ -186,27 +187,9 @@
     <t>machineload-tests-20180708</t>
   </si>
   <si>
-    <t>20180709-16174</t>
-  </si>
-  <si>
     <t>single-cpu-x50</t>
   </si>
   <si>
-    <t>20180709-162317</t>
-  </si>
-  <si>
-    <t>20180709-162853</t>
-  </si>
-  <si>
-    <t>20180709-162030</t>
-  </si>
-  <si>
-    <t>20180709-162605</t>
-  </si>
-  <si>
-    <t>20180709-163141</t>
-  </si>
-  <si>
     <t>longshort-tests-20180709</t>
   </si>
   <si>
@@ -265,9 +248,6 @@
   </si>
   <si>
     <t>20180710-214853</t>
-  </si>
-  <si>
-    <t>scenariolength-tests-20180709</t>
   </si>
   <si>
     <r>
@@ -291,9 +271,6 @@
     </r>
   </si>
   <si>
-    <t>Is this suspect?  Or duplicate?Was run 8 hours before others in set.</t>
-  </si>
-  <si>
     <t>Scenario Name</t>
   </si>
   <si>
@@ -321,9 +298,6 @@
     <t>Trace Energy/CPU</t>
   </si>
   <si>
-    <t>1. Having checked the code, the "pause" between requests feature wasn't implemented - that's why the tests above have unexpected lengths with pauses</t>
-  </si>
-  <si>
     <t>Long/Short CPU/Energy per trace correlation</t>
   </si>
   <si>
@@ -334,6 +308,51 @@
   </si>
   <si>
     <t>Avg and StdDev for Short</t>
+  </si>
+  <si>
+    <t>scenariolength-tests-20180808</t>
+  </si>
+  <si>
+    <t>20180808-220717</t>
+  </si>
+  <si>
+    <t>20180808-221318</t>
+  </si>
+  <si>
+    <t>20180808-221919</t>
+  </si>
+  <si>
+    <t>20180808-221005</t>
+  </si>
+  <si>
+    <t>20180808-221606</t>
+  </si>
+  <si>
+    <t>20180808-222207</t>
+  </si>
+  <si>
+    <t>scenariolength-50pctload-20180810</t>
+  </si>
+  <si>
+    <t>20180810-220342</t>
+  </si>
+  <si>
+    <t>20180810-220655</t>
+  </si>
+  <si>
+    <t>20180810-221008</t>
+  </si>
+  <si>
+    <t>20180810-223009</t>
+  </si>
+  <si>
+    <t>20180810-223546</t>
+  </si>
+  <si>
+    <t>20180810-223257</t>
+  </si>
+  <si>
+    <t>Execution Timestamp</t>
   </si>
 </sst>
 </file>
@@ -377,7 +396,7 @@
       <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,7 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA38F"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,13 +440,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +582,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$I$9:$I$23</c:f>
+              <c:f>Results!$J$9:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -597,7 +636,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$N$9:$N$23</c:f>
+              <c:f>Results!$O$9:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -976,7 +1015,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -989,14 +1028,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Energy/CPU</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Ratio</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1013,7 +1052,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1044,9 +1083,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1110,7 +1147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$M$9:$M$23</c:f>
+              <c:f>Results!$N$9:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1296,37 +1333,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1471,7 +1477,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Results!$F$24:$F$28</c:f>
+              <c:f>Results!$G$24:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1495,7 +1501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$N$24:$N$28</c:f>
+              <c:f>Results!$O$24:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1769,6 +1775,566 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Energy Allocation with Changing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Trace Length</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPU per Trace</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$C$31:$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>single-cpu-x50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>single-cpu-x50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>single-cpu-x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>single-cpu-x50-pause</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>single-cpu-x50-pause</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>single-cpu-x50-pause</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>single-cpu-x50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>single-cpu-x50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>single-cpu-x50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>single-cpu-x50-pause</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>single-cpu-x50-pause</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>single-cpu-x50-pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$J$31:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2522.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2492.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2496.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2518.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2496.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2507.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2466.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2474.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2555.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2496.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3AD2-4349-A61D-E7B1E5080302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1027277727"/>
+        <c:axId val="1027279407"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Energy per Trace</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$E$31:$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20180808-220717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20180808-221318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20180808-221919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20180808-221005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20180808-221606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20180808-222207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20180810-223009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20180810-223257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20180810-223546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20180810-220342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20180810-220655</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20180810-221008</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$O$31:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>270.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>306.22000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>164.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>161.47999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3AD2-4349-A61D-E7B1E5080302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1029684431"/>
+        <c:axId val="1028109023"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1027277727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1027279407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1027279407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1027277727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1028109023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029684431"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1029684431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1028109023"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
@@ -1841,6 +2407,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1964,6 +2531,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2997,6 +3604,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3628,7 +4751,533 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA60139-55C9-1245-AA81-F7B55CBAFB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73633</cdr:x>
+      <cdr:y>0.50635</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85209</cdr:x>
+      <cdr:y>0.63702</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A0B86F-052B-1647-B00B-B6540758B444}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5816600" y="3543300"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7283</cdr:x>
+      <cdr:y>0.50998</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90354</cdr:x>
+      <cdr:y>0.55172</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7ED15E-0550-1749-8B9D-5451AF33DA64}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5753100" y="3568700"/>
+          <a:ext cx="1384300" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Energy per Trace (J)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76527</cdr:x>
+      <cdr:y>0.05263</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93408</cdr:x>
+      <cdr:y>0.09982</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4886B7-9111-E848-971F-4B043989E3C1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6045200" y="368300"/>
+          <a:ext cx="1333500" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CPU per Trace (msec)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0627</cdr:x>
+      <cdr:y>0.05445</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51125</cdr:x>
+      <cdr:y>0.43013</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F11C15-E8C0-3B4F-A018-5D138FE44436}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="495300" y="381000"/>
+          <a:ext cx="3543300" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51125</cdr:x>
+      <cdr:y>0.05445</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94373</cdr:x>
+      <cdr:y>0.60617</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA8B7F0-62D3-4E42-9334-05EBCDF66F29}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4038600" y="381000"/>
+          <a:ext cx="3416300" cy="3860800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06431</cdr:x>
+      <cdr:y>0.39201</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.30547</cdr:x>
+      <cdr:y>0.42831</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F55C6FC-3707-F04D-A351-34DED00560B4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="508000" y="2743200"/>
+          <a:ext cx="1905000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>host</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 0% additional load period</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51125</cdr:x>
+      <cdr:y>0.5735</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.76367</cdr:x>
+      <cdr:y>0.60617</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E108A45A-CFD7-DF4D-8153-9B624BE93E55}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4038600" y="4013200"/>
+          <a:ext cx="1993900" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>host</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 50% additional load period</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3928,1759 +5577,2142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A7A84C-38BB-9C46-BB61-734C431F3DDA}">
-  <dimension ref="B2:P69"/>
+  <dimension ref="B2:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="57.5" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="19">
+    <row r="2" spans="2:17" ht="19">
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
-      <c r="B5" t="s">
+    <row r="5" spans="2:17" s="10" customFormat="1">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f>LEFT(E5, 8)</f>
+        <v>20180708</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>347267</v>
+      </c>
+      <c r="I5" s="10">
+        <v>226900</v>
+      </c>
+      <c r="J5" s="11">
+        <f>I5/D5</f>
+        <v>22690</v>
+      </c>
+      <c r="K5" s="10">
+        <v>409054</v>
+      </c>
+      <c r="L5" s="10">
+        <v>55</v>
+      </c>
+      <c r="M5" s="10">
+        <v>22752</v>
+      </c>
+      <c r="N5" s="10">
+        <f>M5/I5</f>
+        <v>0.10027324812692816</v>
+      </c>
+      <c r="O5" s="11">
+        <f>M5/D5</f>
+        <v>2275.1999999999998</v>
+      </c>
+      <c r="P5" s="10">
+        <v>41015</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" s="10" customFormat="1">
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" ref="F6:F42" si="0">LEFT(E6, 8)</f>
+        <v>20180708</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>47674</v>
+      </c>
+      <c r="I6" s="10">
+        <v>38020</v>
+      </c>
+      <c r="J6" s="11">
+        <f>I6/D6</f>
+        <v>3802</v>
+      </c>
+      <c r="K6" s="10">
+        <v>57561</v>
+      </c>
+      <c r="L6" s="10">
+        <v>66</v>
+      </c>
+      <c r="M6" s="10">
+        <v>3726</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" ref="N6:N30" si="1">M6/I6</f>
+        <v>9.8001052077853756E-2</v>
+      </c>
+      <c r="O6" s="11">
+        <f>M6/D6</f>
+        <v>372.6</v>
+      </c>
+      <c r="P6" s="10">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" s="10" customFormat="1">
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180708</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>648115</v>
+      </c>
+      <c r="I7" s="10">
+        <v>373166</v>
+      </c>
+      <c r="J7" s="11">
+        <f>I7/D7</f>
+        <v>37316.6</v>
+      </c>
+      <c r="K7" s="10">
+        <v>790456</v>
+      </c>
+      <c r="L7" s="10">
+        <v>47</v>
+      </c>
+      <c r="M7" s="10">
+        <v>36709</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="1"/>
+        <v>9.8371770204145073E-2</v>
+      </c>
+      <c r="O7" s="11">
+        <f>M7/D7</f>
+        <v>3670.9</v>
+      </c>
+      <c r="P7" s="10">
+        <v>77760</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="10" customFormat="1">
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180708</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>302514</v>
+      </c>
+      <c r="I8" s="10">
+        <v>182124</v>
+      </c>
+      <c r="J8" s="11">
+        <f>I8/D8</f>
+        <v>18212.400000000001</v>
+      </c>
+      <c r="K8" s="10">
+        <v>336268</v>
+      </c>
+      <c r="L8" s="10">
+        <v>54</v>
+      </c>
+      <c r="M8" s="10">
+        <v>19039</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10453866596384881</v>
+      </c>
+      <c r="O8" s="11">
+        <f>M8/D8</f>
+        <v>1903.9</v>
+      </c>
+      <c r="P8" s="10">
+        <v>35153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" s="12" customFormat="1">
+      <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180709</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>50510</v>
+      </c>
+      <c r="I9" s="12">
+        <v>46650</v>
+      </c>
+      <c r="J9" s="13">
+        <f>I9/D9</f>
+        <v>4665</v>
+      </c>
+      <c r="K9" s="12">
+        <v>47417</v>
+      </c>
+      <c r="L9" s="12">
+        <v>98</v>
+      </c>
+      <c r="M9" s="12">
+        <v>5283</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" ref="N9:N23" si="2">M9/I9</f>
+        <v>0.1132475884244373</v>
+      </c>
+      <c r="O9" s="13">
+        <f>M9/D9</f>
+        <v>528.29999999999995</v>
+      </c>
+      <c r="P9" s="12">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" s="12" customFormat="1">
+      <c r="B10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="12">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180709</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>50507</v>
+      </c>
+      <c r="I10" s="12">
+        <v>47319</v>
+      </c>
+      <c r="J10" s="13">
+        <f>I10/D10</f>
+        <v>4731.8999999999996</v>
+      </c>
+      <c r="K10" s="12">
+        <v>47608</v>
+      </c>
+      <c r="L10" s="12">
+        <v>99</v>
+      </c>
+      <c r="M10" s="12">
+        <v>5427</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="2"/>
+        <v>0.11468965954479174</v>
+      </c>
+      <c r="O10" s="13">
+        <f>M10/D10</f>
+        <v>542.70000000000005</v>
+      </c>
+      <c r="P10" s="12">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" s="12" customFormat="1">
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180709</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>50545</v>
+      </c>
+      <c r="I11" s="12">
+        <v>48814</v>
+      </c>
+      <c r="J11" s="13">
+        <f>I11/D11</f>
+        <v>4881.3999999999996</v>
+      </c>
+      <c r="K11" s="12">
+        <v>48469</v>
+      </c>
+      <c r="L11" s="12">
+        <v>101</v>
+      </c>
+      <c r="M11" s="12">
+        <v>5499</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="2"/>
+        <v>0.11265210800180277</v>
+      </c>
+      <c r="O11" s="13">
+        <f>M11/D11</f>
+        <v>549.9</v>
+      </c>
+      <c r="P11" s="12">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="12" customFormat="1">
+      <c r="B12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180710</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>50461</v>
+      </c>
+      <c r="I12" s="12">
+        <v>47431</v>
+      </c>
+      <c r="J12" s="13">
+        <f>I12/D12</f>
+        <v>4743.1000000000004</v>
+      </c>
+      <c r="K12" s="12">
+        <v>50296</v>
+      </c>
+      <c r="L12" s="12">
+        <v>61</v>
+      </c>
+      <c r="M12" s="12">
+        <v>5234</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="2"/>
+        <v>0.11034977124665303</v>
+      </c>
+      <c r="O12" s="13">
+        <f>M12/D12</f>
+        <v>523.4</v>
+      </c>
+      <c r="P12" s="12">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" s="12" customFormat="1">
+      <c r="B13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180710</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>50535</v>
+      </c>
+      <c r="I13" s="12">
+        <v>47042</v>
+      </c>
+      <c r="J13" s="13">
+        <f>I13/D13</f>
+        <v>4704.2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>49478</v>
+      </c>
+      <c r="L13" s="12">
+        <v>57.5</v>
+      </c>
+      <c r="M13" s="12">
+        <v>5191</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="2"/>
+        <v>0.11034819948131457</v>
+      </c>
+      <c r="O13" s="13">
+        <f>M13/D13</f>
+        <v>519.1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="12" customFormat="1">
+      <c r="B14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180710</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>50534</v>
+      </c>
+      <c r="I14" s="12">
+        <v>46643</v>
+      </c>
+      <c r="J14" s="13">
+        <f>I14/D14</f>
+        <v>4664.3</v>
+      </c>
+      <c r="K14" s="12">
+        <v>48878</v>
+      </c>
+      <c r="L14" s="12">
+        <v>54</v>
+      </c>
+      <c r="M14" s="12">
+        <v>5210</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="2"/>
+        <v>0.11169950474883691</v>
+      </c>
+      <c r="O14" s="13">
+        <f>M14/D14</f>
+        <v>521</v>
+      </c>
+      <c r="P14" s="12">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" s="12" customFormat="1">
+      <c r="B15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="12">
+        <v>100</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180710</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>50457</v>
+      </c>
+      <c r="I15" s="12">
+        <v>47668</v>
+      </c>
+      <c r="J15" s="13">
+        <f>I15/D15</f>
+        <v>476.68</v>
+      </c>
+      <c r="K15" s="12">
+        <v>51832</v>
+      </c>
+      <c r="L15" s="12">
+        <v>50.5</v>
+      </c>
+      <c r="M15" s="12">
+        <v>5187</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="2"/>
+        <v>0.10881513803809684</v>
+      </c>
+      <c r="O15" s="13">
+        <f>M15/D15</f>
+        <v>51.87</v>
+      </c>
+      <c r="P15" s="12">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="12" customFormat="1">
+      <c r="B16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="12">
+        <v>100</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180710</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>50782</v>
+      </c>
+      <c r="I16" s="12">
+        <v>47094</v>
+      </c>
+      <c r="J16" s="13">
+        <f>I16/D16</f>
+        <v>470.94</v>
+      </c>
+      <c r="K16" s="12">
+        <v>50684</v>
+      </c>
+      <c r="L16" s="12">
+        <v>47</v>
+      </c>
+      <c r="M16" s="12">
+        <v>5157</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.10950439546439036</v>
+      </c>
+      <c r="O16" s="13">
+        <f>M16/D16</f>
+        <v>51.57</v>
+      </c>
+      <c r="P16" s="12">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" s="12" customFormat="1">
+      <c r="B17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="12">
+        <v>100</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180710</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>50785</v>
+      </c>
+      <c r="I17" s="12">
+        <v>47429</v>
+      </c>
+      <c r="J17" s="13">
+        <f>I17/D17</f>
+        <v>474.29</v>
+      </c>
+      <c r="K17" s="12">
+        <v>50526</v>
+      </c>
+      <c r="L17" s="12">
+        <v>43.5</v>
+      </c>
+      <c r="M17" s="12">
+        <v>5210</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.10984840498429231</v>
+      </c>
+      <c r="O17" s="13">
+        <f>M17/D17</f>
+        <v>52.1</v>
+      </c>
+      <c r="P17" s="12">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" s="12" customFormat="1">
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180709</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>54924</v>
+      </c>
+      <c r="I18" s="12">
+        <v>68084</v>
+      </c>
+      <c r="J18" s="13">
+        <f>I18/D18</f>
+        <v>68.084000000000003</v>
+      </c>
+      <c r="K18" s="12">
+        <v>94877</v>
+      </c>
+      <c r="L18" s="12">
+        <v>72</v>
+      </c>
+      <c r="M18" s="12">
+        <v>5433</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="2"/>
+        <v>7.9798484225368657E-2</v>
+      </c>
+      <c r="O18" s="13">
+        <f>M18/D18</f>
+        <v>5.4329999999999998</v>
+      </c>
+      <c r="P18" s="12">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" s="12" customFormat="1">
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180709</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>53163</v>
+      </c>
+      <c r="I19" s="12">
+        <v>54468</v>
+      </c>
+      <c r="J19" s="13">
+        <f>I19/D19</f>
+        <v>54.468000000000004</v>
+      </c>
+      <c r="K19" s="12">
+        <v>81887</v>
+      </c>
+      <c r="L19" s="12">
+        <v>67</v>
+      </c>
+      <c r="M19" s="12">
+        <v>4738</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="2"/>
+        <v>8.698685466696042E-2</v>
+      </c>
+      <c r="O19" s="13">
+        <f>M19/D19</f>
+        <v>4.7380000000000004</v>
+      </c>
+      <c r="P19" s="12">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" s="12" customFormat="1">
+      <c r="B20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180709</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>52949</v>
+      </c>
+      <c r="I20" s="12">
+        <v>53656</v>
+      </c>
+      <c r="J20" s="13">
+        <f>I20/D20</f>
+        <v>53.655999999999999</v>
+      </c>
+      <c r="K20" s="12">
+        <v>82132</v>
+      </c>
+      <c r="L20" s="12">
+        <v>65</v>
+      </c>
+      <c r="M20" s="12">
+        <v>4565</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="2"/>
+        <v>8.507902191739973E-2</v>
+      </c>
+      <c r="O20" s="13">
+        <f>M20/D20</f>
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="P20" s="12">
+        <v>6989</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" s="12" customFormat="1">
+      <c r="B21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180710</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>53727</v>
+      </c>
+      <c r="I21" s="12">
+        <v>61279</v>
+      </c>
+      <c r="J21" s="13">
+        <f>I21/D21</f>
+        <v>61.279000000000003</v>
+      </c>
+      <c r="K21" s="12">
+        <v>85208</v>
+      </c>
+      <c r="L21" s="12">
+        <v>40</v>
+      </c>
+      <c r="M21" s="12">
+        <v>5184</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="2"/>
+        <v>8.4596680755234258E-2</v>
+      </c>
+      <c r="O21" s="13">
+        <f>M21/D21</f>
+        <v>5.1840000000000002</v>
+      </c>
+      <c r="P21" s="12">
+        <v>7208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" s="12" customFormat="1">
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180710</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>52953</v>
+      </c>
+      <c r="I22" s="12">
+        <v>54844</v>
+      </c>
+      <c r="J22" s="13">
+        <f>I22/D22</f>
+        <v>54.844000000000001</v>
+      </c>
+      <c r="K22" s="12">
+        <v>78831</v>
+      </c>
+      <c r="L22" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="M22" s="12">
+        <v>4746</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="2"/>
+        <v>8.6536357669024871E-2</v>
+      </c>
+      <c r="O22" s="13">
+        <f>M22/D22</f>
+        <v>4.7460000000000004</v>
+      </c>
+      <c r="P22" s="12">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" s="12" customFormat="1">
+      <c r="B23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180710</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>52712</v>
+      </c>
+      <c r="I23" s="12">
+        <v>55543</v>
+      </c>
+      <c r="J23" s="13">
+        <f>I23/D23</f>
+        <v>55.542999999999999</v>
+      </c>
+      <c r="K23" s="12">
+        <v>81438</v>
+      </c>
+      <c r="L23" s="12">
+        <v>33</v>
+      </c>
+      <c r="M23" s="12">
+        <v>4767</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="2"/>
+        <v>8.582539653961796E-2</v>
+      </c>
+      <c r="O23" s="13">
+        <f>M23/D23</f>
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="P23" s="12">
+        <v>6989</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" s="8" customFormat="1">
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180708</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>126157</v>
+      </c>
+      <c r="I24" s="8">
+        <v>128766</v>
+      </c>
+      <c r="J24" s="9">
+        <f>I24/D24</f>
+        <v>2575.3200000000002</v>
+      </c>
+      <c r="K24" s="8">
+        <v>134595</v>
+      </c>
+      <c r="L24" s="8">
+        <v>96</v>
+      </c>
+      <c r="M24" s="8">
+        <v>13814</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.10727987201590482</v>
+      </c>
+      <c r="O24" s="9">
+        <f>M24/D24</f>
+        <v>276.27999999999997</v>
+      </c>
+      <c r="P24" s="8">
+        <v>14440</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" s="8" customFormat="1">
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8">
+        <v>50</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180708</v>
+      </c>
+      <c r="G25" s="8">
+        <v>25</v>
+      </c>
+      <c r="H25" s="8">
+        <v>125585</v>
+      </c>
+      <c r="I25" s="8">
+        <v>123410</v>
+      </c>
+      <c r="J25" s="9">
+        <f>I25/D25</f>
+        <v>2468.1999999999998</v>
+      </c>
+      <c r="K25" s="8">
+        <v>253357</v>
+      </c>
+      <c r="L25" s="8">
+        <v>49</v>
+      </c>
+      <c r="M25" s="8">
+        <v>9133</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="1"/>
+        <v>7.4005348026902201E-2</v>
+      </c>
+      <c r="O25" s="9">
+        <f>M25/D25</f>
+        <v>182.66</v>
+      </c>
+      <c r="P25" s="8">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" s="8" customFormat="1">
+      <c r="B26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8">
+        <v>50</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180708</v>
+      </c>
+      <c r="G26" s="8">
+        <v>50</v>
+      </c>
+      <c r="H26" s="8">
+        <v>127127</v>
+      </c>
+      <c r="I26" s="8">
+        <v>128595</v>
+      </c>
+      <c r="J26" s="9">
+        <f>I26/D26</f>
+        <v>2571.9</v>
+      </c>
+      <c r="K26" s="8">
+        <v>388322</v>
+      </c>
+      <c r="L26" s="8">
+        <v>33</v>
+      </c>
+      <c r="M26" s="8">
+        <v>8218</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3906061666472253E-2</v>
+      </c>
+      <c r="O26" s="9">
+        <f>M26/D26</f>
+        <v>164.36</v>
+      </c>
+      <c r="P26" s="8">
+        <v>24816</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" s="8" customFormat="1">
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180708</v>
+      </c>
+      <c r="G27" s="8">
+        <v>75</v>
+      </c>
+      <c r="H27" s="8">
+        <v>126526</v>
+      </c>
+      <c r="I27" s="8">
+        <v>125405</v>
+      </c>
+      <c r="J27" s="9">
+        <f>I27/D27</f>
+        <v>2508.1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>502692</v>
+      </c>
+      <c r="L27" s="8">
+        <v>25</v>
+      </c>
+      <c r="M27" s="8">
+        <v>8443</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="1"/>
+        <v>6.7325864199992022E-2</v>
+      </c>
+      <c r="O27" s="9">
+        <f>M27/D27</f>
+        <v>168.86</v>
+      </c>
+      <c r="P27" s="8">
+        <v>33844</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" s="8" customFormat="1">
+      <c r="B28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8">
+        <v>50</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180708</v>
+      </c>
+      <c r="G28" s="8">
+        <v>100</v>
+      </c>
+      <c r="H28" s="8">
+        <v>132327</v>
+      </c>
+      <c r="I28" s="8">
+        <v>123231</v>
+      </c>
+      <c r="J28" s="9">
+        <f>I28/D28</f>
+        <v>2464.62</v>
+      </c>
+      <c r="K28" s="8">
+        <v>529113</v>
+      </c>
+      <c r="L28" s="8">
+        <v>23</v>
+      </c>
+      <c r="M28" s="8">
+        <v>8362</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="1"/>
+        <v>6.7856302391443718E-2</v>
+      </c>
+      <c r="O28" s="9">
+        <f>M28/D28</f>
+        <v>167.24</v>
+      </c>
+      <c r="P28" s="8">
+        <v>35904</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" s="3" customFormat="1">
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>347267</v>
-      </c>
-      <c r="H5">
-        <v>226900</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I37" si="0">H5/D5</f>
-        <v>22690</v>
-      </c>
-      <c r="J5">
-        <v>409054</v>
-      </c>
-      <c r="K5">
-        <v>55</v>
-      </c>
-      <c r="L5">
-        <v>22752</v>
-      </c>
-      <c r="M5">
-        <f>L5/H5</f>
-        <v>0.10027324812692816</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" ref="N5:N37" si="1">L5/D5</f>
-        <v>2275.1999999999998</v>
-      </c>
-      <c r="O5">
-        <v>41015</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>47674</v>
-      </c>
-      <c r="H6">
-        <v>38020</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="0"/>
-        <v>3802</v>
-      </c>
-      <c r="J6">
-        <v>57561</v>
-      </c>
-      <c r="K6">
-        <v>66</v>
-      </c>
-      <c r="L6">
-        <v>3726</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M37" si="2">L6/H6</f>
-        <v>9.8001052077853756E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="1"/>
-        <v>372.6</v>
-      </c>
-      <c r="O6">
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>648115</v>
-      </c>
-      <c r="H7">
-        <v>373166</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="0"/>
-        <v>37316.6</v>
-      </c>
-      <c r="J7">
-        <v>790456</v>
-      </c>
-      <c r="K7">
-        <v>47</v>
-      </c>
-      <c r="L7">
-        <v>36709</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>9.8371770204145073E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="1"/>
-        <v>3670.9</v>
-      </c>
-      <c r="O7">
-        <v>77760</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>302514</v>
-      </c>
-      <c r="H8">
-        <v>182124</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>18212.400000000001</v>
-      </c>
-      <c r="J8">
-        <v>336268</v>
-      </c>
-      <c r="K8">
-        <v>54</v>
-      </c>
-      <c r="L8">
-        <v>19039</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>0.10453866596384881</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="1"/>
-        <v>1903.9</v>
-      </c>
-      <c r="O8">
-        <v>35153</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>50510</v>
-      </c>
-      <c r="H9">
-        <v>46650</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>4665</v>
-      </c>
-      <c r="J9">
-        <v>47417</v>
-      </c>
-      <c r="K9">
-        <v>98</v>
-      </c>
-      <c r="L9">
-        <v>5283</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ref="M9:M23" si="3">L9/H9</f>
-        <v>0.1132475884244373</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="1"/>
-        <v>528.29999999999995</v>
-      </c>
-      <c r="O9">
-        <v>5370</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>50507</v>
-      </c>
-      <c r="H10">
-        <v>47319</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>4731.8999999999996</v>
-      </c>
-      <c r="J10">
-        <v>47608</v>
-      </c>
-      <c r="K10">
-        <v>99</v>
-      </c>
-      <c r="L10">
-        <v>5427</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>0.11468965954479174</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="1"/>
-        <v>542.70000000000005</v>
-      </c>
-      <c r="O10">
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>50545</v>
-      </c>
-      <c r="H11">
-        <v>48814</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="0"/>
-        <v>4881.3999999999996</v>
-      </c>
-      <c r="J11">
-        <v>48469</v>
-      </c>
-      <c r="K11">
-        <v>101</v>
-      </c>
-      <c r="L11">
-        <v>5499</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>0.11265210800180277</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="1"/>
-        <v>549.9</v>
-      </c>
-      <c r="O11">
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>50461</v>
-      </c>
-      <c r="H12">
-        <v>47431</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="0"/>
-        <v>4743.1000000000004</v>
-      </c>
-      <c r="J12">
-        <v>50296</v>
-      </c>
-      <c r="K12">
-        <v>61</v>
-      </c>
-      <c r="L12">
-        <v>5234</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>0.11034977124665303</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="1"/>
-        <v>523.4</v>
-      </c>
-      <c r="O12">
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>50535</v>
-      </c>
-      <c r="H13">
-        <v>47042</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>4704.2</v>
-      </c>
-      <c r="J13">
-        <v>49478</v>
-      </c>
-      <c r="K13">
-        <v>57.5</v>
-      </c>
-      <c r="L13">
-        <v>5191</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
-        <v>0.11034819948131457</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="1"/>
-        <v>519.1</v>
-      </c>
-      <c r="O13">
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>50534</v>
-      </c>
-      <c r="H14">
-        <v>46643</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>4664.3</v>
-      </c>
-      <c r="J14">
-        <v>48878</v>
-      </c>
-      <c r="K14">
-        <v>54</v>
-      </c>
-      <c r="L14">
-        <v>5210</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>0.11169950474883691</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="1"/>
-        <v>521</v>
-      </c>
-      <c r="O14">
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>50457</v>
-      </c>
-      <c r="H15">
-        <v>47668</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="0"/>
-        <v>476.68</v>
-      </c>
-      <c r="J15">
-        <v>51832</v>
-      </c>
-      <c r="K15">
-        <v>50.5</v>
-      </c>
-      <c r="L15">
-        <v>5187</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
-        <v>0.10881513803809684</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="1"/>
-        <v>51.87</v>
-      </c>
-      <c r="O15">
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>50782</v>
-      </c>
-      <c r="H16">
-        <v>47094</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="0"/>
-        <v>470.94</v>
-      </c>
-      <c r="J16">
-        <v>50684</v>
-      </c>
-      <c r="K16">
-        <v>47</v>
-      </c>
-      <c r="L16">
-        <v>5157</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
-        <v>0.10950439546439036</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="1"/>
-        <v>51.57</v>
-      </c>
-      <c r="O16">
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>50785</v>
-      </c>
-      <c r="H17">
-        <v>47429</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="0"/>
-        <v>474.29</v>
-      </c>
-      <c r="J17">
-        <v>50526</v>
-      </c>
-      <c r="K17">
-        <v>43.5</v>
-      </c>
-      <c r="L17">
-        <v>5210</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>0.10984840498429231</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="1"/>
-        <v>52.1</v>
-      </c>
-      <c r="O17">
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18">
-        <v>1000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>54924</v>
-      </c>
-      <c r="H18">
-        <v>68084</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>68.084000000000003</v>
-      </c>
-      <c r="J18">
-        <v>94877</v>
-      </c>
-      <c r="K18">
-        <v>72</v>
-      </c>
-      <c r="L18">
-        <v>5433</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>7.9798484225368657E-2</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4329999999999998</v>
-      </c>
-      <c r="O18">
-        <v>7571</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19">
-        <v>1000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>53163</v>
-      </c>
-      <c r="H19">
-        <v>54468</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="0"/>
-        <v>54.468000000000004</v>
-      </c>
-      <c r="J19">
-        <v>81887</v>
-      </c>
-      <c r="K19">
-        <v>67</v>
-      </c>
-      <c r="L19">
-        <v>4738</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>8.698685466696042E-2</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7380000000000004</v>
-      </c>
-      <c r="O19">
-        <v>7123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20">
-        <v>1000</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>52949</v>
-      </c>
-      <c r="H20">
-        <v>53656</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="0"/>
-        <v>53.655999999999999</v>
-      </c>
-      <c r="J20">
-        <v>82132</v>
-      </c>
-      <c r="K20">
-        <v>65</v>
-      </c>
-      <c r="L20">
-        <v>4565</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
-        <v>8.507902191739973E-2</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5650000000000004</v>
-      </c>
-      <c r="O20">
-        <v>6989</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21">
-        <v>1000</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>53727</v>
-      </c>
-      <c r="H21">
-        <v>61279</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>61.279000000000003</v>
-      </c>
-      <c r="J21">
-        <v>85208</v>
-      </c>
-      <c r="K21">
-        <v>40</v>
-      </c>
-      <c r="L21">
-        <v>5184</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
-        <v>8.4596680755234258E-2</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="1"/>
-        <v>5.1840000000000002</v>
-      </c>
-      <c r="O21">
-        <v>7208</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22">
-        <v>1000</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>52953</v>
-      </c>
-      <c r="H22">
-        <v>54844</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>54.844000000000001</v>
-      </c>
-      <c r="J22">
-        <v>78831</v>
-      </c>
-      <c r="K22">
-        <v>36.5</v>
-      </c>
-      <c r="L22">
-        <v>4746</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
-        <v>8.6536357669024871E-2</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7460000000000004</v>
-      </c>
-      <c r="O22">
-        <v>6822</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23">
-        <v>1000</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>52712</v>
-      </c>
-      <c r="H23">
-        <v>55543</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="0"/>
-        <v>55.542999999999999</v>
-      </c>
-      <c r="J23">
-        <v>81438</v>
-      </c>
-      <c r="K23">
-        <v>33</v>
-      </c>
-      <c r="L23">
-        <v>4767</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
-        <v>8.582539653961796E-2</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7670000000000003</v>
-      </c>
-      <c r="O23">
-        <v>6989</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>126157</v>
-      </c>
-      <c r="H24">
-        <v>128766</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="0"/>
-        <v>2575.3200000000002</v>
-      </c>
-      <c r="J24">
-        <v>134595</v>
-      </c>
-      <c r="K24">
-        <v>96</v>
-      </c>
-      <c r="L24">
-        <v>13814</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>0.10727987201590482</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="1"/>
-        <v>276.27999999999997</v>
-      </c>
-      <c r="O24">
-        <v>14440</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>25</v>
-      </c>
-      <c r="G25">
-        <v>125585</v>
-      </c>
-      <c r="H25">
-        <v>123410</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>2468.1999999999998</v>
-      </c>
-      <c r="J25">
-        <v>253357</v>
-      </c>
-      <c r="K25">
-        <v>49</v>
-      </c>
-      <c r="L25">
-        <v>9133</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>7.4005348026902201E-2</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="1"/>
-        <v>182.66</v>
-      </c>
-      <c r="O25">
-        <v>18750</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>127127</v>
-      </c>
-      <c r="H26">
-        <v>128595</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>2571.9</v>
-      </c>
-      <c r="J26">
-        <v>388322</v>
-      </c>
-      <c r="K26">
-        <v>33</v>
-      </c>
-      <c r="L26">
-        <v>8218</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>6.3906061666472253E-2</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="1"/>
-        <v>164.36</v>
-      </c>
-      <c r="O26">
-        <v>24816</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>75</v>
-      </c>
-      <c r="G27">
-        <v>126526</v>
-      </c>
-      <c r="H27">
-        <v>125405</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>2508.1</v>
-      </c>
-      <c r="J27">
-        <v>502692</v>
-      </c>
-      <c r="K27">
-        <v>25</v>
-      </c>
-      <c r="L27">
-        <v>8443</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
-        <v>6.7325864199992022E-2</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="1"/>
-        <v>168.86</v>
-      </c>
-      <c r="O27">
-        <v>33844</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28">
-        <v>132327</v>
-      </c>
-      <c r="H28">
-        <v>123231</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="0"/>
-        <v>2464.62</v>
-      </c>
-      <c r="J28">
-        <v>529113</v>
-      </c>
-      <c r="K28">
-        <v>23</v>
-      </c>
-      <c r="L28">
-        <v>8362</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>6.7856302391443718E-2</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="1"/>
-        <v>167.24</v>
-      </c>
-      <c r="O28">
-        <v>35904</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>50</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180708</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>176553</v>
+      </c>
+      <c r="I29" s="3">
+        <v>184392</v>
+      </c>
+      <c r="J29" s="5">
+        <f>I29/D29</f>
+        <v>3687.84</v>
+      </c>
+      <c r="K29" s="3">
+        <v>194299</v>
+      </c>
+      <c r="L29" s="3">
+        <v>95</v>
+      </c>
+      <c r="M29" s="3">
+        <v>19442</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10543841381404834</v>
+      </c>
+      <c r="O29" s="5">
+        <f>M29/D29</f>
+        <v>388.84</v>
+      </c>
+      <c r="P29" s="3">
+        <v>20486</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" s="3" customFormat="1">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29">
+      <c r="D30" s="3">
+        <v>50</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180708</v>
+      </c>
+      <c r="G30" s="3">
+        <v>100</v>
+      </c>
+      <c r="H30" s="3">
+        <v>189261</v>
+      </c>
+      <c r="I30" s="3">
+        <v>175444</v>
+      </c>
+      <c r="J30" s="5">
+        <f>I30/D30</f>
+        <v>3508.88</v>
+      </c>
+      <c r="K30" s="3">
+        <v>756773</v>
+      </c>
+      <c r="L30" s="3">
+        <v>23</v>
+      </c>
+      <c r="M30" s="3">
+        <v>11918</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="1"/>
+        <v>6.7930507740361593E-2</v>
+      </c>
+      <c r="O30" s="5">
+        <f>M30/D30</f>
+        <v>238.36</v>
+      </c>
+      <c r="P30" s="3">
+        <v>51408</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" s="8" customFormat="1">
+      <c r="B31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="8">
+        <v>50</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20180808</v>
+      </c>
+      <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>176626</v>
-      </c>
-      <c r="H29">
-        <v>176068</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="0"/>
-        <v>3521.36</v>
-      </c>
-      <c r="J29">
-        <v>185832</v>
-      </c>
-      <c r="K29">
+      <c r="H31" s="8">
+        <v>126430</v>
+      </c>
+      <c r="I31" s="8">
+        <v>126142</v>
+      </c>
+      <c r="J31" s="9">
+        <f>I31/D31</f>
+        <v>2522.84</v>
+      </c>
+      <c r="K31" s="8">
+        <v>132518</v>
+      </c>
+      <c r="L31" s="8">
         <v>95</v>
       </c>
-      <c r="L29">
-        <v>18810</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>0.10683372333416634</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="1"/>
-        <v>376.2</v>
-      </c>
-      <c r="O29">
-        <v>19853</v>
-      </c>
-      <c r="P29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30" t="s">
+      <c r="M31" s="8">
+        <v>13529</v>
+      </c>
+      <c r="N31" s="8">
+        <f>M31/I31</f>
+        <v>0.10725214440868228</v>
+      </c>
+      <c r="O31" s="9">
+        <f>M31/D31</f>
+        <v>270.58</v>
+      </c>
+      <c r="P31" s="8">
+        <v>14213</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" s="8" customFormat="1">
+      <c r="B32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="8">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f>LEFT(E32, 8)</f>
+        <v>20180808</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>126402</v>
+      </c>
+      <c r="I32" s="8">
+        <v>124629</v>
+      </c>
+      <c r="J32" s="9">
+        <f>I32/D32</f>
+        <v>2492.58</v>
+      </c>
+      <c r="K32" s="8">
+        <v>128909</v>
+      </c>
+      <c r="L32" s="8">
+        <v>97</v>
+      </c>
+      <c r="M32" s="8">
+        <v>13521</v>
+      </c>
+      <c r="N32" s="8">
+        <f>M32/I32</f>
+        <v>0.10848999831499892</v>
+      </c>
+      <c r="O32" s="9">
+        <f>M32/D32</f>
+        <v>270.42</v>
+      </c>
+      <c r="P32" s="8">
+        <v>13986</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" s="8" customFormat="1">
+      <c r="B33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="8">
+        <v>50</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f>LEFT(E33, 8)</f>
+        <v>20180808</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>126433</v>
+      </c>
+      <c r="I33" s="8">
+        <v>124842</v>
+      </c>
+      <c r="J33" s="9">
+        <f>I33/D33</f>
+        <v>2496.84</v>
+      </c>
+      <c r="K33" s="8">
+        <v>129408</v>
+      </c>
+      <c r="L33" s="8">
+        <v>96</v>
+      </c>
+      <c r="M33" s="8">
+        <v>13712</v>
+      </c>
+      <c r="N33" s="8">
+        <f>M33/I33</f>
+        <v>0.10983483122667051</v>
+      </c>
+      <c r="O33" s="9">
+        <f>M33/D33</f>
+        <v>274.24</v>
+      </c>
+      <c r="P33" s="8">
+        <v>14213</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" s="8" customFormat="1">
+      <c r="B34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8">
+        <v>50</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="10" t="str">
+        <f>LEFT(E34, 8)</f>
+        <v>20180808</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <v>151400</v>
+      </c>
+      <c r="I34" s="8">
+        <v>125945</v>
+      </c>
+      <c r="J34" s="9">
+        <f>I34/D34</f>
+        <v>2518.9</v>
+      </c>
+      <c r="K34" s="8">
+        <v>130247</v>
+      </c>
+      <c r="L34" s="8">
+        <v>97</v>
+      </c>
+      <c r="M34" s="8">
+        <v>15420</v>
+      </c>
+      <c r="N34" s="8">
+        <f>M34/I34</f>
+        <v>0.12243439596649332</v>
+      </c>
+      <c r="O34" s="9">
+        <f>M34/D34</f>
+        <v>308.39999999999998</v>
+      </c>
+      <c r="P34" s="8">
+        <v>15946</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" s="8" customFormat="1">
+      <c r="B35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8">
+        <v>50</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="10" t="str">
+        <f>LEFT(E35, 8)</f>
+        <v>20180808</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <v>151478</v>
+      </c>
+      <c r="I35" s="8">
+        <v>124840</v>
+      </c>
+      <c r="J35" s="9">
+        <f>I35/D35</f>
+        <v>2496.8000000000002</v>
+      </c>
+      <c r="K35" s="8">
+        <v>129559</v>
+      </c>
+      <c r="L35" s="8">
+        <v>96</v>
+      </c>
+      <c r="M35" s="8">
+        <v>15103</v>
+      </c>
+      <c r="N35" s="8">
+        <f>M35/I35</f>
+        <v>0.12097885293175265</v>
+      </c>
+      <c r="O35" s="9">
+        <f>M35/D35</f>
+        <v>302.06</v>
+      </c>
+      <c r="P35" s="8">
+        <v>15674</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" s="8" customFormat="1">
+      <c r="B36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8">
+        <v>50</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="10" t="str">
+        <f>LEFT(E36, 8)</f>
+        <v>20180808</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>151494</v>
+      </c>
+      <c r="I36" s="8">
+        <v>125397</v>
+      </c>
+      <c r="J36" s="9">
+        <f>I36/D36</f>
+        <v>2507.94</v>
+      </c>
+      <c r="K36" s="8">
+        <v>130599</v>
+      </c>
+      <c r="L36" s="8">
+        <v>96</v>
+      </c>
+      <c r="M36" s="8">
+        <v>15311</v>
+      </c>
+      <c r="N36" s="8">
+        <f>M36/I36</f>
+        <v>0.12210020973388518</v>
+      </c>
+      <c r="O36" s="9">
+        <f>M36/D36</f>
+        <v>306.22000000000003</v>
+      </c>
+      <c r="P36" s="8">
+        <v>15946</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="8" customFormat="1">
+      <c r="B37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="8">
+        <v>50</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="10" t="str">
+        <f>LEFT(E37, 8)</f>
+        <v>20180810</v>
+      </c>
+      <c r="G37" s="8">
+        <v>50</v>
+      </c>
+      <c r="H37" s="8">
+        <v>126703</v>
+      </c>
+      <c r="I37" s="8">
+        <v>123340</v>
+      </c>
+      <c r="J37" s="9">
+        <f>I37/D37</f>
+        <v>2466.8000000000002</v>
+      </c>
+      <c r="K37" s="8">
+        <v>381781</v>
+      </c>
+      <c r="L37" s="8">
+        <v>32</v>
+      </c>
+      <c r="M37" s="8">
+        <v>7856</v>
+      </c>
+      <c r="N37" s="8">
+        <f>M37/I37</f>
+        <v>6.3693854386249388E-2</v>
+      </c>
+      <c r="O37" s="9">
+        <f>M37/D37</f>
+        <v>157.12</v>
+      </c>
+      <c r="P37" s="8">
+        <v>24318</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" s="8" customFormat="1">
+      <c r="B38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="8">
+        <v>50</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f>LEFT(E38, 8)</f>
+        <v>20180810</v>
+      </c>
+      <c r="G38" s="8">
+        <v>50</v>
+      </c>
+      <c r="H38" s="8">
+        <v>126763</v>
+      </c>
+      <c r="I38" s="8">
+        <v>123701</v>
+      </c>
+      <c r="J38" s="9">
+        <f>I38/D38</f>
+        <v>2474.02</v>
+      </c>
+      <c r="K38" s="8">
+        <v>381475</v>
+      </c>
+      <c r="L38" s="8">
+        <v>32</v>
+      </c>
+      <c r="M38" s="8">
+        <v>7885</v>
+      </c>
+      <c r="N38" s="8">
+        <f>M38/I38</f>
+        <v>6.3742411136530827E-2</v>
+      </c>
+      <c r="O38" s="9">
+        <f>M38/D38</f>
+        <v>157.69999999999999</v>
+      </c>
+      <c r="P38" s="8">
+        <v>24318</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" s="8" customFormat="1">
+      <c r="B39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="8">
+        <v>50</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="10" t="str">
+        <f>LEFT(E39, 8)</f>
+        <v>20180810</v>
+      </c>
+      <c r="G39" s="8">
+        <v>50</v>
+      </c>
+      <c r="H39" s="8">
+        <v>126672</v>
+      </c>
+      <c r="I39" s="8">
+        <v>125027</v>
+      </c>
+      <c r="J39" s="9">
+        <f>I39/D39</f>
+        <v>2500.54</v>
+      </c>
+      <c r="K39" s="8">
+        <v>381361</v>
+      </c>
+      <c r="L39" s="8">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30">
+      <c r="M39" s="8">
+        <v>7973</v>
+      </c>
+      <c r="N39" s="8">
+        <f>M39/I39</f>
+        <v>6.3770225631263652E-2</v>
+      </c>
+      <c r="O39" s="9">
+        <f>M39/D39</f>
+        <v>159.46</v>
+      </c>
+      <c r="P39" s="8">
+        <v>24318</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" s="8" customFormat="1">
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8">
         <v>50</v>
       </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>176553</v>
-      </c>
-      <c r="H30">
-        <v>184392</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="0"/>
-        <v>3687.84</v>
-      </c>
-      <c r="J30">
-        <v>194299</v>
-      </c>
-      <c r="K30">
-        <v>95</v>
-      </c>
-      <c r="L30">
-        <v>19442</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>0.10543841381404834</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" si="1"/>
-        <v>388.84</v>
-      </c>
-      <c r="O30">
-        <v>20486</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31">
+      <c r="E40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="10" t="str">
+        <f>LEFT(E40, 8)</f>
+        <v>20180810</v>
+      </c>
+      <c r="G40" s="8">
         <v>50</v>
       </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31">
-        <v>189261</v>
-      </c>
-      <c r="H31">
-        <v>175444</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="0"/>
-        <v>3508.88</v>
-      </c>
-      <c r="J31">
-        <v>756773</v>
-      </c>
-      <c r="K31">
-        <v>23</v>
-      </c>
-      <c r="L31">
-        <v>11918</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="2"/>
-        <v>6.7930507740361593E-2</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="1"/>
-        <v>238.36</v>
-      </c>
-      <c r="O31">
-        <v>51408</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32">
+      <c r="H40" s="8">
+        <v>151907</v>
+      </c>
+      <c r="I40" s="8">
+        <v>127799</v>
+      </c>
+      <c r="J40" s="9">
+        <f>I40/D40</f>
+        <v>2555.98</v>
+      </c>
+      <c r="K40" s="8">
+        <v>436191</v>
+      </c>
+      <c r="L40" s="8">
+        <v>29</v>
+      </c>
+      <c r="M40" s="8">
+        <v>8220</v>
+      </c>
+      <c r="N40" s="8">
+        <f>M40/I40</f>
+        <v>6.4319752110736386E-2</v>
+      </c>
+      <c r="O40" s="9">
+        <f>M40/D40</f>
+        <v>164.4</v>
+      </c>
+      <c r="P40" s="8">
+        <v>28056</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" s="8" customFormat="1">
+      <c r="B41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>125999</v>
-      </c>
-      <c r="H32">
-        <v>126722</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="0"/>
-        <v>2534.44</v>
-      </c>
-      <c r="J32">
-        <v>133220</v>
-      </c>
-      <c r="K32">
-        <v>95</v>
-      </c>
-      <c r="L32">
-        <v>13412</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
-        <v>0.10583797604204478</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" si="1"/>
-        <v>268.24</v>
-      </c>
-      <c r="O32">
-        <v>14100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33">
+      <c r="E41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="10" t="str">
+        <f>LEFT(E41, 8)</f>
+        <v>20180810</v>
+      </c>
+      <c r="G41" s="8">
         <v>50</v>
       </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>126074</v>
-      </c>
-      <c r="H33">
-        <v>125223</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="0"/>
-        <v>2504.46</v>
-      </c>
-      <c r="J33">
-        <v>129419</v>
-      </c>
-      <c r="K33">
-        <v>97</v>
-      </c>
-      <c r="L33">
-        <v>13752</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="2"/>
-        <v>0.10982008097553964</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" si="1"/>
-        <v>275.04000000000002</v>
-      </c>
-      <c r="O33">
-        <v>14213</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34">
+      <c r="H41" s="8">
+        <v>151468</v>
+      </c>
+      <c r="I41" s="8">
+        <v>124825</v>
+      </c>
+      <c r="J41" s="9">
+        <f>I41/D41</f>
+        <v>2496.5</v>
+      </c>
+      <c r="K41" s="8">
+        <v>432473</v>
+      </c>
+      <c r="L41" s="8">
+        <v>29</v>
+      </c>
+      <c r="M41" s="8">
+        <v>7993</v>
+      </c>
+      <c r="N41" s="8">
+        <f>M41/I41</f>
+        <v>6.4033647105948333E-2</v>
+      </c>
+      <c r="O41" s="9">
+        <f>M41/D41</f>
+        <v>159.86000000000001</v>
+      </c>
+      <c r="P41" s="8">
+        <v>27693</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" s="8" customFormat="1">
+      <c r="B42" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8">
         <v>50</v>
       </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>126278</v>
-      </c>
-      <c r="H34">
-        <v>125288</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="0"/>
-        <v>2505.7600000000002</v>
-      </c>
-      <c r="J34">
-        <v>128217</v>
-      </c>
-      <c r="K34">
-        <v>98</v>
-      </c>
-      <c r="L34">
-        <v>13666</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
-        <v>0.10907668731243216</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="1"/>
-        <v>273.32</v>
-      </c>
-      <c r="O34">
-        <v>13986</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
+      <c r="E42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="10" t="str">
+        <f>LEFT(E42, 8)</f>
+        <v>20180810</v>
+      </c>
+      <c r="G42" s="8">
         <v>50</v>
       </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>125531</v>
-      </c>
-      <c r="H35">
-        <v>124148</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="0"/>
-        <v>2482.96</v>
-      </c>
-      <c r="J35">
-        <v>129084</v>
-      </c>
-      <c r="K35">
-        <v>96</v>
-      </c>
-      <c r="L35">
-        <v>13560</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
-        <v>0.10922447401488546</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="1"/>
-        <v>271.2</v>
-      </c>
-      <c r="O35">
-        <v>14100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>50</v>
-      </c>
-      <c r="E36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>126249</v>
-      </c>
-      <c r="H36">
-        <v>124360</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="0"/>
-        <v>2487.1999999999998</v>
-      </c>
-      <c r="J36">
-        <v>128361</v>
-      </c>
-      <c r="K36">
-        <v>97</v>
-      </c>
-      <c r="L36">
-        <v>13550</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="2"/>
-        <v>0.10895786426503699</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="1"/>
-        <v>271</v>
-      </c>
-      <c r="O36">
-        <v>13986</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>126343</v>
-      </c>
-      <c r="H37">
-        <v>126376</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="0"/>
-        <v>2527.52</v>
-      </c>
-      <c r="J37">
-        <v>130169</v>
-      </c>
-      <c r="K37">
-        <v>97</v>
-      </c>
-      <c r="L37">
-        <v>13799</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="2"/>
-        <v>0.10919003608280053</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="1"/>
-        <v>275.98</v>
-      </c>
-      <c r="O37">
-        <v>14213</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="I38" s="2"/>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="I39" s="2"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="I42" s="2"/>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="I43" s="2"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="I44" s="2"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="I45" s="2"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="I46" s="2"/>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="I47" s="2"/>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="9:9">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="9:9">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="9:9">
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="9:9">
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="9:9">
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="9:9">
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="9:9">
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="9:9">
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="9:9">
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="9:9">
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="9:9">
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="9:9">
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="9:9">
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="9:9">
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="9:9">
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="9:9">
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="9:9">
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="9:9">
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="9:9">
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="9:9">
-      <c r="I69" s="2"/>
+      <c r="H42" s="8">
+        <v>151588</v>
+      </c>
+      <c r="I42" s="8">
+        <v>125008</v>
+      </c>
+      <c r="J42" s="9">
+        <f>I42/D42</f>
+        <v>2500.16</v>
+      </c>
+      <c r="K42" s="8">
+        <v>434407</v>
+      </c>
+      <c r="L42" s="8">
+        <v>29</v>
+      </c>
+      <c r="M42" s="8">
+        <v>8074</v>
+      </c>
+      <c r="N42" s="8">
+        <f>M42/I42</f>
+        <v>6.4587866376551895E-2</v>
+      </c>
+      <c r="O42" s="9">
+        <f>M42/D42</f>
+        <v>161.47999999999999</v>
+      </c>
+      <c r="P42" s="8">
+        <v>28056</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" s="6" customFormat="1">
+      <c r="J43" s="7"/>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="J44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="4"/>
+      <c r="J45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="J46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="J47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="J48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="10:15">
+      <c r="J49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="10:15">
+      <c r="J50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="10:15">
+      <c r="J51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="10:15">
+      <c r="J52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="10:15">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="10:15">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="10:15">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="10:15">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="10:15">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="10:15">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="10:15">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="10:15">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="10:15">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="10:15">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="10:15">
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="10:15">
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="10:10">
+      <c r="J74" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:P37" xr:uid="{201FADF2-299D-2E42-A643-0088FAFE31EF}">
-    <sortState ref="B5:P37">
-      <sortCondition ref="B5:B37"/>
-      <sortCondition ref="C5:C37"/>
+  <autoFilter ref="B4:Q38" xr:uid="{201FADF2-299D-2E42-A643-0088FAFE31EF}">
+    <sortState ref="B5:Q38">
+      <sortCondition ref="B5:B38"/>
+      <sortCondition ref="C5:C38"/>
     </sortState>
   </autoFilter>
-  <sortState ref="B9:O23">
-    <sortCondition ref="C9:C23"/>
-    <sortCondition ref="E9:E23"/>
+  <sortState ref="B32:Q42">
+    <sortCondition ref="F32:F42"/>
+    <sortCondition ref="C32:C42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5703,49 +7735,49 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <f>CORREL(Results!I9:I23, Results!N9:N23)</f>
+        <f>CORREL(Results!J9:J23, Results!O9:O23)</f>
         <v>0.99982686332326476</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <f>AVERAGE(Results!M9:M14)</f>
+        <f>AVERAGE(Results!N9:N14)</f>
         <v>0.11216447190797273</v>
       </c>
       <c r="D4">
-        <f>STDEV(Results!M9:M14)</f>
+        <f>STDEV(Results!N9:N14)</f>
         <v>1.7085480049735481E-3</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <f>AVERAGE(Results!M15:M17)</f>
+        <f>AVERAGE(Results!N15:N17)</f>
         <v>0.1093893128289265</v>
       </c>
       <c r="D5">
-        <f>STDEV(Results!M15:M17)</f>
+        <f>STDEV(Results!N15:N17)</f>
         <v>5.2615886884477291E-4</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <f>AVERAGE(Results!M18:M23)</f>
+        <f>AVERAGE(Results!N18:N23)</f>
         <v>8.4803799295600987E-2</v>
       </c>
       <c r="D6">
-        <f>STDEV(Results!M18:M23)</f>
+        <f>STDEV(Results!N18:N23)</f>
         <v>2.6070279911935682E-3</v>
       </c>
     </row>
@@ -5759,8 +7791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D10FB-35D9-6644-9CBF-948E883FB7C9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5786,57 +7818,57 @@
   <sheetData>
     <row r="3" spans="2:16">
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>2500</v>
@@ -5853,7 +7885,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>2500</v>
@@ -5867,10 +7899,10 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -5884,22 +7916,22 @@
     </row>
     <row r="7" spans="2:16">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>1000</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -5916,25 +7948,25 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -5951,25 +7983,25 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>500</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H9">
         <v>500</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J9">
         <v>500</v>
@@ -5986,25 +8018,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>1000</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H10">
         <v>1000</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J10">
         <v>1000</v>
@@ -6021,37 +8053,37 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>800</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L11">
         <v>3000</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>1000</v>
@@ -6065,10 +8097,10 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -6082,10 +8114,10 @@
     </row>
     <row r="13" spans="2:16">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -6099,10 +8131,10 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>5000</v>

--- a/Figures/TestResults.xlsx
+++ b/Figures/TestResults.xlsx
@@ -8,28 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eoin/Work/PhdThesis/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A5FFA5-0172-824A-9B99-3CAFC26CB2BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0601AF30-151A-974A-9F33-C46117F8959B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1800" windowWidth="27340" windowHeight="13500" activeTab="1" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
+    <workbookView xWindow="520" yWindow="720" windowWidth="27340" windowHeight="15580" activeTab="1" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Manual Calc" sheetId="6" r:id="rId2"/>
-    <sheet name="mpstat" sheetId="11" r:id="rId3"/>
-    <sheet name="CpuHog Pidstat" sheetId="7" r:id="rId4"/>
-    <sheet name="Gateway Pidstat" sheetId="12" r:id="rId5"/>
-    <sheet name="Host Cpu Total" sheetId="8" r:id="rId6"/>
-    <sheet name="Calculations" sheetId="4" r:id="rId7"/>
-    <sheet name="Host Energy by Util" sheetId="5" r:id="rId8"/>
-    <sheet name="Plots" sheetId="3" r:id="rId9"/>
-    <sheet name="Data Plots" sheetId="9" r:id="rId10"/>
-    <sheet name="Scenarios" sheetId="2" r:id="rId11"/>
+    <sheet name="pidstat - set 1" sheetId="16" r:id="rId2"/>
+    <sheet name="pidstat - set 3" sheetId="15" r:id="rId3"/>
+    <sheet name="Manual Calc" sheetId="6" r:id="rId4"/>
+    <sheet name="mpstat" sheetId="11" r:id="rId5"/>
+    <sheet name="CpuHog Pidstat" sheetId="7" r:id="rId6"/>
+    <sheet name="Gateway Pidstat" sheetId="12" r:id="rId7"/>
+    <sheet name="Host Cpu Total" sheetId="8" r:id="rId8"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId9"/>
+    <sheet name="Host Energy by Util" sheetId="5" r:id="rId10"/>
+    <sheet name="Plots" sheetId="3" r:id="rId11"/>
+    <sheet name="Data Plots" sheetId="9" r:id="rId12"/>
+    <sheet name="Scenarios" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pidstat - set 1'!$B$5:$O$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'pidstat - set 3'!$B$5:$O$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$B$4:$S$41</definedName>
-    <definedName name="mpstat.allcpu" localSheetId="2">mpstat!$B$5:$M$155</definedName>
-    <definedName name="pidstat.3278" localSheetId="3">'CpuHog Pidstat'!$B$6:$G$134</definedName>
-    <definedName name="pidstat.3436" localSheetId="4">'Gateway Pidstat'!$B$6:$G$49</definedName>
+    <definedName name="mpstat.allcpu" localSheetId="4">mpstat!$B$5:$M$155</definedName>
+    <definedName name="pidstat.1stset" localSheetId="1">'pidstat - set 1'!$B$6:$N$76</definedName>
+    <definedName name="pidstat.3278" localSheetId="5">'CpuHog Pidstat'!$B$6:$G$134</definedName>
+    <definedName name="pidstat.3436" localSheetId="6">'Gateway Pidstat'!$B$6:$G$49</definedName>
+    <definedName name="pidstat.3rdset" localSheetId="2">'pidstat - set 3'!$B$6:$N$96</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -108,7 +114,26 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{AEA77F61-C93F-604C-A4D9-854E4A8A2C87}" name="pidstat.3278" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{D22E7628-3A3F-6D45-9B1C-34B2CC74B9A4}" name="pidstat.1stset" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/eoin/tmp/pidstat.1stset.txt" delimited="0">
+      <textFields count="13">
+        <textField/>
+        <textField position="13"/>
+        <textField position="19"/>
+        <textField position="27"/>
+        <textField position="35"/>
+        <textField position="44"/>
+        <textField position="51"/>
+        <textField position="61"/>
+        <textField position="67"/>
+        <textField position="77"/>
+        <textField position="87"/>
+        <textField position="98"/>
+        <textField position="103"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{AEA77F61-C93F-604C-A4D9-854E4A8A2C87}" name="pidstat.3278" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/eoin/Work/EnergyApollo/data/single-cpu-x50-20180813-184337/pidstat.3278.txt" delimited="0">
       <textFields count="13">
         <textField/>
@@ -127,7 +152,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{2C59186F-CBF5-504A-8AD8-21561081D470}" name="pidstat.3436" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{2C59186F-CBF5-504A-8AD8-21561081D470}" name="pidstat.3436" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/eoin/Work/EnergyApollo/data/single-cpu-x50-20180813-184337/pidstat.3436.txt" delimited="0">
       <textFields count="14">
         <textField/>
@@ -147,11 +172,30 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="5" xr16:uid="{C96270EA-BED8-1241-83F5-E29F52E710D0}" name="pidstat.3rdset" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/eoin/tmp/pidstat.3rdset.txt" delimited="0">
+      <textFields count="13">
+        <textField/>
+        <textField position="13"/>
+        <textField position="19"/>
+        <textField position="27"/>
+        <textField position="35"/>
+        <textField position="44"/>
+        <textField position="51"/>
+        <textField position="61"/>
+        <textField position="67"/>
+        <textField position="77"/>
+        <textField position="87"/>
+        <textField position="98"/>
+        <textField position="103"/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="251">
   <si>
     <t>Scenario</t>
   </si>
@@ -875,6 +919,54 @@
   <si>
     <t>PID 3278 is clearly CPU Hog (due to CPU usage) but checked ps(1) and found it via Docker process parent.</t>
   </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>kB_rd/s</t>
+  </si>
+  <si>
+    <t>kB_wr/s</t>
+  </si>
+  <si>
+    <t>kB_ccwr/s</t>
+  </si>
+  <si>
+    <t>iodelay</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>CPU%</t>
+  </si>
+  <si>
+    <t>Start: 1534282733</t>
+  </si>
+  <si>
+    <t>End: 1534282756</t>
+  </si>
+  <si>
+    <t>Start: 1534284383</t>
+  </si>
+  <si>
+    <t>End: 1534284408</t>
+  </si>
+  <si>
+    <t>This is the pidstat(1) output from data-100mbx6-x5-20180814-220708 in the stdvolume-20180814 set</t>
+  </si>
+  <si>
+    <t>It shows consideably more CPU being used than the set in "pidstat - set 1" tab.  Not clear why.</t>
+  </si>
+  <si>
+    <t>This is the pidstat(1) output from data-100mbx6-x5-20180814-213938 in the stdvolume-20180814 set</t>
+  </si>
+  <si>
+    <t>It uses considerably less CPU than the set in "pidstat - set 3" but it isn't clear why.</t>
+  </si>
 </sst>
 </file>
 
@@ -1016,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1062,6 +1154,7 @@
     <xf numFmtId="19" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7037,9 +7130,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$I$46:$I$57</c:f>
+              <c:f>Results!$L$46:$L$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1742</c:v>
@@ -7328,7 +7421,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Trace (msec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7376,6 +7529,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy per Trace (J)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -7952,6 +8160,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data Written per Trace (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8000,6 +8263,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Trace (J)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -13898,7 +14221,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -13929,16 +14252,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14007,15 +14330,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pidstat.1stset" connectionId="2" xr16:uid="{4AFCFA19-F533-7344-950C-3A4080FD059A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pidstat.3rdset" connectionId="5" xr16:uid="{CEA8BE4D-3103-8043-B457-05B6D2D6EE76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="mpstat.allcpu" connectionId="1" xr16:uid="{0A5DE3F9-5593-7942-96D5-ECBFFA848CE4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pidstat.3278" connectionId="2" xr16:uid="{F54213D6-0170-F340-BB7D-5CC73669AD1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pidstat.3278" connectionId="3" xr16:uid="{F54213D6-0170-F340-BB7D-5CC73669AD1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pidstat.3436" connectionId="3" xr16:uid="{670887E4-D1F9-5D44-BF94-7B62E65C420D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="pidstat.3436" connectionId="4" xr16:uid="{670887E4-D1F9-5D44-BF94-7B62E65C420D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14318,8 +14649,8 @@
   <dimension ref="B2:S90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17965,11 +18296,97 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD3939F-B255-B24A-99D1-39EFD23212CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455C45AD-3E25-944C-B85B-154C22889A6D}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7">
+        <v>14440</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7">
+        <v>18750</v>
+      </c>
+      <c r="D3">
+        <f>C3-C2</f>
+        <v>4310</v>
+      </c>
+      <c r="E3" s="13">
+        <f>D3/C2</f>
+        <v>0.29847645429362879</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4" s="7">
+        <v>24816</v>
+      </c>
+      <c r="D4">
+        <f>C4-C3</f>
+        <v>6066</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E6" si="0">D4/C3</f>
+        <v>0.32351999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7">
+        <v>33844</v>
+      </c>
+      <c r="D5">
+        <f>C5-C4</f>
+        <v>9028</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.36379754996776276</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7">
+        <v>35904</v>
+      </c>
+      <c r="D6">
+        <f>C6-C5</f>
+        <v>2060</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>6.0867509750620497E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D10FB-35D9-6644-9CBF-948E883FB7C9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17979,7 +18396,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD3939F-B255-B24A-99D1-39EFD23212CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0EFD3C-F499-F646-BC9C-13C05B0320AE}">
   <dimension ref="B3:P14"/>
   <sheetViews>
@@ -18330,11 +18762,6848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9321C540-539B-1E4C-910A-E4FA5307319D}">
+  <dimension ref="B2:O78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="O4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" t="s">
+        <v>239</v>
+      </c>
+      <c r="M5" t="s">
+        <v>240</v>
+      </c>
+      <c r="N5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6">
+        <v>1534282716</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>9077</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7">
+        <v>1534282716</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>9472</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8">
+        <v>1534282728</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>9472</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="20">
+        <v>1534282732</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>9077</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="20">
+        <v>2</v>
+      </c>
+      <c r="J9" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10">
+        <v>1534282734</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>8557</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>14.72</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11">
+        <v>1534282734</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>9077</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12">
+        <v>1534282734</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>9472</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13">
+        <v>1534282735</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>8557</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>6.82</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14">
+        <v>1534282735</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>9472</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.51</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15">
+        <v>1534282736</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>8557</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>5.84</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16">
+        <v>1534282736</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>9077</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.25</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17">
+        <v>1534282736</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>9472</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.25</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18">
+        <v>1534282737</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>8557</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5.54</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19">
+        <v>1534282737</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>9077</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.25</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20">
+        <v>1534282737</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>9304</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.25</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21">
+        <v>1534282737</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>9472</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22">
+        <v>1534282738</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>8557</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>8.27</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23">
+        <v>1534282738</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>9077</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.25</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24">
+        <v>1534282738</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>9472</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.25</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25">
+        <v>1534282739</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>8557</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26">
+        <v>1534282739</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>9077</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.25</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27">
+        <v>1534282740</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>8557</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>5.85</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28">
+        <v>1534282740</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>9472</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.25</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29">
+        <v>1534282741</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>8557</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>5.79</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30">
+        <v>1534282741</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>9077</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.25</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31">
+        <v>1534282742</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>8557</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>6.05</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32">
+        <v>1534282742</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>9077</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.25</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33">
+        <v>1534282742</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>9472</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.25</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34">
+        <v>1534282743</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>8557</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35">
+        <v>1534282743</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>9077</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.25</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36">
+        <v>1534282744</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>8557</v>
+      </c>
+      <c r="E36">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>7.11</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37">
+        <v>1534282744</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>9472</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.25</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38">
+        <v>1534282745</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>8557</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>5.56</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39">
+        <v>1534282745</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>9077</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.51</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40">
+        <v>1534282745</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>9472</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.51</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>-1</v>
+      </c>
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41">
+        <v>1534282746</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>8557</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>5.54</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42">
+        <v>1534282746</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>9472</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.25</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43">
+        <v>1534282747</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>8557</v>
+      </c>
+      <c r="E43">
+        <v>21</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>7.61</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <v>-1</v>
+      </c>
+      <c r="L43">
+        <v>-1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44">
+        <v>1534282747</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>9472</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.25</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>-1</v>
+      </c>
+      <c r="K44">
+        <v>-1</v>
+      </c>
+      <c r="L44">
+        <v>-1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45">
+        <v>1534282748</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>8557</v>
+      </c>
+      <c r="E45">
+        <v>28</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>9.82</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>-1</v>
+      </c>
+      <c r="K45">
+        <v>-1</v>
+      </c>
+      <c r="L45">
+        <v>-1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46">
+        <v>1534282748</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>9077</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.25</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>-1</v>
+      </c>
+      <c r="K46">
+        <v>-1</v>
+      </c>
+      <c r="L46">
+        <v>-1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47">
+        <v>1534282748</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>9472</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.25</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>-1</v>
+      </c>
+      <c r="K47">
+        <v>-1</v>
+      </c>
+      <c r="L47">
+        <v>-1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48">
+        <v>1534282749</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>8557</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>6.85</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>-1</v>
+      </c>
+      <c r="K48">
+        <v>-1</v>
+      </c>
+      <c r="L48">
+        <v>-1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49">
+        <v>1534282749</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>9077</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.25</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>-1</v>
+      </c>
+      <c r="K49">
+        <v>-1</v>
+      </c>
+      <c r="L49">
+        <v>-1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50">
+        <v>1534282749</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>9304</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.25</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>-1</v>
+      </c>
+      <c r="K50">
+        <v>-1</v>
+      </c>
+      <c r="L50">
+        <v>-1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51">
+        <v>1534282749</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>9472</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.25</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>-1</v>
+      </c>
+      <c r="K51">
+        <v>-1</v>
+      </c>
+      <c r="L51">
+        <v>-1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52">
+        <v>1534282750</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>8557</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>6.05</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>-1</v>
+      </c>
+      <c r="K52">
+        <v>-1</v>
+      </c>
+      <c r="L52">
+        <v>-1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53">
+        <v>1534282750</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>9472</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.5</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>-1</v>
+      </c>
+      <c r="K53">
+        <v>-1</v>
+      </c>
+      <c r="L53">
+        <v>-1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54">
+        <v>1534282751</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>8557</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>5.81</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>-1</v>
+      </c>
+      <c r="K54">
+        <v>-1</v>
+      </c>
+      <c r="L54">
+        <v>-1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55">
+        <v>1534282751</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>9077</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.25</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>-1</v>
+      </c>
+      <c r="K55">
+        <v>-1</v>
+      </c>
+      <c r="L55">
+        <v>-1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56">
+        <v>1534282751</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>9472</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.25</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>-1</v>
+      </c>
+      <c r="K56">
+        <v>-1</v>
+      </c>
+      <c r="L56">
+        <v>-1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57">
+        <v>1534282752</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>8557</v>
+      </c>
+      <c r="E57">
+        <v>22</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>8.31</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>-1</v>
+      </c>
+      <c r="K57">
+        <v>-1</v>
+      </c>
+      <c r="L57">
+        <v>-1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58">
+        <v>1534282752</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>9077</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.25</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>-1</v>
+      </c>
+      <c r="K58">
+        <v>-1</v>
+      </c>
+      <c r="L58">
+        <v>-1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59">
+        <v>1534282752</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>9472</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.25</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>-1</v>
+      </c>
+      <c r="K59">
+        <v>-1</v>
+      </c>
+      <c r="L59">
+        <v>-1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60">
+        <v>1534282753</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>8557</v>
+      </c>
+      <c r="E60">
+        <v>22</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>7.85</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>-1</v>
+      </c>
+      <c r="K60">
+        <v>-1</v>
+      </c>
+      <c r="L60">
+        <v>-1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61">
+        <v>1534282753</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>9472</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.25</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>-1</v>
+      </c>
+      <c r="K61">
+        <v>-1</v>
+      </c>
+      <c r="L61">
+        <v>-1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62">
+        <v>1534282754</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>8557</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>6.03</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>-1</v>
+      </c>
+      <c r="K62">
+        <v>-1</v>
+      </c>
+      <c r="L62">
+        <v>-1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63">
+        <v>1534282754</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>9077</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0.25</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>-1</v>
+      </c>
+      <c r="K63">
+        <v>-1</v>
+      </c>
+      <c r="L63">
+        <v>-1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64">
+        <v>1534282754</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>9472</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.25</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>-1</v>
+      </c>
+      <c r="K64">
+        <v>-1</v>
+      </c>
+      <c r="L64">
+        <v>-1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65">
+        <v>1534282755</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>8557</v>
+      </c>
+      <c r="E65">
+        <v>13</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>6.09</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>-1</v>
+      </c>
+      <c r="K65">
+        <v>-1</v>
+      </c>
+      <c r="L65">
+        <v>-1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="20">
+        <v>1534282756</v>
+      </c>
+      <c r="C66" s="20">
+        <v>0</v>
+      </c>
+      <c r="D66" s="20">
+        <v>8557</v>
+      </c>
+      <c r="E66" s="20">
+        <v>16</v>
+      </c>
+      <c r="F66" s="20">
+        <v>7</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0</v>
+      </c>
+      <c r="H66" s="20">
+        <v>5.78</v>
+      </c>
+      <c r="I66" s="20">
+        <v>3</v>
+      </c>
+      <c r="J66" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K66" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L66" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M66" s="20">
+        <v>0</v>
+      </c>
+      <c r="N66" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="20">
+        <v>1534282756</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>9077</v>
+      </c>
+      <c r="E67" s="20">
+        <v>1</v>
+      </c>
+      <c r="F67" s="20">
+        <v>0</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0</v>
+      </c>
+      <c r="H67" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="I67" s="20">
+        <v>2</v>
+      </c>
+      <c r="J67" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K67" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L67" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M67" s="20">
+        <v>0</v>
+      </c>
+      <c r="N67" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="20">
+        <v>1534282756</v>
+      </c>
+      <c r="C68" s="20">
+        <v>0</v>
+      </c>
+      <c r="D68" s="20">
+        <v>9472</v>
+      </c>
+      <c r="E68" s="20">
+        <v>1</v>
+      </c>
+      <c r="F68" s="20">
+        <v>0</v>
+      </c>
+      <c r="G68" s="20">
+        <v>0</v>
+      </c>
+      <c r="H68" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="I68" s="20">
+        <v>3</v>
+      </c>
+      <c r="J68" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K68" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L68" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M68" s="20">
+        <v>0</v>
+      </c>
+      <c r="N68" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O68" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69">
+        <v>1534282757</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>8557</v>
+      </c>
+      <c r="E69">
+        <v>19</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>5.81</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>-1</v>
+      </c>
+      <c r="K69">
+        <v>-1</v>
+      </c>
+      <c r="L69">
+        <v>-1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70">
+        <v>1534282757</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>9472</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.76</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>-1</v>
+      </c>
+      <c r="K70">
+        <v>-1</v>
+      </c>
+      <c r="L70">
+        <v>-1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71">
+        <v>1534282758</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>9077</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0.25</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>-1</v>
+      </c>
+      <c r="K71">
+        <v>-1</v>
+      </c>
+      <c r="L71">
+        <v>-1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72">
+        <v>1534282758</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>9472</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.5</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>-1</v>
+      </c>
+      <c r="K72">
+        <v>-1</v>
+      </c>
+      <c r="L72">
+        <v>-1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73">
+        <v>1534282765</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>9472</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.25</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>-1</v>
+      </c>
+      <c r="K73">
+        <v>-1</v>
+      </c>
+      <c r="L73">
+        <v>-1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74">
+        <v>1534282766</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>9304</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.25</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>-1</v>
+      </c>
+      <c r="K74">
+        <v>-1</v>
+      </c>
+      <c r="L74">
+        <v>-1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75">
+        <v>1534282775</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>8557</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.25</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>-1</v>
+      </c>
+      <c r="K75">
+        <v>-1</v>
+      </c>
+      <c r="L75">
+        <v>-1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76">
+        <v>1534282776</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>9472</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0.25</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>-1</v>
+      </c>
+      <c r="K76">
+        <v>-1</v>
+      </c>
+      <c r="L76">
+        <v>-1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="O78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B5:O76" xr:uid="{C3CEEB98-5A43-0742-B02F-98B432E94D88}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD60DFC0-7BFD-4D4B-8E38-66F6D23E4846}">
+  <dimension ref="B2:O98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="O4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" t="s">
+        <v>239</v>
+      </c>
+      <c r="M5" t="s">
+        <v>240</v>
+      </c>
+      <c r="N5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6">
+        <v>1534284365</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>17459</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7">
+        <v>1534284370</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>17684</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8">
+        <v>1534284374</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>16993</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9">
+        <v>1534284376</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>17876</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10">
+        <v>1534284379</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>17459</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11">
+        <v>1534284380</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>17684</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12">
+        <v>1534284382</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>17876</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="20">
+        <v>1534284383</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>16993</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="20">
+        <v>1</v>
+      </c>
+      <c r="J13" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14">
+        <v>1534284384</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>16993</v>
+      </c>
+      <c r="E14">
+        <v>109</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>30.89</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15">
+        <v>1534284384</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>17876</v>
+      </c>
+      <c r="E15">
+        <v>114</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>30.38</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16">
+        <v>1534284385</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>16993</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>21.12</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17">
+        <v>1534284385</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>17459</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.07</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18">
+        <v>1534284385</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>17876</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2.8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19">
+        <v>1534284386</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>16993</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10.8</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20">
+        <v>1534284386</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>17459</v>
+      </c>
+      <c r="E20">
+        <v>68</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21">
+        <v>1534284386</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>17876</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22">
+        <v>1534284387</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>16993</v>
+      </c>
+      <c r="E22">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23">
+        <v>1534284387</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>17459</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3.54</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24">
+        <v>1534284387</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>17876</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.76</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25">
+        <v>1534284388</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>16993</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>7.61</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26">
+        <v>1534284388</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>17459</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.51</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27">
+        <v>1534284388</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>17876</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.51</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28">
+        <v>1534284389</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>16993</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.51</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29">
+        <v>1534284389</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>17459</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.51</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30">
+        <v>1534284390</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>16993</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>9.09</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31">
+        <v>1534284390</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>17459</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.76</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32">
+        <v>1534284390</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>17876</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1.26</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33">
+        <v>1534284391</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>16993</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>9.09</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34">
+        <v>1534284391</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>17459</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.25</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35">
+        <v>1534284391</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>17684</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.25</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36">
+        <v>1534284391</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>17876</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.76</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37">
+        <v>1534284392</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>16993</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>6.11</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38">
+        <v>1534284392</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>17459</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.76</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39">
+        <v>1534284392</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>17876</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.51</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40">
+        <v>1534284393</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>16993</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>5.79</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>-1</v>
+      </c>
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41">
+        <v>1534284393</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>17459</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.25</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42">
+        <v>1534284393</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>17876</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.25</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43">
+        <v>1534284394</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>16993</v>
+      </c>
+      <c r="E43">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="F43">
+        <v>6.93</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>6.11</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <v>-1</v>
+      </c>
+      <c r="L43">
+        <v>-1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44">
+        <v>1534284394</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>17459</v>
+      </c>
+      <c r="E44">
+        <v>0.99</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.25</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>-1</v>
+      </c>
+      <c r="K44">
+        <v>-1</v>
+      </c>
+      <c r="L44">
+        <v>-1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45">
+        <v>1534284395</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>16993</v>
+      </c>
+      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>9.6</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>-1</v>
+      </c>
+      <c r="K45">
+        <v>-1</v>
+      </c>
+      <c r="L45">
+        <v>-1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46">
+        <v>1534284395</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>17459</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1.26</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>-1</v>
+      </c>
+      <c r="K46">
+        <v>-1</v>
+      </c>
+      <c r="L46">
+        <v>-1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47">
+        <v>1534284395</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>17876</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.51</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>-1</v>
+      </c>
+      <c r="K47">
+        <v>-1</v>
+      </c>
+      <c r="L47">
+        <v>-1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48">
+        <v>1534284396</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>16993</v>
+      </c>
+      <c r="E48">
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>8.35</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>-1</v>
+      </c>
+      <c r="K48">
+        <v>-1</v>
+      </c>
+      <c r="L48">
+        <v>-1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49">
+        <v>1534284396</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>17459</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.25</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>-1</v>
+      </c>
+      <c r="K49">
+        <v>-1</v>
+      </c>
+      <c r="L49">
+        <v>-1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50">
+        <v>1534284396</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>17876</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.51</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>-1</v>
+      </c>
+      <c r="K50">
+        <v>-1</v>
+      </c>
+      <c r="L50">
+        <v>-1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51">
+        <v>1534284397</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>16993</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>6.02</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>-1</v>
+      </c>
+      <c r="K51">
+        <v>-1</v>
+      </c>
+      <c r="L51">
+        <v>-1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52">
+        <v>1534284397</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>17459</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>-1</v>
+      </c>
+      <c r="K52">
+        <v>-1</v>
+      </c>
+      <c r="L52">
+        <v>-1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53">
+        <v>1534284397</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>17876</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.25</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>-1</v>
+      </c>
+      <c r="K53">
+        <v>-1</v>
+      </c>
+      <c r="L53">
+        <v>-1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54">
+        <v>1534284398</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>16993</v>
+      </c>
+      <c r="E54">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>6.09</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>-1</v>
+      </c>
+      <c r="K54">
+        <v>-1</v>
+      </c>
+      <c r="L54">
+        <v>-1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55">
+        <v>1534284398</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>17459</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.25</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>-1</v>
+      </c>
+      <c r="K55">
+        <v>-1</v>
+      </c>
+      <c r="L55">
+        <v>-1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56">
+        <v>1534284398</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>17684</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.25</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>-1</v>
+      </c>
+      <c r="K56">
+        <v>-1</v>
+      </c>
+      <c r="L56">
+        <v>-1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57">
+        <v>1534284398</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>17876</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.25</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>-1</v>
+      </c>
+      <c r="K57">
+        <v>-1</v>
+      </c>
+      <c r="L57">
+        <v>-1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58">
+        <v>1534284399</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>16993</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>7.52</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>-1</v>
+      </c>
+      <c r="K58">
+        <v>-1</v>
+      </c>
+      <c r="L58">
+        <v>-1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59">
+        <v>1534284399</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>17459</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>-1</v>
+      </c>
+      <c r="K59">
+        <v>-1</v>
+      </c>
+      <c r="L59">
+        <v>-1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60">
+        <v>1534284399</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>17876</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>-1</v>
+      </c>
+      <c r="K60">
+        <v>-1</v>
+      </c>
+      <c r="L60">
+        <v>-1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61">
+        <v>1534284400</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>16993</v>
+      </c>
+      <c r="E61">
+        <v>37</v>
+      </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>12.66</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>-1</v>
+      </c>
+      <c r="K61">
+        <v>-1</v>
+      </c>
+      <c r="L61">
+        <v>-1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62">
+        <v>1534284400</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>17459</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.25</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>-1</v>
+      </c>
+      <c r="K62">
+        <v>-1</v>
+      </c>
+      <c r="L62">
+        <v>-1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63">
+        <v>1534284400</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>17876</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>5.57</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>-1</v>
+      </c>
+      <c r="K63">
+        <v>-1</v>
+      </c>
+      <c r="L63">
+        <v>-1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64">
+        <v>1534284401</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>16993</v>
+      </c>
+      <c r="E64">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>6.05</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>-1</v>
+      </c>
+      <c r="K64">
+        <v>-1</v>
+      </c>
+      <c r="L64">
+        <v>-1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65">
+        <v>1534284401</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>17459</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.25</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>-1</v>
+      </c>
+      <c r="K65">
+        <v>-1</v>
+      </c>
+      <c r="L65">
+        <v>-1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66">
+        <v>1534284401</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>17876</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.25</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>-1</v>
+      </c>
+      <c r="K66">
+        <v>-1</v>
+      </c>
+      <c r="L66">
+        <v>-1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67">
+        <v>1534284402</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>16993</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>5.58</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>-1</v>
+      </c>
+      <c r="K67">
+        <v>-1</v>
+      </c>
+      <c r="L67">
+        <v>-1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68">
+        <v>1534284402</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>17459</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0.25</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>-1</v>
+      </c>
+      <c r="K68">
+        <v>-1</v>
+      </c>
+      <c r="L68">
+        <v>-1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69">
+        <v>1534284402</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>17876</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0.25</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>-1</v>
+      </c>
+      <c r="K69">
+        <v>-1</v>
+      </c>
+      <c r="L69">
+        <v>-1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70">
+        <v>1534284403</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>16993</v>
+      </c>
+      <c r="E70">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>5.85</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>-1</v>
+      </c>
+      <c r="K70">
+        <v>-1</v>
+      </c>
+      <c r="L70">
+        <v>-1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71">
+        <v>1534284403</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>17459</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0.25</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>-1</v>
+      </c>
+      <c r="K71">
+        <v>-1</v>
+      </c>
+      <c r="L71">
+        <v>-1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72">
+        <v>1534284403</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>17876</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.25</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>-1</v>
+      </c>
+      <c r="K72">
+        <v>-1</v>
+      </c>
+      <c r="L72">
+        <v>-1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73">
+        <v>1534284404</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>16993</v>
+      </c>
+      <c r="E73">
+        <v>28</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>9.57</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>-1</v>
+      </c>
+      <c r="K73">
+        <v>-1</v>
+      </c>
+      <c r="L73">
+        <v>-1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74">
+        <v>1534284404</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>17459</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>-1</v>
+      </c>
+      <c r="K74">
+        <v>-1</v>
+      </c>
+      <c r="L74">
+        <v>-1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75">
+        <v>1534284404</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>17876</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>-1</v>
+      </c>
+      <c r="K75">
+        <v>-1</v>
+      </c>
+      <c r="L75">
+        <v>-1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76">
+        <v>1534284405</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>16993</v>
+      </c>
+      <c r="E76">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>9.6</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>-1</v>
+      </c>
+      <c r="K76">
+        <v>-1</v>
+      </c>
+      <c r="L76">
+        <v>-1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77">
+        <v>1534284405</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>17459</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>-1</v>
+      </c>
+      <c r="K77">
+        <v>-1</v>
+      </c>
+      <c r="L77">
+        <v>-1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78">
+        <v>1534284405</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>17876</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0.51</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>-1</v>
+      </c>
+      <c r="K78">
+        <v>-1</v>
+      </c>
+      <c r="L78">
+        <v>-1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79">
+        <v>1534284406</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>16993</v>
+      </c>
+      <c r="E79">
+        <v>22</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>7.02</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>-1</v>
+      </c>
+      <c r="K79">
+        <v>-1</v>
+      </c>
+      <c r="L79">
+        <v>-1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80">
+        <v>1534284406</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>17459</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>-1</v>
+      </c>
+      <c r="K80">
+        <v>-1</v>
+      </c>
+      <c r="L80">
+        <v>-1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81">
+        <v>1534284406</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>17876</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.25</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>-1</v>
+      </c>
+      <c r="K81">
+        <v>-1</v>
+      </c>
+      <c r="L81">
+        <v>-1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82">
+        <v>1534284407</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>16993</v>
+      </c>
+      <c r="E82">
+        <v>15</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>5.84</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>-1</v>
+      </c>
+      <c r="K82">
+        <v>-1</v>
+      </c>
+      <c r="L82">
+        <v>-1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83">
+        <v>1534284407</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>17459</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1.02</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>-1</v>
+      </c>
+      <c r="K83">
+        <v>-1</v>
+      </c>
+      <c r="L83">
+        <v>-1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84">
+        <v>1534284407</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>17876</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0.25</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>-1</v>
+      </c>
+      <c r="K84">
+        <v>-1</v>
+      </c>
+      <c r="L84">
+        <v>-1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" s="20">
+        <v>1534284408</v>
+      </c>
+      <c r="C85" s="20">
+        <v>0</v>
+      </c>
+      <c r="D85" s="20">
+        <v>16993</v>
+      </c>
+      <c r="E85" s="20">
+        <v>16</v>
+      </c>
+      <c r="F85" s="20">
+        <v>8</v>
+      </c>
+      <c r="G85" s="20">
+        <v>0</v>
+      </c>
+      <c r="H85" s="20">
+        <v>6.08</v>
+      </c>
+      <c r="I85" s="20">
+        <v>1</v>
+      </c>
+      <c r="J85" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K85" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L85" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M85" s="20">
+        <v>0</v>
+      </c>
+      <c r="N85" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" s="20">
+        <v>1534284408</v>
+      </c>
+      <c r="C86" s="20">
+        <v>0</v>
+      </c>
+      <c r="D86" s="20">
+        <v>17459</v>
+      </c>
+      <c r="E86" s="20">
+        <v>1</v>
+      </c>
+      <c r="F86" s="20">
+        <v>0</v>
+      </c>
+      <c r="G86" s="20">
+        <v>0</v>
+      </c>
+      <c r="H86" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="I86" s="20">
+        <v>0</v>
+      </c>
+      <c r="J86" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K86" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L86" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M86" s="20">
+        <v>0</v>
+      </c>
+      <c r="N86" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" s="20">
+        <v>1534284408</v>
+      </c>
+      <c r="C87" s="20">
+        <v>0</v>
+      </c>
+      <c r="D87" s="20">
+        <v>17876</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1</v>
+      </c>
+      <c r="F87" s="20">
+        <v>0</v>
+      </c>
+      <c r="G87" s="20">
+        <v>0</v>
+      </c>
+      <c r="H87" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="I87" s="20">
+        <v>0</v>
+      </c>
+      <c r="J87" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K87" s="20">
+        <v>-1</v>
+      </c>
+      <c r="L87" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M87" s="20">
+        <v>0</v>
+      </c>
+      <c r="N87" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88">
+        <v>1534284409</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>16993</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0.5</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>-1</v>
+      </c>
+      <c r="K88">
+        <v>-1</v>
+      </c>
+      <c r="L88">
+        <v>-1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89">
+        <v>1534284409</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>17459</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1.26</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>-1</v>
+      </c>
+      <c r="K89">
+        <v>-1</v>
+      </c>
+      <c r="L89">
+        <v>-1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90">
+        <v>1534284409</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>17684</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0.25</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>-1</v>
+      </c>
+      <c r="K90">
+        <v>-1</v>
+      </c>
+      <c r="L90">
+        <v>-1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91">
+        <v>1534284409</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>17876</v>
+      </c>
+      <c r="E91">
+        <v>82</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>21.61</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>-1</v>
+      </c>
+      <c r="K91">
+        <v>-1</v>
+      </c>
+      <c r="L91">
+        <v>-1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92">
+        <v>1534284412</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>16993</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0.25</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>-1</v>
+      </c>
+      <c r="K92">
+        <v>-1</v>
+      </c>
+      <c r="L92">
+        <v>-1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93">
+        <v>1534284414</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>17459</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0.25</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>-1</v>
+      </c>
+      <c r="K93">
+        <v>-1</v>
+      </c>
+      <c r="L93">
+        <v>-1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94">
+        <v>1534284419</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>17684</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0.25</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>-1</v>
+      </c>
+      <c r="K94">
+        <v>-1</v>
+      </c>
+      <c r="L94">
+        <v>-1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95">
+        <v>1534284420</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>17876</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0.25</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>-1</v>
+      </c>
+      <c r="K95">
+        <v>-1</v>
+      </c>
+      <c r="L95">
+        <v>-1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96">
+        <v>1534284422</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>17459</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0.25</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>-1</v>
+      </c>
+      <c r="K96">
+        <v>-1</v>
+      </c>
+      <c r="L96">
+        <v>-1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B5:O96" xr:uid="{828AED46-F390-254B-96F8-BBA4EA2312C7}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6F3FE4-5E66-A148-BE98-8D8560719613}">
   <dimension ref="B2:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18705,11 +25974,11 @@
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="2">
+      <c r="B68" s="37">
         <f>B41*B67</f>
         <v>13803.888333333332</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="21" t="s">
         <v>228</v>
       </c>
     </row>
@@ -18741,7 +26010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF4C89D-AEC3-374B-ABD8-380F77CF53FE}">
   <dimension ref="B2:P160"/>
   <sheetViews>
@@ -25825,11 +33094,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D484E32-A849-FD4D-BA75-AFABA3561116}">
   <dimension ref="B2:K140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A131" workbookViewId="0">
       <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
@@ -28517,11 +35786,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BFCBFC-24CA-254F-971D-24F0FC78D926}">
   <dimension ref="B2:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -29495,7 +36764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67C75D3-24EB-9A4F-8CC5-AD70721CBB63}">
   <dimension ref="B2:G13"/>
   <sheetViews>
@@ -29660,12 +36929,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD21A5B0-8B2C-1D42-A47C-86B43B66008E}">
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29791,105 +37060,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455C45AD-3E25-944C-B85B-154C22889A6D}">
-  <dimension ref="B2:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7">
-        <v>14440</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7">
-        <v>18750</v>
-      </c>
-      <c r="D3">
-        <f>C3-C2</f>
-        <v>4310</v>
-      </c>
-      <c r="E3" s="13">
-        <f>D3/C2</f>
-        <v>0.29847645429362879</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4" s="7">
-        <v>24816</v>
-      </c>
-      <c r="D4">
-        <f>C4-C3</f>
-        <v>6066</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" ref="E4:E6" si="0">D4/C3</f>
-        <v>0.32351999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" s="7">
-        <v>33844</v>
-      </c>
-      <c r="D5">
-        <f>C5-C4</f>
-        <v>9028</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.36379754996776276</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6" s="7">
-        <v>35904</v>
-      </c>
-      <c r="D6">
-        <f>C6-C5</f>
-        <v>2060</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>6.0867509750620497E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D10FB-35D9-6644-9CBF-948E883FB7C9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Figures/TestResults.xlsx
+++ b/Figures/TestResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eoin/Work/PhdThesis/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0601AF30-151A-974A-9F33-C46117F8959B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB8A81E-EA4E-C243-BC2B-3088CF960D72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="720" windowWidth="27340" windowHeight="15580" activeTab="1" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
+    <workbookView xWindow="720" yWindow="2880" windowWidth="27340" windowHeight="14440" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="263">
   <si>
     <t>Scenario</t>
   </si>
@@ -967,6 +967,42 @@
   <si>
     <t>It uses considerably less CPU than the set in "pidstat - set 3" but it isn't clear why.</t>
   </si>
+  <si>
+    <t>The data tests below are probably invalid as I realised that the reusable data block creation was (accidentally) being done on each request (!)</t>
+  </si>
+  <si>
+    <t>datasize-tests-20180817</t>
+  </si>
+  <si>
+    <t>20180817-234956</t>
+  </si>
+  <si>
+    <t>20180817-234549</t>
+  </si>
+  <si>
+    <t>20180817-234632</t>
+  </si>
+  <si>
+    <t>20180817-234716</t>
+  </si>
+  <si>
+    <t>20180817-235054</t>
+  </si>
+  <si>
+    <t>20180817-235213</t>
+  </si>
+  <si>
+    <t>20180817-235331</t>
+  </si>
+  <si>
+    <t>20180817-234800</t>
+  </si>
+  <si>
+    <t>20180817-234858</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
 </sst>
 </file>
 
@@ -1045,7 +1081,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,6 +1130,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1108,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1155,6 +1197,8 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7086,9 +7130,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$C$46:$C$57</c:f>
+              <c:f>Results!$C$46:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>data-100mbx4</c:v>
                 </c:pt>
@@ -7099,30 +7143,21 @@
                   <c:v>data-100mbx4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>data-500mbx4</c:v>
+                  <c:v>data-1gbx4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>data-500mbx4</c:v>
+                  <c:v>data-1gbx4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>data-500mbx4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>data-1gbx4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>data-1gbx4</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>data-1gbx4</c:v>
                 </c:pt>
               </c:strCache>
@@ -7130,45 +7165,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$L$46:$L$57</c:f>
+              <c:f>Results!$L$46:$L$54</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1742</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>258</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>267</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255</c:v>
+                  <c:v>3282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>3648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>242</c:v>
+                  <c:v>3523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3904</c:v>
+                  <c:v>8541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3496</c:v>
+                  <c:v>8265</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3445</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7269</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7396</c:v>
+                  <c:v>8820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7228,9 +7254,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$C$46:$C$57</c:f>
+              <c:f>Results!$C$46:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>data-100mbx4</c:v>
                 </c:pt>
@@ -7241,30 +7267,21 @@
                   <c:v>data-100mbx4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>data-500mbx4</c:v>
+                  <c:v>data-1gbx4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>data-500mbx4</c:v>
+                  <c:v>data-1gbx4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>data-500mbx4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>data-1gbx4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>data-1gbx4</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>data-1gbx4</c:v>
                 </c:pt>
               </c:strCache>
@@ -7272,45 +7289,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$Q$46:$Q$57</c:f>
+              <c:f>Results!$Q$46:$Q$54</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>293</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>339</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>303</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>621</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7837,9 +7845,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$C$47:$C$57</c:f>
+              <c:f>Results!$C$47:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>data-100mbx4</c:v>
                 </c:pt>
@@ -7847,30 +7855,21 @@
                   <c:v>data-100mbx4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>data-500mbx4</c:v>
+                  <c:v>data-1gbx4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>data-500mbx4</c:v>
+                  <c:v>data-1gbx4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>data-500mbx4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>data-1gbx4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>data-1gbx4</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>data-1gbx4</c:v>
                 </c:pt>
               </c:strCache>
@@ -7878,10 +7877,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$K$47:$K$57</c:f>
+              <c:f>Results!$K$47:$K$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
@@ -7889,30 +7888,21 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
@@ -7973,9 +7963,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$C$47:$C$57</c:f>
+              <c:f>Results!$C$47:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>data-100mbx4</c:v>
                 </c:pt>
@@ -7983,30 +7973,21 @@
                   <c:v>data-100mbx4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>data-100mbx4</c:v>
+                  <c:v>data-500mbx4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>data-500mbx4</c:v>
+                  <c:v>data-1gbx4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>data-500mbx4</c:v>
+                  <c:v>data-1gbx4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>data-500mbx4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>data-1gbx4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>data-1gbx4</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>data-1gbx4</c:v>
                 </c:pt>
               </c:strCache>
@@ -8014,42 +7995,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$O$47:$O$57</c:f>
+              <c:f>Results!$O$47:$O$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>339</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>303</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>621</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8564,7 +8536,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$C$58:$C$69</c:f>
+              <c:f>Results!$C$55:$C$66</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -8608,7 +8580,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$L$58:$L$69</c:f>
+              <c:f>Results!$L$55:$L$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8694,7 +8666,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$C$58:$C$69</c:f>
+              <c:f>Results!$C$55:$C$66</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -8738,7 +8710,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$Q$58:$Q$69</c:f>
+              <c:f>Results!$Q$55:$Q$66</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -14646,16 +14618,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A7A84C-38BB-9C46-BB61-734C431F3DDA}">
-  <dimension ref="B2:S90"/>
+  <dimension ref="A2:S96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
@@ -14760,7 +14732,7 @@
         <v>226900</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ref="L5:L57" si="0">I5/D5</f>
+        <f t="shared" ref="L5:L45" si="0">I5/D5</f>
         <v>22690</v>
       </c>
       <c r="M5" s="9">
@@ -14777,7 +14749,7 @@
         <v>0.10027324812692816</v>
       </c>
       <c r="Q5" s="10">
-        <f t="shared" ref="Q5:Q57" si="1">O5/D5</f>
+        <f t="shared" ref="Q5:Q45" si="1">O5/D5</f>
         <v>2275.1999999999998</v>
       </c>
       <c r="R5" s="9">
@@ -16252,7 +16224,7 @@
         <v>13529</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" ref="P34:P57" si="5">O34/I34</f>
+        <f t="shared" ref="P34:P45" si="5">O34/I34</f>
         <v>0.10725214440868228</v>
       </c>
       <c r="Q34" s="8">
@@ -16277,7 +16249,7 @@
         <v>70</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f t="shared" ref="F35:F57" si="6">LEFT(E35, 8)</f>
+        <f t="shared" ref="F35:F54" si="6">LEFT(E35, 8)</f>
         <v>20180808</v>
       </c>
       <c r="G35" s="7">
@@ -16826,7 +16798,7 @@
     </row>
     <row r="46" spans="2:18" s="23" customFormat="1">
       <c r="B46" s="23" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>125</v>
@@ -16835,20 +16807,20 @@
         <v>1</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="F46" s="23" t="str">
         <f>LEFT(E46, 8)</f>
-        <v>20180813</v>
+        <v>20180817</v>
       </c>
       <c r="G46" s="23">
         <v>0</v>
       </c>
       <c r="H46" s="23">
-        <v>3135</v>
+        <v>2561</v>
       </c>
       <c r="I46" s="23">
-        <v>1742</v>
+        <v>188</v>
       </c>
       <c r="J46" s="23">
         <v>400</v>
@@ -16859,32 +16831,32 @@
       </c>
       <c r="L46" s="24">
         <f>I46/D46</f>
-        <v>1742</v>
+        <v>188</v>
       </c>
       <c r="M46" s="23">
-        <v>1605</v>
+        <v>556</v>
       </c>
       <c r="N46" s="23">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="O46" s="23">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="P46" s="23">
         <f>O46/I46</f>
-        <v>0.16819747416762343</v>
+        <v>0.23404255319148937</v>
       </c>
       <c r="Q46" s="24">
         <f>O46/D46</f>
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="R46" s="23">
-        <v>270</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:18" s="23" customFormat="1">
       <c r="B47" s="23" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>125</v>
@@ -16893,56 +16865,56 @@
         <v>1</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="F47" s="23" t="str">
         <f>LEFT(E47, 8)</f>
-        <v>20180813</v>
+        <v>20180817</v>
       </c>
       <c r="G47" s="23">
         <v>0</v>
       </c>
       <c r="H47" s="23">
-        <v>2565</v>
+        <v>2556</v>
       </c>
       <c r="I47" s="23">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="J47" s="23">
         <v>400</v>
       </c>
       <c r="K47" s="23">
-        <f t="shared" ref="K47:K69" si="7">J47/D47</f>
+        <f>J47/D47</f>
         <v>400</v>
       </c>
       <c r="L47" s="24">
         <f>I47/D47</f>
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="M47" s="23">
-        <v>972</v>
+        <v>1066</v>
       </c>
       <c r="N47" s="23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O47" s="23">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P47" s="23">
         <f>O47/I47</f>
-        <v>0.17054263565891473</v>
+        <v>0.16304347826086957</v>
       </c>
       <c r="Q47" s="24">
         <f>O47/D47</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R47" s="23">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="2:18" s="23" customFormat="1">
       <c r="B48" s="23" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>125</v>
@@ -16951,11 +16923,11 @@
         <v>1</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F48" s="23" t="str">
         <f>LEFT(E48, 8)</f>
-        <v>20180813</v>
+        <v>20180817</v>
       </c>
       <c r="G48" s="23">
         <v>0</v>
@@ -16964,574 +16936,586 @@
         <v>2567</v>
       </c>
       <c r="I48" s="23">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J48" s="23">
         <v>400</v>
       </c>
       <c r="K48" s="23">
-        <f t="shared" si="7"/>
+        <f>J48/D48</f>
         <v>400</v>
       </c>
       <c r="L48" s="24">
         <f>I48/D48</f>
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M48" s="23">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="N48" s="23">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O48" s="23">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P48" s="23">
         <f>O48/I48</f>
-        <v>0.17602996254681649</v>
+        <v>0.17204301075268819</v>
       </c>
       <c r="Q48" s="24">
         <f>O48/D48</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R48" s="23">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" s="23" customFormat="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="23" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D49" s="23">
         <v>1</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="F49" s="23" t="str">
         <f>LEFT(E49, 8)</f>
-        <v>20180814</v>
+        <v>20180817</v>
       </c>
       <c r="G49" s="23">
         <v>0</v>
       </c>
       <c r="H49" s="23">
-        <v>2551</v>
+        <v>16539</v>
       </c>
       <c r="I49" s="23">
-        <v>255</v>
+        <v>3282</v>
       </c>
       <c r="J49" s="23">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K49" s="23">
-        <f t="shared" si="7"/>
-        <v>400</v>
+        <f>J49/D49</f>
+        <v>2000</v>
       </c>
       <c r="L49" s="24">
         <f>I49/D49</f>
-        <v>255</v>
+        <v>3282</v>
       </c>
       <c r="M49" s="23">
-        <v>954</v>
+        <v>24249</v>
       </c>
       <c r="N49" s="23">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O49" s="23">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="P49" s="23">
         <f>O49/I49</f>
-        <v>0.16862745098039217</v>
+        <v>8.6837294332723955E-2</v>
       </c>
       <c r="Q49" s="24">
         <f>O49/D49</f>
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="R49" s="23">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" s="23" customFormat="1">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="23" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D50" s="23">
         <v>1</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="F50" s="23" t="str">
         <f>LEFT(E50, 8)</f>
-        <v>20180814</v>
+        <v>20180817</v>
       </c>
       <c r="G50" s="23">
         <v>0</v>
       </c>
       <c r="H50" s="23">
-        <v>2558</v>
+        <v>16558</v>
       </c>
       <c r="I50" s="23">
-        <v>150</v>
+        <v>3648</v>
       </c>
       <c r="J50" s="23">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K50" s="23">
-        <f t="shared" si="7"/>
-        <v>400</v>
+        <f>J50/D50</f>
+        <v>2000</v>
       </c>
       <c r="L50" s="24">
         <f>I50/D50</f>
-        <v>150</v>
+        <v>3648</v>
       </c>
       <c r="M50" s="23">
-        <v>1018</v>
+        <v>23331</v>
       </c>
       <c r="N50" s="23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O50" s="23">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="P50" s="23">
         <f>O50/I50</f>
-        <v>0.17333333333333334</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="Q50" s="24">
         <f>O50/D50</f>
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="R50" s="23">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" s="23" customFormat="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="23" customFormat="1">
       <c r="B51" s="23" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D51" s="23">
         <v>1</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="F51" s="23" t="str">
         <f>LEFT(E51, 8)</f>
-        <v>20180814</v>
+        <v>20180817</v>
       </c>
       <c r="G51" s="23">
         <v>0</v>
       </c>
       <c r="H51" s="23">
-        <v>2560</v>
+        <v>16611</v>
       </c>
       <c r="I51" s="23">
-        <v>242</v>
+        <v>3523</v>
       </c>
       <c r="J51" s="23">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K51" s="23">
-        <f t="shared" si="7"/>
-        <v>400</v>
+        <f>J51/D51</f>
+        <v>2000</v>
       </c>
       <c r="L51" s="24">
         <f>I51/D51</f>
-        <v>242</v>
+        <v>3523</v>
       </c>
       <c r="M51" s="23">
-        <v>893</v>
+        <v>21221</v>
       </c>
       <c r="N51" s="23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O51" s="23">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="P51" s="23">
         <f>O51/I51</f>
-        <v>0.18181818181818182</v>
+        <v>9.3102469486233325E-2</v>
       </c>
       <c r="Q51" s="24">
         <f>O51/D51</f>
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="R51" s="23">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" s="23" customFormat="1">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="23" customFormat="1">
       <c r="B52" s="23" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D52" s="23">
         <v>1</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="F52" s="23" t="str">
         <f>LEFT(E52, 8)</f>
-        <v>20180813</v>
+        <v>20180817</v>
       </c>
       <c r="G52" s="23">
         <v>0</v>
       </c>
       <c r="H52" s="23">
-        <v>16498</v>
+        <v>36769</v>
       </c>
       <c r="I52" s="23">
-        <v>3904</v>
+        <v>8541</v>
       </c>
       <c r="J52" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K52" s="23">
-        <f t="shared" si="7"/>
-        <v>2000</v>
+        <f>J52/D52</f>
+        <v>4000</v>
       </c>
       <c r="L52" s="24">
         <f>I52/D52</f>
-        <v>3904</v>
+        <v>8541</v>
       </c>
       <c r="M52" s="23">
-        <v>23889</v>
+        <v>59822</v>
       </c>
       <c r="N52" s="23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O52" s="23">
-        <v>339</v>
+        <v>707</v>
       </c>
       <c r="P52" s="23">
         <f>O52/I52</f>
-        <v>8.6834016393442626E-2</v>
+        <v>8.277719236623346E-2</v>
       </c>
       <c r="Q52" s="24">
         <f>O52/D52</f>
-        <v>339</v>
+        <v>707</v>
       </c>
       <c r="R52" s="23">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" s="23" customFormat="1">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="23" customFormat="1">
       <c r="B53" s="23" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D53" s="23">
         <v>1</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="F53" s="23" t="str">
         <f>LEFT(E53, 8)</f>
-        <v>20180813</v>
+        <v>20180817</v>
       </c>
       <c r="G53" s="23">
         <v>0</v>
       </c>
       <c r="H53" s="23">
-        <v>16518</v>
+        <v>36896</v>
       </c>
       <c r="I53" s="23">
-        <v>3496</v>
+        <v>8265</v>
       </c>
       <c r="J53" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K53" s="23">
-        <f t="shared" si="7"/>
-        <v>2000</v>
+        <f>J53/D53</f>
+        <v>4000</v>
       </c>
       <c r="L53" s="24">
         <f>I53/D53</f>
-        <v>3496</v>
+        <v>8265</v>
       </c>
       <c r="M53" s="23">
-        <v>24308</v>
+        <v>60896</v>
       </c>
       <c r="N53" s="23">
         <v>14</v>
       </c>
       <c r="O53" s="23">
-        <v>303</v>
+        <v>671</v>
       </c>
       <c r="P53" s="23">
         <f>O53/I53</f>
-        <v>8.6670480549199083E-2</v>
+        <v>8.1185722928009685E-2</v>
       </c>
       <c r="Q53" s="24">
         <f>O53/D53</f>
-        <v>303</v>
+        <v>671</v>
       </c>
       <c r="R53" s="23">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" s="23" customFormat="1">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="23" customFormat="1">
       <c r="B54" s="23" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D54" s="23">
         <v>1</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="F54" s="23" t="str">
         <f>LEFT(E54, 8)</f>
-        <v>20180813</v>
+        <v>20180817</v>
       </c>
       <c r="G54" s="23">
         <v>0</v>
       </c>
       <c r="H54" s="23">
-        <v>17272</v>
+        <v>36892</v>
       </c>
       <c r="I54" s="23">
-        <v>3445</v>
+        <v>8820</v>
       </c>
       <c r="J54" s="23">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K54" s="23">
-        <f t="shared" si="7"/>
-        <v>2000</v>
+        <f>J54/D54</f>
+        <v>4000</v>
       </c>
       <c r="L54" s="24">
         <f>I54/D54</f>
-        <v>3445</v>
+        <v>8820</v>
       </c>
       <c r="M54" s="23">
-        <v>35363</v>
+        <v>60502</v>
       </c>
       <c r="N54" s="23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O54" s="23">
-        <v>250</v>
+        <v>721</v>
       </c>
       <c r="P54" s="23">
         <f>O54/I54</f>
-        <v>7.2568940493468792E-2</v>
+        <v>8.1746031746031747E-2</v>
       </c>
       <c r="Q54" s="24">
         <f>O54/D54</f>
-        <v>250</v>
+        <v>721</v>
       </c>
       <c r="R54" s="23">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" s="23" customFormat="1">
-      <c r="B55" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="23">
-        <v>1</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="23" t="str">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="25" customFormat="1">
+      <c r="A55" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="25">
+        <v>5</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="25" t="str">
         <f>LEFT(E55, 8)</f>
-        <v>20180813</v>
-      </c>
-      <c r="G55" s="23">
-        <v>0</v>
-      </c>
-      <c r="H55" s="23">
-        <v>36711</v>
-      </c>
-      <c r="I55" s="23">
-        <v>7585</v>
-      </c>
-      <c r="J55" s="23">
-        <v>4000</v>
-      </c>
-      <c r="K55" s="23">
+        <v>20180814</v>
+      </c>
+      <c r="G55" s="25">
+        <v>0</v>
+      </c>
+      <c r="H55" s="25">
+        <v>23893</v>
+      </c>
+      <c r="I55" s="25">
+        <v>5864</v>
+      </c>
+      <c r="J55" s="25">
+        <v>3000</v>
+      </c>
+      <c r="K55" s="25">
+        <f t="shared" ref="K47:K66" si="7">J55/D55</f>
+        <v>600</v>
+      </c>
+      <c r="L55" s="26">
+        <f>I55/D55</f>
+        <v>1172.8</v>
+      </c>
+      <c r="M55" s="25">
+        <v>29547</v>
+      </c>
+      <c r="N55" s="25">
+        <v>20</v>
+      </c>
+      <c r="O55" s="25">
+        <v>555</v>
+      </c>
+      <c r="P55" s="25">
+        <f>O55/I55</f>
+        <v>9.464529331514325E-2</v>
+      </c>
+      <c r="Q55" s="26">
+        <f>O55/D55</f>
+        <v>111</v>
+      </c>
+      <c r="R55" s="25">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="25" customFormat="1">
+      <c r="A56" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="25">
+        <v>5</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="25" t="str">
+        <f>LEFT(E56, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G56" s="25">
+        <v>0</v>
+      </c>
+      <c r="H56" s="25">
+        <v>24253</v>
+      </c>
+      <c r="I56" s="25">
+        <v>6137</v>
+      </c>
+      <c r="J56" s="25">
+        <v>3000</v>
+      </c>
+      <c r="K56" s="25">
         <f t="shared" si="7"/>
-        <v>4000</v>
-      </c>
-      <c r="L55" s="24">
-        <f>I55/D55</f>
-        <v>7585</v>
-      </c>
-      <c r="M55" s="23">
-        <v>53502</v>
-      </c>
-      <c r="N55" s="23">
-        <v>14</v>
-      </c>
-      <c r="O55" s="23">
-        <v>661</v>
-      </c>
-      <c r="P55" s="23">
-        <f>O55/I55</f>
-        <v>8.7145682267633487E-2</v>
-      </c>
-      <c r="Q55" s="24">
-        <f>O55/D55</f>
-        <v>661</v>
-      </c>
-      <c r="R55" s="23">
-        <v>4666</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" s="23" customFormat="1">
-      <c r="B56" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="23">
-        <v>1</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" s="23" t="str">
-        <f>LEFT(E56, 8)</f>
-        <v>20180813</v>
-      </c>
-      <c r="G56" s="23">
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
-        <v>36717</v>
-      </c>
-      <c r="I56" s="23">
-        <v>7269</v>
-      </c>
-      <c r="J56" s="23">
-        <v>4000</v>
-      </c>
-      <c r="K56" s="23">
+        <v>600</v>
+      </c>
+      <c r="L56" s="26">
+        <f>I56/D56</f>
+        <v>1227.4000000000001</v>
+      </c>
+      <c r="M56" s="25">
+        <v>33525</v>
+      </c>
+      <c r="N56" s="25">
+        <v>18</v>
+      </c>
+      <c r="O56" s="25">
+        <v>562</v>
+      </c>
+      <c r="P56" s="25">
+        <f>O56/I56</f>
+        <v>9.1575688447124007E-2</v>
+      </c>
+      <c r="Q56" s="26">
+        <f>O56/D56</f>
+        <v>112.4</v>
+      </c>
+      <c r="R56" s="25">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="25" customFormat="1">
+      <c r="A57" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="25">
+        <v>5</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="25" t="str">
+        <f>LEFT(E57, 8)</f>
+        <v>20180815</v>
+      </c>
+      <c r="G57" s="25">
+        <v>0</v>
+      </c>
+      <c r="H57" s="25">
+        <v>24959</v>
+      </c>
+      <c r="I57" s="25">
+        <v>9892</v>
+      </c>
+      <c r="J57" s="25">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="25">
         <f t="shared" si="7"/>
-        <v>4000</v>
-      </c>
-      <c r="L56" s="24">
-        <f>I56/D56</f>
-        <v>7269</v>
-      </c>
-      <c r="M56" s="23">
-        <v>52664</v>
-      </c>
-      <c r="N56" s="23">
-        <v>14</v>
-      </c>
-      <c r="O56" s="23">
-        <v>644</v>
-      </c>
-      <c r="P56" s="23">
-        <f>O56/I56</f>
-        <v>8.8595405145136877E-2</v>
-      </c>
-      <c r="Q56" s="24">
-        <f>O56/D56</f>
-        <v>644</v>
-      </c>
-      <c r="R56" s="23">
-        <v>4666</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" s="23" customFormat="1">
-      <c r="B57" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="23">
-        <v>1</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="23" t="str">
-        <f>LEFT(E57, 8)</f>
-        <v>20180814</v>
-      </c>
-      <c r="G57" s="23">
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
-        <v>36829</v>
-      </c>
-      <c r="I57" s="23">
-        <v>7396</v>
-      </c>
-      <c r="J57" s="23">
-        <v>4000</v>
-      </c>
-      <c r="K57" s="23">
-        <f t="shared" si="7"/>
-        <v>4000</v>
-      </c>
-      <c r="L57" s="24">
+        <v>600</v>
+      </c>
+      <c r="L57" s="26">
         <f>I57/D57</f>
-        <v>7396</v>
-      </c>
-      <c r="M57" s="23">
-        <v>58227</v>
-      </c>
-      <c r="N57" s="23">
-        <v>13</v>
-      </c>
-      <c r="O57" s="23">
-        <v>621</v>
-      </c>
-      <c r="P57" s="23">
+        <v>1978.4</v>
+      </c>
+      <c r="M57" s="25">
+        <v>34604</v>
+      </c>
+      <c r="N57" s="25">
+        <v>29</v>
+      </c>
+      <c r="O57" s="25">
+        <v>879</v>
+      </c>
+      <c r="P57" s="25">
         <f>O57/I57</f>
-        <v>8.3964305029745806E-2</v>
-      </c>
-      <c r="Q57" s="24">
+        <v>8.8859684593611002E-2</v>
+      </c>
+      <c r="Q57" s="26">
         <f>O57/D57</f>
-        <v>621</v>
-      </c>
-      <c r="R57" s="23">
-        <v>4896</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" s="25" customFormat="1">
+        <v>175.8</v>
+      </c>
+      <c r="R57" s="25">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="25" customFormat="1">
+      <c r="A58" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="B58" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D58" s="25">
         <v>5</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F58" s="25" t="str">
         <f>LEFT(E58, 8)</f>
@@ -17541,10 +17525,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="25">
-        <v>23893</v>
+        <v>24316</v>
       </c>
       <c r="I58" s="25">
-        <v>5864</v>
+        <v>5809</v>
       </c>
       <c r="J58" s="25">
         <v>3000</v>
@@ -17555,41 +17539,44 @@
       </c>
       <c r="L58" s="26">
         <f>I58/D58</f>
-        <v>1172.8</v>
+        <v>1161.8</v>
       </c>
       <c r="M58" s="25">
-        <v>29547</v>
+        <v>31070</v>
       </c>
       <c r="N58" s="25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O58" s="25">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P58" s="25">
         <f>O58/I58</f>
-        <v>9.464529331514325E-2</v>
+        <v>9.5024961266999483E-2</v>
       </c>
       <c r="Q58" s="26">
         <f>O58/D58</f>
-        <v>111</v>
+        <v>110.4</v>
       </c>
       <c r="R58" s="25">
-        <v>2797</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" s="25" customFormat="1">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="25" customFormat="1">
+      <c r="A59" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="B59" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D59" s="25">
         <v>5</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F59" s="25" t="str">
         <f>LEFT(E59, 8)</f>
@@ -17599,10 +17586,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="25">
-        <v>24253</v>
+        <v>24557</v>
       </c>
       <c r="I59" s="25">
-        <v>6137</v>
+        <v>5725</v>
       </c>
       <c r="J59" s="25">
         <v>3000</v>
@@ -17613,41 +17600,44 @@
       </c>
       <c r="L59" s="26">
         <f>I59/D59</f>
-        <v>1227.4000000000001</v>
+        <v>1145</v>
       </c>
       <c r="M59" s="25">
-        <v>33525</v>
+        <v>32726</v>
       </c>
       <c r="N59" s="25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O59" s="25">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="P59" s="25">
         <f>O59/I59</f>
-        <v>9.1575688447124007E-2</v>
+        <v>9.1528384279475988E-2</v>
       </c>
       <c r="Q59" s="26">
         <f>O59/D59</f>
-        <v>112.4</v>
+        <v>104.8</v>
       </c>
       <c r="R59" s="25">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" s="25" customFormat="1">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="25" customFormat="1">
+      <c r="A60" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="B60" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D60" s="25">
         <v>5</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F60" s="25" t="str">
         <f>LEFT(E60, 8)</f>
@@ -17657,10 +17647,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="25">
-        <v>24959</v>
+        <v>24133</v>
       </c>
       <c r="I60" s="25">
-        <v>9892</v>
+        <v>5796</v>
       </c>
       <c r="J60" s="25">
         <v>3000</v>
@@ -17671,41 +17661,44 @@
       </c>
       <c r="L60" s="26">
         <f>I60/D60</f>
-        <v>1978.4</v>
+        <v>1159.2</v>
       </c>
       <c r="M60" s="25">
-        <v>34604</v>
+        <v>33081</v>
       </c>
       <c r="N60" s="25">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O60" s="25">
-        <v>879</v>
+        <v>532</v>
       </c>
       <c r="P60" s="25">
         <f>O60/I60</f>
-        <v>8.8859684593611002E-2</v>
+        <v>9.1787439613526575E-2</v>
       </c>
       <c r="Q60" s="26">
         <f>O60/D60</f>
-        <v>175.8</v>
+        <v>106.4</v>
       </c>
       <c r="R60" s="25">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" s="25" customFormat="1">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="25" customFormat="1">
+      <c r="A61" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="B61" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D61" s="25">
         <v>5</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F61" s="25" t="str">
         <f>LEFT(E61, 8)</f>
@@ -17715,10 +17708,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="25">
-        <v>24316</v>
+        <v>24475</v>
       </c>
       <c r="I61" s="25">
-        <v>5809</v>
+        <v>5548</v>
       </c>
       <c r="J61" s="25">
         <v>3000</v>
@@ -17729,41 +17722,44 @@
       </c>
       <c r="L61" s="26">
         <f>I61/D61</f>
-        <v>1161.8</v>
+        <v>1109.5999999999999</v>
       </c>
       <c r="M61" s="25">
-        <v>31070</v>
+        <v>36414</v>
       </c>
       <c r="N61" s="25">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O61" s="25">
-        <v>552</v>
+        <v>479</v>
       </c>
       <c r="P61" s="25">
         <f>O61/I61</f>
-        <v>9.5024961266999483E-2</v>
+        <v>8.6337418889689974E-2</v>
       </c>
       <c r="Q61" s="26">
         <f>O61/D61</f>
-        <v>110.4</v>
+        <v>95.8</v>
       </c>
       <c r="R61" s="25">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" s="25" customFormat="1">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="25" customFormat="1">
+      <c r="A62" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="B62" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D62" s="25">
         <v>5</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F62" s="25" t="str">
         <f>LEFT(E62, 8)</f>
@@ -17773,10 +17769,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="25">
-        <v>24557</v>
+        <v>24526</v>
       </c>
       <c r="I62" s="25">
-        <v>5725</v>
+        <v>5674</v>
       </c>
       <c r="J62" s="25">
         <v>3000</v>
@@ -17787,41 +17783,44 @@
       </c>
       <c r="L62" s="26">
         <f>I62/D62</f>
-        <v>1145</v>
+        <v>1134.8</v>
       </c>
       <c r="M62" s="25">
-        <v>32726</v>
+        <v>35180</v>
       </c>
       <c r="N62" s="25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O62" s="25">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="P62" s="25">
         <f>O62/I62</f>
-        <v>9.1528384279475988E-2</v>
+        <v>8.8473739866055695E-2</v>
       </c>
       <c r="Q62" s="26">
         <f>O62/D62</f>
-        <v>104.8</v>
+        <v>100.4</v>
       </c>
       <c r="R62" s="25">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" s="25" customFormat="1">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="25" customFormat="1">
+      <c r="A63" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="B63" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D63" s="25">
         <v>5</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F63" s="25" t="str">
         <f>LEFT(E63, 8)</f>
@@ -17831,10 +17830,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="25">
-        <v>24133</v>
+        <v>24729</v>
       </c>
       <c r="I63" s="25">
-        <v>5796</v>
+        <v>6905</v>
       </c>
       <c r="J63" s="25">
         <v>3000</v>
@@ -17845,41 +17844,44 @@
       </c>
       <c r="L63" s="26">
         <f>I63/D63</f>
-        <v>1159.2</v>
+        <v>1381</v>
       </c>
       <c r="M63" s="25">
-        <v>33081</v>
+        <v>36416</v>
       </c>
       <c r="N63" s="25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O63" s="25">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="P63" s="25">
         <f>O63/I63</f>
-        <v>9.1787439613526575E-2</v>
+        <v>8.6459087617668351E-2</v>
       </c>
       <c r="Q63" s="26">
         <f>O63/D63</f>
-        <v>106.4</v>
+        <v>119.4</v>
       </c>
       <c r="R63" s="25">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" s="25" customFormat="1">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="25" customFormat="1">
+      <c r="A64" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="B64" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D64" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F64" s="25" t="str">
         <f>LEFT(E64, 8)</f>
@@ -17889,55 +17891,58 @@
         <v>0</v>
       </c>
       <c r="H64" s="25">
-        <v>24475</v>
+        <v>24831</v>
       </c>
       <c r="I64" s="25">
-        <v>5548</v>
+        <v>5888</v>
       </c>
       <c r="J64" s="25">
         <v>3000</v>
       </c>
       <c r="K64" s="25">
         <f t="shared" si="7"/>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L64" s="26">
         <f>I64/D64</f>
-        <v>1109.5999999999999</v>
+        <v>1962.6666666666667</v>
       </c>
       <c r="M64" s="25">
-        <v>36414</v>
+        <v>37327</v>
       </c>
       <c r="N64" s="25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O64" s="25">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="P64" s="25">
         <f>O64/I64</f>
-        <v>8.6337418889689974E-2</v>
+        <v>8.5427989130434784E-2</v>
       </c>
       <c r="Q64" s="26">
         <f>O64/D64</f>
-        <v>95.8</v>
+        <v>167.66666666666666</v>
       </c>
       <c r="R64" s="25">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" s="25" customFormat="1">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="25" customFormat="1">
+      <c r="A65" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="B65" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D65" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F65" s="25" t="str">
         <f>LEFT(E65, 8)</f>
@@ -17947,55 +17952,58 @@
         <v>0</v>
       </c>
       <c r="H65" s="25">
-        <v>24526</v>
+        <v>24891</v>
       </c>
       <c r="I65" s="25">
-        <v>5674</v>
+        <v>5526</v>
       </c>
       <c r="J65" s="25">
         <v>3000</v>
       </c>
       <c r="K65" s="25">
         <f t="shared" si="7"/>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L65" s="26">
         <f>I65/D65</f>
-        <v>1134.8</v>
+        <v>1842</v>
       </c>
       <c r="M65" s="25">
-        <v>35180</v>
+        <v>39074</v>
       </c>
       <c r="N65" s="25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O65" s="25">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="P65" s="25">
         <f>O65/I65</f>
-        <v>8.8473739866055695E-2</v>
+        <v>8.2519001085776325E-2</v>
       </c>
       <c r="Q65" s="26">
         <f>O65/D65</f>
-        <v>100.4</v>
+        <v>152</v>
       </c>
       <c r="R65" s="25">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" s="25" customFormat="1">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="25" customFormat="1">
+      <c r="A66" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="B66" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D66" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F66" s="25" t="str">
         <f>LEFT(E66, 8)</f>
@@ -18005,279 +18013,1455 @@
         <v>0</v>
       </c>
       <c r="H66" s="25">
-        <v>24729</v>
+        <v>24643</v>
       </c>
       <c r="I66" s="25">
-        <v>6905</v>
+        <v>6154</v>
       </c>
       <c r="J66" s="25">
         <v>3000</v>
       </c>
       <c r="K66" s="25">
         <f t="shared" si="7"/>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L66" s="26">
         <f>I66/D66</f>
-        <v>1381</v>
+        <v>2051.3333333333335</v>
       </c>
       <c r="M66" s="25">
-        <v>36416</v>
+        <v>37504</v>
       </c>
       <c r="N66" s="25">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O66" s="25">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="P66" s="25">
         <f>O66/I66</f>
-        <v>8.6459087617668351E-2</v>
+        <v>8.4985375365615859E-2</v>
       </c>
       <c r="Q66" s="26">
         <f>O66/D66</f>
+        <v>174.33333333333334</v>
+      </c>
+      <c r="R66" s="25">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="5" customFormat="1">
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="B72" t="s">
+        <v>251</v>
+      </c>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:18" s="38" customFormat="1">
+      <c r="B73" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="38">
+        <v>1</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="38" t="str">
+        <f>LEFT(E73, 8)</f>
+        <v>20180813</v>
+      </c>
+      <c r="G73" s="38">
+        <v>0</v>
+      </c>
+      <c r="H73" s="38">
+        <v>3135</v>
+      </c>
+      <c r="I73" s="38">
+        <v>1742</v>
+      </c>
+      <c r="J73" s="38">
+        <v>400</v>
+      </c>
+      <c r="K73" s="38">
+        <f>J73/D73</f>
+        <v>400</v>
+      </c>
+      <c r="L73" s="39">
+        <f>I73/D73</f>
+        <v>1742</v>
+      </c>
+      <c r="M73" s="38">
+        <v>1605</v>
+      </c>
+      <c r="N73" s="38">
+        <v>109</v>
+      </c>
+      <c r="O73" s="38">
+        <v>293</v>
+      </c>
+      <c r="P73" s="38">
+        <f>O73/I73</f>
+        <v>0.16819747416762343</v>
+      </c>
+      <c r="Q73" s="39">
+        <f>O73/D73</f>
+        <v>293</v>
+      </c>
+      <c r="R73" s="38">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="38" customFormat="1">
+      <c r="B74" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="38">
+        <v>1</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" s="38" t="str">
+        <f>LEFT(E74, 8)</f>
+        <v>20180813</v>
+      </c>
+      <c r="G74" s="38">
+        <v>0</v>
+      </c>
+      <c r="H74" s="38">
+        <v>2565</v>
+      </c>
+      <c r="I74" s="38">
+        <v>258</v>
+      </c>
+      <c r="J74" s="38">
+        <v>400</v>
+      </c>
+      <c r="K74" s="38">
+        <f t="shared" ref="K74:K96" si="8">J74/D74</f>
+        <v>400</v>
+      </c>
+      <c r="L74" s="39">
+        <f>I74/D74</f>
+        <v>258</v>
+      </c>
+      <c r="M74" s="38">
+        <v>972</v>
+      </c>
+      <c r="N74" s="38">
+        <v>27</v>
+      </c>
+      <c r="O74" s="38">
+        <v>44</v>
+      </c>
+      <c r="P74" s="38">
+        <f>O74/I74</f>
+        <v>0.17054263565891473</v>
+      </c>
+      <c r="Q74" s="39">
+        <f>O74/D74</f>
+        <v>44</v>
+      </c>
+      <c r="R74" s="38">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="38" customFormat="1">
+      <c r="B75" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="38">
+        <v>1</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="38" t="str">
+        <f>LEFT(E75, 8)</f>
+        <v>20180813</v>
+      </c>
+      <c r="G75" s="38">
+        <v>0</v>
+      </c>
+      <c r="H75" s="38">
+        <v>2567</v>
+      </c>
+      <c r="I75" s="38">
+        <v>267</v>
+      </c>
+      <c r="J75" s="38">
+        <v>400</v>
+      </c>
+      <c r="K75" s="38">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="L75" s="39">
+        <f>I75/D75</f>
+        <v>267</v>
+      </c>
+      <c r="M75" s="38">
+        <v>976</v>
+      </c>
+      <c r="N75" s="38">
+        <v>27</v>
+      </c>
+      <c r="O75" s="38">
+        <v>47</v>
+      </c>
+      <c r="P75" s="38">
+        <f>O75/I75</f>
+        <v>0.17602996254681649</v>
+      </c>
+      <c r="Q75" s="39">
+        <f>O75/D75</f>
+        <v>47</v>
+      </c>
+      <c r="R75" s="38">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="38" customFormat="1">
+      <c r="B76" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="38">
+        <v>1</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="38" t="str">
+        <f>LEFT(E76, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G76" s="38">
+        <v>0</v>
+      </c>
+      <c r="H76" s="38">
+        <v>2551</v>
+      </c>
+      <c r="I76" s="38">
+        <v>255</v>
+      </c>
+      <c r="J76" s="38">
+        <v>400</v>
+      </c>
+      <c r="K76" s="38">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="L76" s="39">
+        <f>I76/D76</f>
+        <v>255</v>
+      </c>
+      <c r="M76" s="38">
+        <v>954</v>
+      </c>
+      <c r="N76" s="38">
+        <v>27</v>
+      </c>
+      <c r="O76" s="38">
+        <v>43</v>
+      </c>
+      <c r="P76" s="38">
+        <f>O76/I76</f>
+        <v>0.16862745098039217</v>
+      </c>
+      <c r="Q76" s="39">
+        <f>O76/D76</f>
+        <v>43</v>
+      </c>
+      <c r="R76" s="38">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="38" customFormat="1">
+      <c r="B77" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="38">
+        <v>1</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="38" t="str">
+        <f>LEFT(E77, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G77" s="38">
+        <v>0</v>
+      </c>
+      <c r="H77" s="38">
+        <v>2558</v>
+      </c>
+      <c r="I77" s="38">
+        <v>150</v>
+      </c>
+      <c r="J77" s="38">
+        <v>400</v>
+      </c>
+      <c r="K77" s="38">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="L77" s="39">
+        <f>I77/D77</f>
+        <v>150</v>
+      </c>
+      <c r="M77" s="38">
+        <v>1018</v>
+      </c>
+      <c r="N77" s="38">
+        <v>15</v>
+      </c>
+      <c r="O77" s="38">
+        <v>26</v>
+      </c>
+      <c r="P77" s="38">
+        <f>O77/I77</f>
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="Q77" s="39">
+        <f>O77/D77</f>
+        <v>26</v>
+      </c>
+      <c r="R77" s="38">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="38" customFormat="1">
+      <c r="B78" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="38">
+        <v>1</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" s="38" t="str">
+        <f>LEFT(E78, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G78" s="38">
+        <v>0</v>
+      </c>
+      <c r="H78" s="38">
+        <v>2560</v>
+      </c>
+      <c r="I78" s="38">
+        <v>242</v>
+      </c>
+      <c r="J78" s="38">
+        <v>400</v>
+      </c>
+      <c r="K78" s="38">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="L78" s="39">
+        <f>I78/D78</f>
+        <v>242</v>
+      </c>
+      <c r="M78" s="38">
+        <v>893</v>
+      </c>
+      <c r="N78" s="38">
+        <v>27</v>
+      </c>
+      <c r="O78" s="38">
+        <v>44</v>
+      </c>
+      <c r="P78" s="38">
+        <f>O78/I78</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="Q78" s="39">
+        <f>O78/D78</f>
+        <v>44</v>
+      </c>
+      <c r="R78" s="38">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="38" customFormat="1">
+      <c r="B79" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="38">
+        <v>1</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="38" t="str">
+        <f>LEFT(E79, 8)</f>
+        <v>20180813</v>
+      </c>
+      <c r="G79" s="38">
+        <v>0</v>
+      </c>
+      <c r="H79" s="38">
+        <v>16498</v>
+      </c>
+      <c r="I79" s="38">
+        <v>3904</v>
+      </c>
+      <c r="J79" s="38">
+        <v>2000</v>
+      </c>
+      <c r="K79" s="38">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="L79" s="39">
+        <f>I79/D79</f>
+        <v>3904</v>
+      </c>
+      <c r="M79" s="38">
+        <v>23889</v>
+      </c>
+      <c r="N79" s="38">
+        <v>16</v>
+      </c>
+      <c r="O79" s="38">
+        <v>339</v>
+      </c>
+      <c r="P79" s="38">
+        <f>O79/I79</f>
+        <v>8.6834016393442626E-2</v>
+      </c>
+      <c r="Q79" s="39">
+        <f>O79/D79</f>
+        <v>339</v>
+      </c>
+      <c r="R79" s="38">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="38" customFormat="1">
+      <c r="B80" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" s="38">
+        <v>1</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="38" t="str">
+        <f>LEFT(E80, 8)</f>
+        <v>20180813</v>
+      </c>
+      <c r="G80" s="38">
+        <v>0</v>
+      </c>
+      <c r="H80" s="38">
+        <v>16518</v>
+      </c>
+      <c r="I80" s="38">
+        <v>3496</v>
+      </c>
+      <c r="J80" s="38">
+        <v>2000</v>
+      </c>
+      <c r="K80" s="38">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="L80" s="39">
+        <f>I80/D80</f>
+        <v>3496</v>
+      </c>
+      <c r="M80" s="38">
+        <v>24308</v>
+      </c>
+      <c r="N80" s="38">
+        <v>14</v>
+      </c>
+      <c r="O80" s="38">
+        <v>303</v>
+      </c>
+      <c r="P80" s="38">
+        <f>O80/I80</f>
+        <v>8.6670480549199083E-2</v>
+      </c>
+      <c r="Q80" s="39">
+        <f>O80/D80</f>
+        <v>303</v>
+      </c>
+      <c r="R80" s="38">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" s="38" customFormat="1">
+      <c r="B81" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="38">
+        <v>1</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="38" t="str">
+        <f>LEFT(E81, 8)</f>
+        <v>20180813</v>
+      </c>
+      <c r="G81" s="38">
+        <v>0</v>
+      </c>
+      <c r="H81" s="38">
+        <v>17272</v>
+      </c>
+      <c r="I81" s="38">
+        <v>3445</v>
+      </c>
+      <c r="J81" s="38">
+        <v>2000</v>
+      </c>
+      <c r="K81" s="38">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="L81" s="39">
+        <f>I81/D81</f>
+        <v>3445</v>
+      </c>
+      <c r="M81" s="38">
+        <v>35363</v>
+      </c>
+      <c r="N81" s="38">
+        <v>10</v>
+      </c>
+      <c r="O81" s="38">
+        <v>250</v>
+      </c>
+      <c r="P81" s="38">
+        <f>O81/I81</f>
+        <v>7.2568940493468792E-2</v>
+      </c>
+      <c r="Q81" s="39">
+        <f>O81/D81</f>
+        <v>250</v>
+      </c>
+      <c r="R81" s="38">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" s="38" customFormat="1">
+      <c r="B82" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="38">
+        <v>1</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" s="38" t="str">
+        <f>LEFT(E82, 8)</f>
+        <v>20180813</v>
+      </c>
+      <c r="G82" s="38">
+        <v>0</v>
+      </c>
+      <c r="H82" s="38">
+        <v>36711</v>
+      </c>
+      <c r="I82" s="38">
+        <v>7585</v>
+      </c>
+      <c r="J82" s="38">
+        <v>4000</v>
+      </c>
+      <c r="K82" s="38">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+      <c r="L82" s="39">
+        <f>I82/D82</f>
+        <v>7585</v>
+      </c>
+      <c r="M82" s="38">
+        <v>53502</v>
+      </c>
+      <c r="N82" s="38">
+        <v>14</v>
+      </c>
+      <c r="O82" s="38">
+        <v>661</v>
+      </c>
+      <c r="P82" s="38">
+        <f>O82/I82</f>
+        <v>8.7145682267633487E-2</v>
+      </c>
+      <c r="Q82" s="39">
+        <f>O82/D82</f>
+        <v>661</v>
+      </c>
+      <c r="R82" s="38">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" s="38" customFormat="1">
+      <c r="B83" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="38">
+        <v>1</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="38" t="str">
+        <f>LEFT(E83, 8)</f>
+        <v>20180813</v>
+      </c>
+      <c r="G83" s="38">
+        <v>0</v>
+      </c>
+      <c r="H83" s="38">
+        <v>36717</v>
+      </c>
+      <c r="I83" s="38">
+        <v>7269</v>
+      </c>
+      <c r="J83" s="38">
+        <v>4000</v>
+      </c>
+      <c r="K83" s="38">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+      <c r="L83" s="39">
+        <f>I83/D83</f>
+        <v>7269</v>
+      </c>
+      <c r="M83" s="38">
+        <v>52664</v>
+      </c>
+      <c r="N83" s="38">
+        <v>14</v>
+      </c>
+      <c r="O83" s="38">
+        <v>644</v>
+      </c>
+      <c r="P83" s="38">
+        <f>O83/I83</f>
+        <v>8.8595405145136877E-2</v>
+      </c>
+      <c r="Q83" s="39">
+        <f>O83/D83</f>
+        <v>644</v>
+      </c>
+      <c r="R83" s="38">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" s="38" customFormat="1">
+      <c r="B84" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="38">
+        <v>1</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" s="38" t="str">
+        <f>LEFT(E84, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G84" s="38">
+        <v>0</v>
+      </c>
+      <c r="H84" s="38">
+        <v>36829</v>
+      </c>
+      <c r="I84" s="38">
+        <v>7396</v>
+      </c>
+      <c r="J84" s="38">
+        <v>4000</v>
+      </c>
+      <c r="K84" s="38">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+      <c r="L84" s="39">
+        <f>I84/D84</f>
+        <v>7396</v>
+      </c>
+      <c r="M84" s="38">
+        <v>58227</v>
+      </c>
+      <c r="N84" s="38">
+        <v>13</v>
+      </c>
+      <c r="O84" s="38">
+        <v>621</v>
+      </c>
+      <c r="P84" s="38">
+        <f>O84/I84</f>
+        <v>8.3964305029745806E-2</v>
+      </c>
+      <c r="Q84" s="39">
+        <f>O84/D84</f>
+        <v>621</v>
+      </c>
+      <c r="R84" s="38">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" s="38" customFormat="1">
+      <c r="B85" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D85" s="38">
+        <v>5</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" s="38" t="str">
+        <f>LEFT(E85, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G85" s="38">
+        <v>0</v>
+      </c>
+      <c r="H85" s="38">
+        <v>23893</v>
+      </c>
+      <c r="I85" s="38">
+        <v>5864</v>
+      </c>
+      <c r="J85" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K85" s="38">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="L85" s="39">
+        <f>I85/D85</f>
+        <v>1172.8</v>
+      </c>
+      <c r="M85" s="38">
+        <v>29547</v>
+      </c>
+      <c r="N85" s="38">
+        <v>20</v>
+      </c>
+      <c r="O85" s="38">
+        <v>555</v>
+      </c>
+      <c r="P85" s="38">
+        <f>O85/I85</f>
+        <v>9.464529331514325E-2</v>
+      </c>
+      <c r="Q85" s="39">
+        <f>O85/D85</f>
+        <v>111</v>
+      </c>
+      <c r="R85" s="38">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" s="38" customFormat="1">
+      <c r="B86" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="38">
+        <v>5</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F86" s="38" t="str">
+        <f>LEFT(E86, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G86" s="38">
+        <v>0</v>
+      </c>
+      <c r="H86" s="38">
+        <v>24253</v>
+      </c>
+      <c r="I86" s="38">
+        <v>6137</v>
+      </c>
+      <c r="J86" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K86" s="38">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="L86" s="39">
+        <f>I86/D86</f>
+        <v>1227.4000000000001</v>
+      </c>
+      <c r="M86" s="38">
+        <v>33525</v>
+      </c>
+      <c r="N86" s="38">
+        <v>18</v>
+      </c>
+      <c r="O86" s="38">
+        <v>562</v>
+      </c>
+      <c r="P86" s="38">
+        <f>O86/I86</f>
+        <v>9.1575688447124007E-2</v>
+      </c>
+      <c r="Q86" s="39">
+        <f>O86/D86</f>
+        <v>112.4</v>
+      </c>
+      <c r="R86" s="38">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" s="38" customFormat="1">
+      <c r="B87" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D87" s="38">
+        <v>5</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="38" t="str">
+        <f>LEFT(E87, 8)</f>
+        <v>20180815</v>
+      </c>
+      <c r="G87" s="38">
+        <v>0</v>
+      </c>
+      <c r="H87" s="38">
+        <v>24959</v>
+      </c>
+      <c r="I87" s="38">
+        <v>9892</v>
+      </c>
+      <c r="J87" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K87" s="38">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="L87" s="39">
+        <f>I87/D87</f>
+        <v>1978.4</v>
+      </c>
+      <c r="M87" s="38">
+        <v>34604</v>
+      </c>
+      <c r="N87" s="38">
+        <v>29</v>
+      </c>
+      <c r="O87" s="38">
+        <v>879</v>
+      </c>
+      <c r="P87" s="38">
+        <f>O87/I87</f>
+        <v>8.8859684593611002E-2</v>
+      </c>
+      <c r="Q87" s="39">
+        <f>O87/D87</f>
+        <v>175.8</v>
+      </c>
+      <c r="R87" s="38">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" s="38" customFormat="1">
+      <c r="B88" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="38">
+        <v>5</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F88" s="38" t="str">
+        <f>LEFT(E88, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G88" s="38">
+        <v>0</v>
+      </c>
+      <c r="H88" s="38">
+        <v>24316</v>
+      </c>
+      <c r="I88" s="38">
+        <v>5809</v>
+      </c>
+      <c r="J88" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K88" s="38">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="L88" s="39">
+        <f>I88/D88</f>
+        <v>1161.8</v>
+      </c>
+      <c r="M88" s="38">
+        <v>31070</v>
+      </c>
+      <c r="N88" s="38">
+        <v>19</v>
+      </c>
+      <c r="O88" s="38">
+        <v>552</v>
+      </c>
+      <c r="P88" s="38">
+        <f>O88/I88</f>
+        <v>9.5024961266999483E-2</v>
+      </c>
+      <c r="Q88" s="39">
+        <f>O88/D88</f>
+        <v>110.4</v>
+      </c>
+      <c r="R88" s="38">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" s="38" customFormat="1">
+      <c r="B89" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" s="38">
+        <v>5</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89" s="38" t="str">
+        <f>LEFT(E89, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G89" s="38">
+        <v>0</v>
+      </c>
+      <c r="H89" s="38">
+        <v>24557</v>
+      </c>
+      <c r="I89" s="38">
+        <v>5725</v>
+      </c>
+      <c r="J89" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K89" s="38">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="L89" s="39">
+        <f>I89/D89</f>
+        <v>1145</v>
+      </c>
+      <c r="M89" s="38">
+        <v>32726</v>
+      </c>
+      <c r="N89" s="38">
+        <v>17</v>
+      </c>
+      <c r="O89" s="38">
+        <v>524</v>
+      </c>
+      <c r="P89" s="38">
+        <f>O89/I89</f>
+        <v>9.1528384279475988E-2</v>
+      </c>
+      <c r="Q89" s="39">
+        <f>O89/D89</f>
+        <v>104.8</v>
+      </c>
+      <c r="R89" s="38">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" s="38" customFormat="1">
+      <c r="B90" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" s="38">
+        <v>5</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" s="38" t="str">
+        <f>LEFT(E90, 8)</f>
+        <v>20180815</v>
+      </c>
+      <c r="G90" s="38">
+        <v>0</v>
+      </c>
+      <c r="H90" s="38">
+        <v>24133</v>
+      </c>
+      <c r="I90" s="38">
+        <v>5796</v>
+      </c>
+      <c r="J90" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K90" s="38">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="L90" s="39">
+        <f>I90/D90</f>
+        <v>1159.2</v>
+      </c>
+      <c r="M90" s="38">
+        <v>33081</v>
+      </c>
+      <c r="N90" s="38">
+        <v>18</v>
+      </c>
+      <c r="O90" s="38">
+        <v>532</v>
+      </c>
+      <c r="P90" s="38">
+        <f>O90/I90</f>
+        <v>9.1787439613526575E-2</v>
+      </c>
+      <c r="Q90" s="39">
+        <f>O90/D90</f>
+        <v>106.4</v>
+      </c>
+      <c r="R90" s="38">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" s="38" customFormat="1">
+      <c r="B91" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="38">
+        <v>5</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="38" t="str">
+        <f>LEFT(E91, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G91" s="38">
+        <v>0</v>
+      </c>
+      <c r="H91" s="38">
+        <v>24475</v>
+      </c>
+      <c r="I91" s="38">
+        <v>5548</v>
+      </c>
+      <c r="J91" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K91" s="38">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="L91" s="39">
+        <f>I91/D91</f>
+        <v>1109.5999999999999</v>
+      </c>
+      <c r="M91" s="38">
+        <v>36414</v>
+      </c>
+      <c r="N91" s="38">
+        <v>15</v>
+      </c>
+      <c r="O91" s="38">
+        <v>479</v>
+      </c>
+      <c r="P91" s="38">
+        <f>O91/I91</f>
+        <v>8.6337418889689974E-2</v>
+      </c>
+      <c r="Q91" s="39">
+        <f>O91/D91</f>
+        <v>95.8</v>
+      </c>
+      <c r="R91" s="38">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" s="38" customFormat="1">
+      <c r="B92" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="38">
+        <v>5</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="38" t="str">
+        <f>LEFT(E92, 8)</f>
+        <v>20180814</v>
+      </c>
+      <c r="G92" s="38">
+        <v>0</v>
+      </c>
+      <c r="H92" s="38">
+        <v>24526</v>
+      </c>
+      <c r="I92" s="38">
+        <v>5674</v>
+      </c>
+      <c r="J92" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K92" s="38">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="L92" s="39">
+        <f>I92/D92</f>
+        <v>1134.8</v>
+      </c>
+      <c r="M92" s="38">
+        <v>35180</v>
+      </c>
+      <c r="N92" s="38">
+        <v>16</v>
+      </c>
+      <c r="O92" s="38">
+        <v>502</v>
+      </c>
+      <c r="P92" s="38">
+        <f>O92/I92</f>
+        <v>8.8473739866055695E-2</v>
+      </c>
+      <c r="Q92" s="39">
+        <f>O92/D92</f>
+        <v>100.4</v>
+      </c>
+      <c r="R92" s="38">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18" s="38" customFormat="1">
+      <c r="B93" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" s="38">
+        <v>5</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="38" t="str">
+        <f>LEFT(E93, 8)</f>
+        <v>20180815</v>
+      </c>
+      <c r="G93" s="38">
+        <v>0</v>
+      </c>
+      <c r="H93" s="38">
+        <v>24729</v>
+      </c>
+      <c r="I93" s="38">
+        <v>6905</v>
+      </c>
+      <c r="J93" s="38">
+        <v>3000</v>
+      </c>
+      <c r="K93" s="38">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="L93" s="39">
+        <f>I93/D93</f>
+        <v>1381</v>
+      </c>
+      <c r="M93" s="38">
+        <v>36416</v>
+      </c>
+      <c r="N93" s="38">
+        <v>19</v>
+      </c>
+      <c r="O93" s="38">
+        <v>597</v>
+      </c>
+      <c r="P93" s="38">
+        <f>O93/I93</f>
+        <v>8.6459087617668351E-2</v>
+      </c>
+      <c r="Q93" s="39">
+        <f>O93/D93</f>
         <v>119.4</v>
       </c>
-      <c r="R66" s="25">
+      <c r="R93" s="38">
         <v>3149</v>
       </c>
     </row>
-    <row r="67" spans="2:18" s="25" customFormat="1">
-      <c r="B67" s="25" t="s">
+    <row r="94" spans="2:18" s="38" customFormat="1">
+      <c r="B94" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C94" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D94" s="38">
         <v>3</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E94" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="F67" s="25" t="str">
-        <f>LEFT(E67, 8)</f>
+      <c r="F94" s="38" t="str">
+        <f>LEFT(E94, 8)</f>
         <v>20180814</v>
       </c>
-      <c r="G67" s="25">
-        <v>0</v>
-      </c>
-      <c r="H67" s="25">
+      <c r="G94" s="38">
+        <v>0</v>
+      </c>
+      <c r="H94" s="38">
         <v>24831</v>
       </c>
-      <c r="I67" s="25">
+      <c r="I94" s="38">
         <v>5888</v>
       </c>
-      <c r="J67" s="25">
+      <c r="J94" s="38">
         <v>3000</v>
       </c>
-      <c r="K67" s="25">
-        <f t="shared" si="7"/>
+      <c r="K94" s="38">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="L67" s="26">
-        <f>I67/D67</f>
+      <c r="L94" s="39">
+        <f>I94/D94</f>
         <v>1962.6666666666667</v>
       </c>
-      <c r="M67" s="25">
+      <c r="M94" s="38">
         <v>37327</v>
       </c>
-      <c r="N67" s="25">
+      <c r="N94" s="38">
         <v>16</v>
       </c>
-      <c r="O67" s="25">
+      <c r="O94" s="38">
         <v>503</v>
       </c>
-      <c r="P67" s="25">
-        <f>O67/I67</f>
+      <c r="P94" s="38">
+        <f>O94/I94</f>
         <v>8.5427989130434784E-2</v>
       </c>
-      <c r="Q67" s="26">
-        <f>O67/D67</f>
+      <c r="Q94" s="39">
+        <f>O94/D94</f>
         <v>167.66666666666666</v>
       </c>
-      <c r="R67" s="25">
+      <c r="R94" s="38">
         <v>3187</v>
       </c>
     </row>
-    <row r="68" spans="2:18" s="25" customFormat="1">
-      <c r="B68" s="25" t="s">
+    <row r="95" spans="2:18" s="38" customFormat="1">
+      <c r="B95" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C95" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D95" s="38">
         <v>3</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E95" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="F68" s="25" t="str">
-        <f>LEFT(E68, 8)</f>
+      <c r="F95" s="38" t="str">
+        <f>LEFT(E95, 8)</f>
         <v>20180814</v>
       </c>
-      <c r="G68" s="25">
-        <v>0</v>
-      </c>
-      <c r="H68" s="25">
+      <c r="G95" s="38">
+        <v>0</v>
+      </c>
+      <c r="H95" s="38">
         <v>24891</v>
       </c>
-      <c r="I68" s="25">
+      <c r="I95" s="38">
         <v>5526</v>
       </c>
-      <c r="J68" s="25">
+      <c r="J95" s="38">
         <v>3000</v>
       </c>
-      <c r="K68" s="25">
-        <f t="shared" si="7"/>
+      <c r="K95" s="38">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="L68" s="26">
-        <f>I68/D68</f>
+      <c r="L95" s="39">
+        <f>I95/D95</f>
         <v>1842</v>
       </c>
-      <c r="M68" s="25">
+      <c r="M95" s="38">
         <v>39074</v>
       </c>
-      <c r="N68" s="25">
+      <c r="N95" s="38">
         <v>14</v>
       </c>
-      <c r="O68" s="25">
+      <c r="O95" s="38">
         <v>456</v>
       </c>
-      <c r="P68" s="25">
-        <f>O68/I68</f>
+      <c r="P95" s="38">
+        <f>O95/I95</f>
         <v>8.2519001085776325E-2</v>
       </c>
-      <c r="Q68" s="26">
-        <f>O68/D68</f>
+      <c r="Q95" s="39">
+        <f>O95/D95</f>
         <v>152</v>
       </c>
-      <c r="R68" s="25">
+      <c r="R95" s="38">
         <v>3226</v>
       </c>
     </row>
-    <row r="69" spans="2:18" s="25" customFormat="1">
-      <c r="B69" s="25" t="s">
+    <row r="96" spans="2:18" s="38" customFormat="1">
+      <c r="B96" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C96" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D96" s="38">
         <v>3</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E96" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="25" t="str">
-        <f>LEFT(E69, 8)</f>
+      <c r="F96" s="38" t="str">
+        <f>LEFT(E96, 8)</f>
         <v>20180815</v>
       </c>
-      <c r="G69" s="25">
-        <v>0</v>
-      </c>
-      <c r="H69" s="25">
+      <c r="G96" s="38">
+        <v>0</v>
+      </c>
+      <c r="H96" s="38">
         <v>24643</v>
       </c>
-      <c r="I69" s="25">
+      <c r="I96" s="38">
         <v>6154</v>
       </c>
-      <c r="J69" s="25">
+      <c r="J96" s="38">
         <v>3000</v>
       </c>
-      <c r="K69" s="25">
-        <f t="shared" si="7"/>
+      <c r="K96" s="38">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="L69" s="26">
-        <f>I69/D69</f>
+      <c r="L96" s="39">
+        <f>I96/D96</f>
         <v>2051.3333333333335</v>
       </c>
-      <c r="M69" s="25">
+      <c r="M96" s="38">
         <v>37504</v>
       </c>
-      <c r="N69" s="25">
+      <c r="N96" s="38">
         <v>16</v>
       </c>
-      <c r="O69" s="25">
+      <c r="O96" s="38">
         <v>523</v>
       </c>
-      <c r="P69" s="25">
-        <f>O69/I69</f>
+      <c r="P96" s="38">
+        <f>O96/I96</f>
         <v>8.4985375365615859E-2</v>
       </c>
-      <c r="Q69" s="26">
-        <f>O69/D69</f>
+      <c r="Q96" s="39">
+        <f>O96/D96</f>
         <v>174.33333333333334</v>
       </c>
-      <c r="R69" s="25">
+      <c r="R96" s="38">
         <v>3187</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" s="5" customFormat="1">
-      <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="2:18">
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="2:18">
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="2:18">
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="2:18">
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="2:18">
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="2:18">
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="2:18">
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="2:18">
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="2:18">
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="2:18">
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="12:12">
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="12:12">
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="12:12">
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="12:12">
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="12:12">
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="12:12">
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="12:12">
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="12:12">
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="12:12">
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="12:12">
-      <c r="L90" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:S41" xr:uid="{201FADF2-299D-2E42-A643-0088FAFE31EF}">
@@ -18286,8 +19470,8 @@
       <sortCondition ref="C5:C41"/>
     </sortState>
   </autoFilter>
-  <sortState ref="B46:S57">
-    <sortCondition ref="E46:E57"/>
+  <sortState ref="B46:S54">
+    <sortCondition ref="E46:E54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -18400,8 +19584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD3939F-B255-B24A-99D1-39EFD23212CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18765,7 +19949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9321C540-539B-1E4C-910A-E4FA5307319D}">
   <dimension ref="B2:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -36934,7 +38118,7 @@
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -37025,8 +38209,8 @@
         <v>141</v>
       </c>
       <c r="C9">
-        <f>CORREL(Results!I47:I57,Results!O47:O57)</f>
-        <v>0.99719040302191964</v>
+        <f>CORREL(Results!I46:I54,Results!O46:O54)</f>
+        <v>0.99951394853482556</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -37034,8 +38218,8 @@
         <v>163</v>
       </c>
       <c r="C10">
-        <f>CORREL(Results!K47:K57, Results!L47:L57)</f>
-        <v>0.99865410448320591</v>
+        <f>CORREL(Results!K47:K54, Results!L47:L54)</f>
+        <v>0.99649122497324194</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -37043,8 +38227,8 @@
         <v>162</v>
       </c>
       <c r="C11">
-        <f>CORREL(Results!K47:K57, Results!O47:O57)</f>
-        <v>0.99609087010734598</v>
+        <f>CORREL(Results!K47:K54, Results!O47:O54)</f>
+        <v>0.99670561243619415</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -37052,7 +38236,7 @@
         <v>164</v>
       </c>
       <c r="C12">
-        <f>CORREL(Results!K58:K69,Results!L58:L69)</f>
+        <f>CORREL(Results!K55:K66,Results!L55:L66)</f>
         <v>0.78791050738237067</v>
       </c>
     </row>

--- a/Figures/TestResults.xlsx
+++ b/Figures/TestResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eoin/Work/PhdThesis/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB8A81E-EA4E-C243-BC2B-3088CF960D72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A9FB5-79C2-AD43-8019-929A5886B79C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2880" windowWidth="27340" windowHeight="14440" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
+    <workbookView xWindow="640" yWindow="2820" windowWidth="27340" windowHeight="14440" firstSheet="1" activeTab="11" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{71F21A57-0D32-3642-ADCD-FAE884AA486B}" name="mpstat.allcpu" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/eoin/Work/EnergyApollo/data/single-cpu-x50-20180813-184337/mpstat.allcpu.txt" delimited="0">
+    <textPr sourceFile="/Users/eoin/Work/EnergyApollo/data/single-cpu-x50-20180813-184337/mpstat.allcpu.txt" delimited="0">
       <textFields count="12">
         <textField/>
         <textField position="11"/>
@@ -115,7 +115,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{D22E7628-3A3F-6D45-9B1C-34B2CC74B9A4}" name="pidstat.1stset" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/eoin/tmp/pidstat.1stset.txt" delimited="0">
+    <textPr sourceFile="/Users/eoin/tmp/pidstat.1stset.txt" delimited="0">
       <textFields count="13">
         <textField/>
         <textField position="13"/>
@@ -134,7 +134,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{AEA77F61-C93F-604C-A4D9-854E4A8A2C87}" name="pidstat.3278" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/eoin/Work/EnergyApollo/data/single-cpu-x50-20180813-184337/pidstat.3278.txt" delimited="0">
+    <textPr sourceFile="/Users/eoin/Work/EnergyApollo/data/single-cpu-x50-20180813-184337/pidstat.3278.txt" delimited="0">
       <textFields count="13">
         <textField/>
         <textField position="13"/>
@@ -153,7 +153,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{2C59186F-CBF5-504A-8AD8-21561081D470}" name="pidstat.3436" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/eoin/Work/EnergyApollo/data/single-cpu-x50-20180813-184337/pidstat.3436.txt" delimited="0">
+    <textPr sourceFile="/Users/eoin/Work/EnergyApollo/data/single-cpu-x50-20180813-184337/pidstat.3436.txt" delimited="0">
       <textFields count="14">
         <textField/>
         <textField position="12"/>
@@ -173,7 +173,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{C96270EA-BED8-1241-83F5-E29F52E710D0}" name="pidstat.3rdset" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/eoin/tmp/pidstat.3rdset.txt" delimited="0">
+    <textPr sourceFile="/Users/eoin/tmp/pidstat.3rdset.txt" delimited="0">
       <textFields count="13">
         <textField/>
         <textField position="13"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="275">
   <si>
     <t>Scenario</t>
   </si>
@@ -1001,7 +1001,43 @@
     <t>20180817-234858</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>data-stdvolume-tests-20180817</t>
+  </si>
+  <si>
+    <t>20180818-001847</t>
+  </si>
+  <si>
+    <t>20180818-001952</t>
+  </si>
+  <si>
+    <t>20180818-002057</t>
+  </si>
+  <si>
+    <t>20180818-002203</t>
+  </si>
+  <si>
+    <t>20180818-002309</t>
+  </si>
+  <si>
+    <t>20180818-002415</t>
+  </si>
+  <si>
+    <t>20180818-002520</t>
+  </si>
+  <si>
+    <t>20180818-002626</t>
+  </si>
+  <si>
+    <t>20180818-002732</t>
+  </si>
+  <si>
+    <t>20180818-002838</t>
+  </si>
+  <si>
+    <t>20180818-002945</t>
+  </si>
+  <si>
+    <t>20180818-003051</t>
   </si>
 </sst>
 </file>
@@ -6373,6 +6409,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1031765663"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7645,6 +7682,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1048781455"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8348,6 +8386,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="974924143"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8585,40 +8624,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1172.8</c:v>
+                  <c:v>1381.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1227.4000000000001</c:v>
+                  <c:v>1228.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1978.4</c:v>
+                  <c:v>1747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1161.8</c:v>
+                  <c:v>1157.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1145</c:v>
+                  <c:v>1154.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1159.2</c:v>
+                  <c:v>1167.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1109.5999999999999</c:v>
+                  <c:v>1661.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1134.8</c:v>
+                  <c:v>1585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1381</c:v>
+                  <c:v>1153.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1962.6666666666667</c:v>
+                  <c:v>1947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1842</c:v>
+                  <c:v>1910</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2051.3333333333335</c:v>
+                  <c:v>1993.3333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8715,40 +8754,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>111</c:v>
+                  <c:v>121.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.4</c:v>
+                  <c:v>114.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175.8</c:v>
+                  <c:v>151.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.4</c:v>
+                  <c:v>109.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.8</c:v>
+                  <c:v>107.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.4</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.8</c:v>
+                  <c:v>142.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.4</c:v>
+                  <c:v>136.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119.4</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167.66666666666666</c:v>
+                  <c:v>163.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>152</c:v>
+                  <c:v>157.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>174.33333333333334</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8960,6 +8999,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1103591567"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -14618,11 +14658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A7A84C-38BB-9C46-BB61-734C431F3DDA}">
-  <dimension ref="A2:S96"/>
+  <dimension ref="B2:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A66"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16249,7 +16289,7 @@
         <v>70</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f t="shared" ref="F35:F54" si="6">LEFT(E35, 8)</f>
+        <f t="shared" ref="F35:F45" si="6">LEFT(E35, 8)</f>
         <v>20180808</v>
       </c>
       <c r="G35" s="7">
@@ -16810,7 +16850,7 @@
         <v>254</v>
       </c>
       <c r="F46" s="23" t="str">
-        <f>LEFT(E46, 8)</f>
+        <f t="shared" ref="F46:F66" si="7">LEFT(E46, 8)</f>
         <v>20180817</v>
       </c>
       <c r="G46" s="23">
@@ -16826,11 +16866,11 @@
         <v>400</v>
       </c>
       <c r="K46" s="23">
-        <f>J46/D46</f>
+        <f t="shared" ref="K46:K54" si="8">J46/D46</f>
         <v>400</v>
       </c>
       <c r="L46" s="24">
-        <f>I46/D46</f>
+        <f t="shared" ref="L46:L66" si="9">I46/D46</f>
         <v>188</v>
       </c>
       <c r="M46" s="23">
@@ -16843,11 +16883,11 @@
         <v>44</v>
       </c>
       <c r="P46" s="23">
-        <f>O46/I46</f>
+        <f t="shared" ref="P46:P66" si="10">O46/I46</f>
         <v>0.23404255319148937</v>
       </c>
       <c r="Q46" s="24">
-        <f>O46/D46</f>
+        <f t="shared" ref="Q46:Q66" si="11">O46/D46</f>
         <v>44</v>
       </c>
       <c r="R46" s="23">
@@ -16868,7 +16908,7 @@
         <v>255</v>
       </c>
       <c r="F47" s="23" t="str">
-        <f>LEFT(E47, 8)</f>
+        <f t="shared" si="7"/>
         <v>20180817</v>
       </c>
       <c r="G47" s="23">
@@ -16884,11 +16924,11 @@
         <v>400</v>
       </c>
       <c r="K47" s="23">
-        <f>J47/D47</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="L47" s="24">
-        <f>I47/D47</f>
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="M47" s="23">
@@ -16901,11 +16941,11 @@
         <v>45</v>
       </c>
       <c r="P47" s="23">
-        <f>O47/I47</f>
+        <f t="shared" si="10"/>
         <v>0.16304347826086957</v>
       </c>
       <c r="Q47" s="24">
-        <f>O47/D47</f>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="R47" s="23">
@@ -16926,7 +16966,7 @@
         <v>256</v>
       </c>
       <c r="F48" s="23" t="str">
-        <f>LEFT(E48, 8)</f>
+        <f t="shared" si="7"/>
         <v>20180817</v>
       </c>
       <c r="G48" s="23">
@@ -16942,11 +16982,11 @@
         <v>400</v>
       </c>
       <c r="K48" s="23">
-        <f>J48/D48</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="L48" s="24">
-        <f>I48/D48</f>
+        <f t="shared" si="9"/>
         <v>279</v>
       </c>
       <c r="M48" s="23">
@@ -16959,18 +16999,18 @@
         <v>48</v>
       </c>
       <c r="P48" s="23">
-        <f>O48/I48</f>
+        <f t="shared" si="10"/>
         <v>0.17204301075268819</v>
       </c>
       <c r="Q48" s="24">
-        <f>O48/D48</f>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="R48" s="23">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="23" customFormat="1">
+    <row r="49" spans="2:18" s="23" customFormat="1">
       <c r="B49" s="23" t="s">
         <v>252</v>
       </c>
@@ -16984,7 +17024,7 @@
         <v>260</v>
       </c>
       <c r="F49" s="23" t="str">
-        <f>LEFT(E49, 8)</f>
+        <f t="shared" si="7"/>
         <v>20180817</v>
       </c>
       <c r="G49" s="23">
@@ -17000,11 +17040,11 @@
         <v>2000</v>
       </c>
       <c r="K49" s="23">
-        <f>J49/D49</f>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="L49" s="24">
-        <f>I49/D49</f>
+        <f t="shared" si="9"/>
         <v>3282</v>
       </c>
       <c r="M49" s="23">
@@ -17017,18 +17057,18 @@
         <v>285</v>
       </c>
       <c r="P49" s="23">
-        <f>O49/I49</f>
+        <f t="shared" si="10"/>
         <v>8.6837294332723955E-2</v>
       </c>
       <c r="Q49" s="24">
-        <f>O49/D49</f>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
       <c r="R49" s="23">
         <v>2099</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="23" customFormat="1">
+    <row r="50" spans="2:18" s="23" customFormat="1">
       <c r="B50" s="23" t="s">
         <v>252</v>
       </c>
@@ -17042,7 +17082,7 @@
         <v>261</v>
       </c>
       <c r="F50" s="23" t="str">
-        <f>LEFT(E50, 8)</f>
+        <f t="shared" si="7"/>
         <v>20180817</v>
       </c>
       <c r="G50" s="23">
@@ -17058,11 +17098,11 @@
         <v>2000</v>
       </c>
       <c r="K50" s="23">
-        <f>J50/D50</f>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="L50" s="24">
-        <f>I50/D50</f>
+        <f t="shared" si="9"/>
         <v>3648</v>
       </c>
       <c r="M50" s="23">
@@ -17075,18 +17115,18 @@
         <v>320</v>
       </c>
       <c r="P50" s="23">
-        <f>O50/I50</f>
+        <f t="shared" si="10"/>
         <v>8.771929824561403E-2</v>
       </c>
       <c r="Q50" s="24">
-        <f>O50/D50</f>
+        <f t="shared" si="11"/>
         <v>320</v>
       </c>
       <c r="R50" s="23">
         <v>2048</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="23" customFormat="1">
+    <row r="51" spans="2:18" s="23" customFormat="1">
       <c r="B51" s="23" t="s">
         <v>252</v>
       </c>
@@ -17100,7 +17140,7 @@
         <v>253</v>
       </c>
       <c r="F51" s="23" t="str">
-        <f>LEFT(E51, 8)</f>
+        <f t="shared" si="7"/>
         <v>20180817</v>
       </c>
       <c r="G51" s="23">
@@ -17116,11 +17156,11 @@
         <v>2000</v>
       </c>
       <c r="K51" s="23">
-        <f>J51/D51</f>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="L51" s="24">
-        <f>I51/D51</f>
+        <f t="shared" si="9"/>
         <v>3523</v>
       </c>
       <c r="M51" s="23">
@@ -17133,18 +17173,18 @@
         <v>328</v>
       </c>
       <c r="P51" s="23">
-        <f>O51/I51</f>
+        <f t="shared" si="10"/>
         <v>9.3102469486233325E-2</v>
       </c>
       <c r="Q51" s="24">
-        <f>O51/D51</f>
+        <f t="shared" si="11"/>
         <v>328</v>
       </c>
       <c r="R51" s="23">
         <v>1971</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="23" customFormat="1">
+    <row r="52" spans="2:18" s="23" customFormat="1">
       <c r="B52" s="23" t="s">
         <v>252</v>
       </c>
@@ -17158,7 +17198,7 @@
         <v>257</v>
       </c>
       <c r="F52" s="23" t="str">
-        <f>LEFT(E52, 8)</f>
+        <f t="shared" si="7"/>
         <v>20180817</v>
       </c>
       <c r="G52" s="23">
@@ -17174,11 +17214,11 @@
         <v>4000</v>
       </c>
       <c r="K52" s="23">
-        <f>J52/D52</f>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
       <c r="L52" s="24">
-        <f>I52/D52</f>
+        <f t="shared" si="9"/>
         <v>8541</v>
       </c>
       <c r="M52" s="23">
@@ -17191,18 +17231,18 @@
         <v>707</v>
       </c>
       <c r="P52" s="23">
-        <f>O52/I52</f>
+        <f t="shared" si="10"/>
         <v>8.277719236623346E-2</v>
       </c>
       <c r="Q52" s="24">
-        <f>O52/D52</f>
+        <f t="shared" si="11"/>
         <v>707</v>
       </c>
       <c r="R52" s="23">
         <v>4946</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="23" customFormat="1">
+    <row r="53" spans="2:18" s="23" customFormat="1">
       <c r="B53" s="23" t="s">
         <v>252</v>
       </c>
@@ -17216,7 +17256,7 @@
         <v>258</v>
       </c>
       <c r="F53" s="23" t="str">
-        <f>LEFT(E53, 8)</f>
+        <f t="shared" si="7"/>
         <v>20180817</v>
       </c>
       <c r="G53" s="23">
@@ -17232,11 +17272,11 @@
         <v>4000</v>
       </c>
       <c r="K53" s="23">
-        <f>J53/D53</f>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
       <c r="L53" s="24">
-        <f>I53/D53</f>
+        <f t="shared" si="9"/>
         <v>8265</v>
       </c>
       <c r="M53" s="23">
@@ -17249,18 +17289,18 @@
         <v>671</v>
       </c>
       <c r="P53" s="23">
-        <f>O53/I53</f>
+        <f t="shared" si="10"/>
         <v>8.1185722928009685E-2</v>
       </c>
       <c r="Q53" s="24">
-        <f>O53/D53</f>
+        <f t="shared" si="11"/>
         <v>671</v>
       </c>
       <c r="R53" s="23">
         <v>4946</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="23" customFormat="1">
+    <row r="54" spans="2:18" s="23" customFormat="1">
       <c r="B54" s="23" t="s">
         <v>252</v>
       </c>
@@ -17274,7 +17314,7 @@
         <v>259</v>
       </c>
       <c r="F54" s="23" t="str">
-        <f>LEFT(E54, 8)</f>
+        <f t="shared" si="7"/>
         <v>20180817</v>
       </c>
       <c r="G54" s="23">
@@ -17290,11 +17330,11 @@
         <v>4000</v>
       </c>
       <c r="K54" s="23">
-        <f>J54/D54</f>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
       <c r="L54" s="24">
-        <f>I54/D54</f>
+        <f t="shared" si="9"/>
         <v>8820</v>
       </c>
       <c r="M54" s="23">
@@ -17307,23 +17347,20 @@
         <v>721</v>
       </c>
       <c r="P54" s="23">
-        <f>O54/I54</f>
+        <f t="shared" si="10"/>
         <v>8.1746031746031747E-2</v>
       </c>
       <c r="Q54" s="24">
-        <f>O54/D54</f>
+        <f t="shared" si="11"/>
         <v>721</v>
       </c>
       <c r="R54" s="23">
         <v>4946</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="25" customFormat="1">
-      <c r="A55" s="25" t="s">
+    <row r="55" spans="2:18" s="25" customFormat="1">
+      <c r="B55" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>147</v>
@@ -17332,59 +17369,56 @@
         <v>5</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="F55" s="25" t="str">
-        <f>LEFT(E55, 8)</f>
-        <v>20180814</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G55" s="25">
         <v>0</v>
       </c>
       <c r="H55" s="25">
-        <v>23893</v>
+        <v>23895</v>
       </c>
       <c r="I55" s="25">
-        <v>5864</v>
+        <v>6908</v>
       </c>
       <c r="J55" s="25">
         <v>3000</v>
       </c>
       <c r="K55" s="25">
-        <f t="shared" ref="K47:K66" si="7">J55/D55</f>
+        <f t="shared" ref="K55:K66" si="12">J55/D55</f>
         <v>600</v>
       </c>
       <c r="L55" s="26">
-        <f>I55/D55</f>
-        <v>1172.8</v>
+        <f t="shared" si="9"/>
+        <v>1381.6</v>
       </c>
       <c r="M55" s="25">
-        <v>29547</v>
+        <v>33498</v>
       </c>
       <c r="N55" s="25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O55" s="25">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="P55" s="25">
-        <f>O55/I55</f>
-        <v>9.464529331514325E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.7869137232194555E-2</v>
       </c>
       <c r="Q55" s="26">
-        <f>O55/D55</f>
-        <v>111</v>
+        <f t="shared" si="11"/>
+        <v>121.4</v>
       </c>
       <c r="R55" s="25">
-        <v>2797</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="25" customFormat="1">
-      <c r="A56" s="25" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" s="25" customFormat="1">
+      <c r="B56" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>147</v>
@@ -17393,59 +17427,56 @@
         <v>5</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="F56" s="25" t="str">
-        <f>LEFT(E56, 8)</f>
-        <v>20180814</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G56" s="25">
         <v>0</v>
       </c>
       <c r="H56" s="25">
-        <v>24253</v>
+        <v>24030</v>
       </c>
       <c r="I56" s="25">
-        <v>6137</v>
+        <v>6141</v>
       </c>
       <c r="J56" s="25">
         <v>3000</v>
       </c>
       <c r="K56" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="L56" s="26">
-        <f>I56/D56</f>
-        <v>1227.4000000000001</v>
+        <f t="shared" si="9"/>
+        <v>1228.2</v>
       </c>
       <c r="M56" s="25">
-        <v>33525</v>
+        <v>32127</v>
       </c>
       <c r="N56" s="25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O56" s="25">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="P56" s="25">
-        <f>O56/I56</f>
-        <v>9.1575688447124007E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.3144439016446839E-2</v>
       </c>
       <c r="Q56" s="26">
-        <f>O56/D56</f>
-        <v>112.4</v>
+        <f t="shared" si="11"/>
+        <v>114.4</v>
       </c>
       <c r="R56" s="25">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="25" customFormat="1">
-      <c r="A57" s="25" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" s="25" customFormat="1">
+      <c r="B57" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>147</v>
@@ -17454,59 +17485,56 @@
         <v>5</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="F57" s="25" t="str">
-        <f>LEFT(E57, 8)</f>
-        <v>20180815</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G57" s="25">
         <v>0</v>
       </c>
       <c r="H57" s="25">
-        <v>24959</v>
+        <v>23966</v>
       </c>
       <c r="I57" s="25">
-        <v>9892</v>
+        <v>8735</v>
       </c>
       <c r="J57" s="25">
         <v>3000</v>
       </c>
       <c r="K57" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="L57" s="26">
-        <f>I57/D57</f>
-        <v>1978.4</v>
+        <f t="shared" si="9"/>
+        <v>1747</v>
       </c>
       <c r="M57" s="25">
-        <v>34604</v>
+        <v>34376</v>
       </c>
       <c r="N57" s="25">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O57" s="25">
-        <v>879</v>
+        <v>757</v>
       </c>
       <c r="P57" s="25">
-        <f>O57/I57</f>
-        <v>8.8859684593611002E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.6662850601030336E-2</v>
       </c>
       <c r="Q57" s="26">
-        <f>O57/D57</f>
-        <v>175.8</v>
+        <f t="shared" si="11"/>
+        <v>151.4</v>
       </c>
       <c r="R57" s="25">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="25" customFormat="1">
-      <c r="A58" s="25" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" s="25" customFormat="1">
+      <c r="B58" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>151</v>
@@ -17515,59 +17543,56 @@
         <v>5</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="F58" s="25" t="str">
-        <f>LEFT(E58, 8)</f>
-        <v>20180814</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G58" s="25">
         <v>0</v>
       </c>
       <c r="H58" s="25">
-        <v>24316</v>
+        <v>24235</v>
       </c>
       <c r="I58" s="25">
-        <v>5809</v>
+        <v>5786</v>
       </c>
       <c r="J58" s="25">
         <v>3000</v>
       </c>
       <c r="K58" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="L58" s="26">
-        <f>I58/D58</f>
-        <v>1161.8</v>
+        <f t="shared" si="9"/>
+        <v>1157.2</v>
       </c>
       <c r="M58" s="25">
-        <v>31070</v>
+        <v>31625</v>
       </c>
       <c r="N58" s="25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O58" s="25">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P58" s="25">
-        <f>O58/I58</f>
-        <v>9.5024961266999483E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.4711372277912195E-2</v>
       </c>
       <c r="Q58" s="26">
-        <f>O58/D58</f>
-        <v>110.4</v>
+        <f t="shared" si="11"/>
+        <v>109.6</v>
       </c>
       <c r="R58" s="25">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="25" customFormat="1">
-      <c r="A59" s="25" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" s="25" customFormat="1">
+      <c r="B59" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>151</v>
@@ -17576,59 +17601,56 @@
         <v>5</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="F59" s="25" t="str">
-        <f>LEFT(E59, 8)</f>
-        <v>20180814</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G59" s="25">
         <v>0</v>
       </c>
       <c r="H59" s="25">
-        <v>24557</v>
+        <v>24311</v>
       </c>
       <c r="I59" s="25">
-        <v>5725</v>
+        <v>5772</v>
       </c>
       <c r="J59" s="25">
         <v>3000</v>
       </c>
       <c r="K59" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="L59" s="26">
-        <f>I59/D59</f>
-        <v>1145</v>
+        <f t="shared" si="9"/>
+        <v>1154.4000000000001</v>
       </c>
       <c r="M59" s="25">
-        <v>32726</v>
+        <v>32169</v>
       </c>
       <c r="N59" s="25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O59" s="25">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="P59" s="25">
-        <f>O59/I59</f>
-        <v>9.1528384279475988E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.3035343035343041E-2</v>
       </c>
       <c r="Q59" s="26">
-        <f>O59/D59</f>
-        <v>104.8</v>
+        <f t="shared" si="11"/>
+        <v>107.4</v>
       </c>
       <c r="R59" s="25">
         <v>2995</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="25" customFormat="1">
-      <c r="A60" s="25" t="s">
+    <row r="60" spans="2:18" s="25" customFormat="1">
+      <c r="B60" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>151</v>
@@ -17637,59 +17659,56 @@
         <v>5</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="F60" s="25" t="str">
-        <f>LEFT(E60, 8)</f>
-        <v>20180815</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G60" s="25">
         <v>0</v>
       </c>
       <c r="H60" s="25">
-        <v>24133</v>
+        <v>24291</v>
       </c>
       <c r="I60" s="25">
-        <v>5796</v>
+        <v>5837</v>
       </c>
       <c r="J60" s="25">
         <v>3000</v>
       </c>
       <c r="K60" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="L60" s="26">
-        <f>I60/D60</f>
-        <v>1159.2</v>
+        <f t="shared" si="9"/>
+        <v>1167.4000000000001</v>
       </c>
       <c r="M60" s="25">
-        <v>33081</v>
+        <v>33387</v>
       </c>
       <c r="N60" s="25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O60" s="25">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P60" s="25">
-        <f>O60/I60</f>
-        <v>9.1787439613526575E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.0800068528353609E-2</v>
       </c>
       <c r="Q60" s="26">
-        <f>O60/D60</f>
-        <v>106.4</v>
+        <f t="shared" si="11"/>
+        <v>106</v>
       </c>
       <c r="R60" s="25">
         <v>3034</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="25" customFormat="1">
-      <c r="A61" s="25" t="s">
+    <row r="61" spans="2:18" s="25" customFormat="1">
+      <c r="B61" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>155</v>
@@ -17698,59 +17717,56 @@
         <v>5</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="F61" s="25" t="str">
-        <f>LEFT(E61, 8)</f>
-        <v>20180814</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G61" s="25">
         <v>0</v>
       </c>
       <c r="H61" s="25">
-        <v>24475</v>
+        <v>24401</v>
       </c>
       <c r="I61" s="25">
-        <v>5548</v>
+        <v>8309</v>
       </c>
       <c r="J61" s="25">
         <v>3000</v>
       </c>
       <c r="K61" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="L61" s="26">
-        <f>I61/D61</f>
-        <v>1109.5999999999999</v>
+        <f t="shared" si="9"/>
+        <v>1661.8</v>
       </c>
       <c r="M61" s="25">
-        <v>36414</v>
+        <v>37088</v>
       </c>
       <c r="N61" s="25">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O61" s="25">
-        <v>479</v>
+        <v>714</v>
       </c>
       <c r="P61" s="25">
-        <f>O61/I61</f>
-        <v>8.6337418889689974E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.5930918281381635E-2</v>
       </c>
       <c r="Q61" s="26">
-        <f>O61/D61</f>
-        <v>95.8</v>
+        <f t="shared" si="11"/>
+        <v>142.80000000000001</v>
       </c>
       <c r="R61" s="25">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="25" customFormat="1">
-      <c r="A62" s="25" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" s="25" customFormat="1">
+      <c r="B62" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>155</v>
@@ -17759,59 +17775,56 @@
         <v>5</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="F62" s="25" t="str">
-        <f>LEFT(E62, 8)</f>
-        <v>20180814</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G62" s="25">
         <v>0</v>
       </c>
       <c r="H62" s="25">
-        <v>24526</v>
+        <v>24524</v>
       </c>
       <c r="I62" s="25">
-        <v>5674</v>
+        <v>7925</v>
       </c>
       <c r="J62" s="25">
         <v>3000</v>
       </c>
       <c r="K62" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="L62" s="26">
-        <f>I62/D62</f>
-        <v>1134.8</v>
+        <f t="shared" si="9"/>
+        <v>1585</v>
       </c>
       <c r="M62" s="25">
-        <v>35180</v>
+        <v>37071</v>
       </c>
       <c r="N62" s="25">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O62" s="25">
-        <v>502</v>
+        <v>681</v>
       </c>
       <c r="P62" s="25">
-        <f>O62/I62</f>
-        <v>8.8473739866055695E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.5930599369085175E-2</v>
       </c>
       <c r="Q62" s="26">
-        <f>O62/D62</f>
-        <v>100.4</v>
+        <f t="shared" si="11"/>
+        <v>136.19999999999999</v>
       </c>
       <c r="R62" s="25">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="25" customFormat="1">
-      <c r="A63" s="25" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" s="25" customFormat="1">
+      <c r="B63" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>155</v>
@@ -17820,59 +17833,56 @@
         <v>5</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="F63" s="25" t="str">
-        <f>LEFT(E63, 8)</f>
-        <v>20180815</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G63" s="25">
         <v>0</v>
       </c>
       <c r="H63" s="25">
-        <v>24729</v>
+        <v>24408</v>
       </c>
       <c r="I63" s="25">
-        <v>6905</v>
+        <v>5767</v>
       </c>
       <c r="J63" s="25">
         <v>3000</v>
       </c>
       <c r="K63" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="L63" s="26">
-        <f>I63/D63</f>
-        <v>1381</v>
+        <f t="shared" si="9"/>
+        <v>1153.4000000000001</v>
       </c>
       <c r="M63" s="25">
-        <v>36416</v>
+        <v>33316</v>
       </c>
       <c r="N63" s="25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O63" s="25">
-        <v>597</v>
+        <v>525</v>
       </c>
       <c r="P63" s="25">
-        <f>O63/I63</f>
-        <v>8.6459087617668351E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.1035200277440609E-2</v>
       </c>
       <c r="Q63" s="26">
-        <f>O63/D63</f>
-        <v>119.4</v>
+        <f t="shared" si="11"/>
+        <v>105</v>
       </c>
       <c r="R63" s="25">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="25" customFormat="1">
-      <c r="A64" s="25" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" s="25" customFormat="1">
+      <c r="B64" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>145</v>
@@ -17881,59 +17891,56 @@
         <v>3</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="F64" s="25" t="str">
-        <f>LEFT(E64, 8)</f>
-        <v>20180814</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G64" s="25">
         <v>0</v>
       </c>
       <c r="H64" s="25">
-        <v>24831</v>
+        <v>24793</v>
       </c>
       <c r="I64" s="25">
-        <v>5888</v>
+        <v>5841</v>
       </c>
       <c r="J64" s="25">
         <v>3000</v>
       </c>
       <c r="K64" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="L64" s="26">
-        <f>I64/D64</f>
-        <v>1962.6666666666667</v>
+        <f t="shared" si="9"/>
+        <v>1947</v>
       </c>
       <c r="M64" s="25">
-        <v>37327</v>
+        <v>38487</v>
       </c>
       <c r="N64" s="25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O64" s="25">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="P64" s="25">
-        <f>O64/I64</f>
-        <v>8.5427989130434784E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.3889744906694055E-2</v>
       </c>
       <c r="Q64" s="26">
-        <f>O64/D64</f>
-        <v>167.66666666666666</v>
+        <f t="shared" si="11"/>
+        <v>163.33333333333334</v>
       </c>
       <c r="R64" s="25">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="25" customFormat="1">
-      <c r="A65" s="25" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" s="25" customFormat="1">
+      <c r="B65" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>145</v>
@@ -17942,59 +17949,56 @@
         <v>3</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="F65" s="25" t="str">
-        <f>LEFT(E65, 8)</f>
-        <v>20180814</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G65" s="25">
         <v>0</v>
       </c>
       <c r="H65" s="25">
-        <v>24891</v>
+        <v>24811</v>
       </c>
       <c r="I65" s="25">
-        <v>5526</v>
+        <v>5730</v>
       </c>
       <c r="J65" s="25">
         <v>3000</v>
       </c>
       <c r="K65" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="L65" s="26">
-        <f>I65/D65</f>
-        <v>1842</v>
+        <f t="shared" si="9"/>
+        <v>1910</v>
       </c>
       <c r="M65" s="25">
-        <v>39074</v>
+        <v>39655</v>
       </c>
       <c r="N65" s="25">
         <v>14</v>
       </c>
       <c r="O65" s="25">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="P65" s="25">
-        <f>O65/I65</f>
-        <v>8.2519001085776325E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.2373472949389182E-2</v>
       </c>
       <c r="Q65" s="26">
-        <f>O65/D65</f>
-        <v>152</v>
+        <f t="shared" si="11"/>
+        <v>157.33333333333334</v>
       </c>
       <c r="R65" s="25">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="25" customFormat="1">
-      <c r="A66" s="25" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" s="25" customFormat="1">
+      <c r="B66" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>145</v>
@@ -18003,75 +18007,75 @@
         <v>3</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="F66" s="25" t="str">
-        <f>LEFT(E66, 8)</f>
-        <v>20180815</v>
+        <f t="shared" si="7"/>
+        <v>20180818</v>
       </c>
       <c r="G66" s="25">
         <v>0</v>
       </c>
       <c r="H66" s="25">
-        <v>24643</v>
+        <v>24822</v>
       </c>
       <c r="I66" s="25">
-        <v>6154</v>
+        <v>5980</v>
       </c>
       <c r="J66" s="25">
         <v>3000</v>
       </c>
       <c r="K66" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="L66" s="26">
-        <f>I66/D66</f>
-        <v>2051.3333333333335</v>
+        <f t="shared" si="9"/>
+        <v>1993.3333333333333</v>
       </c>
       <c r="M66" s="25">
-        <v>37504</v>
+        <v>34619</v>
       </c>
       <c r="N66" s="25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O66" s="25">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P66" s="25">
-        <f>O66/I66</f>
-        <v>8.4985375365615859E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.8795986622073581E-2</v>
       </c>
       <c r="Q66" s="26">
-        <f>O66/D66</f>
-        <v>174.33333333333334</v>
+        <f t="shared" si="11"/>
+        <v>177</v>
       </c>
       <c r="R66" s="25">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="5" customFormat="1">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" s="5" customFormat="1">
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="2:18">
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="2:18">
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="2:18">
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="2:18">
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="2:18">
       <c r="B72" t="s">
         <v>251</v>
       </c>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:18" s="38" customFormat="1">
+    <row r="73" spans="2:18" s="38" customFormat="1">
       <c r="B73" s="38" t="s">
         <v>124</v>
       </c>
@@ -18085,7 +18089,7 @@
         <v>126</v>
       </c>
       <c r="F73" s="38" t="str">
-        <f>LEFT(E73, 8)</f>
+        <f t="shared" ref="F73:F96" si="13">LEFT(E73, 8)</f>
         <v>20180813</v>
       </c>
       <c r="G73" s="38">
@@ -18105,7 +18109,7 @@
         <v>400</v>
       </c>
       <c r="L73" s="39">
-        <f>I73/D73</f>
+        <f t="shared" ref="L73:L96" si="14">I73/D73</f>
         <v>1742</v>
       </c>
       <c r="M73" s="38">
@@ -18118,18 +18122,18 @@
         <v>293</v>
       </c>
       <c r="P73" s="38">
-        <f>O73/I73</f>
+        <f t="shared" ref="P73:P96" si="15">O73/I73</f>
         <v>0.16819747416762343</v>
       </c>
       <c r="Q73" s="39">
-        <f>O73/D73</f>
+        <f t="shared" ref="Q73:Q96" si="16">O73/D73</f>
         <v>293</v>
       </c>
       <c r="R73" s="38">
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="38" customFormat="1">
+    <row r="74" spans="2:18" s="38" customFormat="1">
       <c r="B74" s="38" t="s">
         <v>124</v>
       </c>
@@ -18143,7 +18147,7 @@
         <v>127</v>
       </c>
       <c r="F74" s="38" t="str">
-        <f>LEFT(E74, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
       <c r="G74" s="38">
@@ -18159,11 +18163,11 @@
         <v>400</v>
       </c>
       <c r="K74" s="38">
-        <f t="shared" ref="K74:K96" si="8">J74/D74</f>
+        <f t="shared" ref="K74:K96" si="17">J74/D74</f>
         <v>400</v>
       </c>
       <c r="L74" s="39">
-        <f>I74/D74</f>
+        <f t="shared" si="14"/>
         <v>258</v>
       </c>
       <c r="M74" s="38">
@@ -18176,18 +18180,18 @@
         <v>44</v>
       </c>
       <c r="P74" s="38">
-        <f>O74/I74</f>
+        <f t="shared" si="15"/>
         <v>0.17054263565891473</v>
       </c>
       <c r="Q74" s="39">
-        <f>O74/D74</f>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="R74" s="38">
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="38" customFormat="1">
+    <row r="75" spans="2:18" s="38" customFormat="1">
       <c r="B75" s="38" t="s">
         <v>124</v>
       </c>
@@ -18201,7 +18205,7 @@
         <v>128</v>
       </c>
       <c r="F75" s="38" t="str">
-        <f>LEFT(E75, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
       <c r="G75" s="38">
@@ -18217,11 +18221,11 @@
         <v>400</v>
       </c>
       <c r="K75" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>400</v>
       </c>
       <c r="L75" s="39">
-        <f>I75/D75</f>
+        <f t="shared" si="14"/>
         <v>267</v>
       </c>
       <c r="M75" s="38">
@@ -18234,18 +18238,18 @@
         <v>47</v>
       </c>
       <c r="P75" s="38">
-        <f>O75/I75</f>
+        <f t="shared" si="15"/>
         <v>0.17602996254681649</v>
       </c>
       <c r="Q75" s="39">
-        <f>O75/D75</f>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="R75" s="38">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="38" customFormat="1">
+    <row r="76" spans="2:18" s="38" customFormat="1">
       <c r="B76" s="38" t="s">
         <v>137</v>
       </c>
@@ -18259,7 +18263,7 @@
         <v>138</v>
       </c>
       <c r="F76" s="38" t="str">
-        <f>LEFT(E76, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G76" s="38">
@@ -18275,11 +18279,11 @@
         <v>400</v>
       </c>
       <c r="K76" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>400</v>
       </c>
       <c r="L76" s="39">
-        <f>I76/D76</f>
+        <f t="shared" si="14"/>
         <v>255</v>
       </c>
       <c r="M76" s="38">
@@ -18292,18 +18296,18 @@
         <v>43</v>
       </c>
       <c r="P76" s="38">
-        <f>O76/I76</f>
+        <f t="shared" si="15"/>
         <v>0.16862745098039217</v>
       </c>
       <c r="Q76" s="39">
-        <f>O76/D76</f>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="R76" s="38">
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="38" customFormat="1">
+    <row r="77" spans="2:18" s="38" customFormat="1">
       <c r="B77" s="38" t="s">
         <v>137</v>
       </c>
@@ -18317,7 +18321,7 @@
         <v>139</v>
       </c>
       <c r="F77" s="38" t="str">
-        <f>LEFT(E77, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G77" s="38">
@@ -18333,11 +18337,11 @@
         <v>400</v>
       </c>
       <c r="K77" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>400</v>
       </c>
       <c r="L77" s="39">
-        <f>I77/D77</f>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="M77" s="38">
@@ -18350,18 +18354,18 @@
         <v>26</v>
       </c>
       <c r="P77" s="38">
-        <f>O77/I77</f>
+        <f t="shared" si="15"/>
         <v>0.17333333333333334</v>
       </c>
       <c r="Q77" s="39">
-        <f>O77/D77</f>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="R77" s="38">
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1">
+    <row r="78" spans="2:18" s="38" customFormat="1">
       <c r="B78" s="38" t="s">
         <v>137</v>
       </c>
@@ -18375,7 +18379,7 @@
         <v>140</v>
       </c>
       <c r="F78" s="38" t="str">
-        <f>LEFT(E78, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G78" s="38">
@@ -18391,11 +18395,11 @@
         <v>400</v>
       </c>
       <c r="K78" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>400</v>
       </c>
       <c r="L78" s="39">
-        <f>I78/D78</f>
+        <f t="shared" si="14"/>
         <v>242</v>
       </c>
       <c r="M78" s="38">
@@ -18408,18 +18412,18 @@
         <v>44</v>
       </c>
       <c r="P78" s="38">
-        <f>O78/I78</f>
+        <f t="shared" si="15"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="Q78" s="39">
-        <f>O78/D78</f>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="R78" s="38">
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1">
+    <row r="79" spans="2:18" s="38" customFormat="1">
       <c r="B79" s="38" t="s">
         <v>124</v>
       </c>
@@ -18433,7 +18437,7 @@
         <v>134</v>
       </c>
       <c r="F79" s="38" t="str">
-        <f>LEFT(E79, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
       <c r="G79" s="38">
@@ -18449,11 +18453,11 @@
         <v>2000</v>
       </c>
       <c r="K79" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
       <c r="L79" s="39">
-        <f>I79/D79</f>
+        <f t="shared" si="14"/>
         <v>3904</v>
       </c>
       <c r="M79" s="38">
@@ -18466,18 +18470,18 @@
         <v>339</v>
       </c>
       <c r="P79" s="38">
-        <f>O79/I79</f>
+        <f t="shared" si="15"/>
         <v>8.6834016393442626E-2</v>
       </c>
       <c r="Q79" s="39">
-        <f>O79/D79</f>
+        <f t="shared" si="16"/>
         <v>339</v>
       </c>
       <c r="R79" s="38">
         <v>2074</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="38" customFormat="1">
+    <row r="80" spans="2:18" s="38" customFormat="1">
       <c r="B80" s="38" t="s">
         <v>124</v>
       </c>
@@ -18491,7 +18495,7 @@
         <v>135</v>
       </c>
       <c r="F80" s="38" t="str">
-        <f>LEFT(E80, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
       <c r="G80" s="38">
@@ -18507,11 +18511,11 @@
         <v>2000</v>
       </c>
       <c r="K80" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
       <c r="L80" s="39">
-        <f>I80/D80</f>
+        <f t="shared" si="14"/>
         <v>3496</v>
       </c>
       <c r="M80" s="38">
@@ -18524,11 +18528,11 @@
         <v>303</v>
       </c>
       <c r="P80" s="38">
-        <f>O80/I80</f>
+        <f t="shared" si="15"/>
         <v>8.6670480549199083E-2</v>
       </c>
       <c r="Q80" s="39">
-        <f>O80/D80</f>
+        <f t="shared" si="16"/>
         <v>303</v>
       </c>
       <c r="R80" s="38">
@@ -18549,7 +18553,7 @@
         <v>136</v>
       </c>
       <c r="F81" s="38" t="str">
-        <f>LEFT(E81, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
       <c r="G81" s="38">
@@ -18565,11 +18569,11 @@
         <v>2000</v>
       </c>
       <c r="K81" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
       <c r="L81" s="39">
-        <f>I81/D81</f>
+        <f t="shared" si="14"/>
         <v>3445</v>
       </c>
       <c r="M81" s="38">
@@ -18582,11 +18586,11 @@
         <v>250</v>
       </c>
       <c r="P81" s="38">
-        <f>O81/I81</f>
+        <f t="shared" si="15"/>
         <v>7.2568940493468792E-2</v>
       </c>
       <c r="Q81" s="39">
-        <f>O81/D81</f>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="R81" s="38">
@@ -18607,7 +18611,7 @@
         <v>129</v>
       </c>
       <c r="F82" s="38" t="str">
-        <f>LEFT(E82, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
       <c r="G82" s="38">
@@ -18623,11 +18627,11 @@
         <v>4000</v>
       </c>
       <c r="K82" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4000</v>
       </c>
       <c r="L82" s="39">
-        <f>I82/D82</f>
+        <f t="shared" si="14"/>
         <v>7585</v>
       </c>
       <c r="M82" s="38">
@@ -18640,11 +18644,11 @@
         <v>661</v>
       </c>
       <c r="P82" s="38">
-        <f>O82/I82</f>
+        <f t="shared" si="15"/>
         <v>8.7145682267633487E-2</v>
       </c>
       <c r="Q82" s="39">
-        <f>O82/D82</f>
+        <f t="shared" si="16"/>
         <v>661</v>
       </c>
       <c r="R82" s="38">
@@ -18665,7 +18669,7 @@
         <v>131</v>
       </c>
       <c r="F83" s="38" t="str">
-        <f>LEFT(E83, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
       <c r="G83" s="38">
@@ -18681,11 +18685,11 @@
         <v>4000</v>
       </c>
       <c r="K83" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4000</v>
       </c>
       <c r="L83" s="39">
-        <f>I83/D83</f>
+        <f t="shared" si="14"/>
         <v>7269</v>
       </c>
       <c r="M83" s="38">
@@ -18698,11 +18702,11 @@
         <v>644</v>
       </c>
       <c r="P83" s="38">
-        <f>O83/I83</f>
+        <f t="shared" si="15"/>
         <v>8.8595405145136877E-2</v>
       </c>
       <c r="Q83" s="39">
-        <f>O83/D83</f>
+        <f t="shared" si="16"/>
         <v>644</v>
       </c>
       <c r="R83" s="38">
@@ -18723,7 +18727,7 @@
         <v>132</v>
       </c>
       <c r="F84" s="38" t="str">
-        <f>LEFT(E84, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G84" s="38">
@@ -18739,11 +18743,11 @@
         <v>4000</v>
       </c>
       <c r="K84" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4000</v>
       </c>
       <c r="L84" s="39">
-        <f>I84/D84</f>
+        <f t="shared" si="14"/>
         <v>7396</v>
       </c>
       <c r="M84" s="38">
@@ -18756,11 +18760,11 @@
         <v>621</v>
       </c>
       <c r="P84" s="38">
-        <f>O84/I84</f>
+        <f t="shared" si="15"/>
         <v>8.3964305029745806E-2</v>
       </c>
       <c r="Q84" s="39">
-        <f>O84/D84</f>
+        <f t="shared" si="16"/>
         <v>621</v>
       </c>
       <c r="R84" s="38">
@@ -18781,7 +18785,7 @@
         <v>148</v>
       </c>
       <c r="F85" s="38" t="str">
-        <f>LEFT(E85, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G85" s="38">
@@ -18797,11 +18801,11 @@
         <v>3000</v>
       </c>
       <c r="K85" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="L85" s="39">
-        <f>I85/D85</f>
+        <f t="shared" si="14"/>
         <v>1172.8</v>
       </c>
       <c r="M85" s="38">
@@ -18814,11 +18818,11 @@
         <v>555</v>
       </c>
       <c r="P85" s="38">
-        <f>O85/I85</f>
+        <f t="shared" si="15"/>
         <v>9.464529331514325E-2</v>
       </c>
       <c r="Q85" s="39">
-        <f>O85/D85</f>
+        <f t="shared" si="16"/>
         <v>111</v>
       </c>
       <c r="R85" s="38">
@@ -18839,7 +18843,7 @@
         <v>149</v>
       </c>
       <c r="F86" s="38" t="str">
-        <f>LEFT(E86, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G86" s="38">
@@ -18855,11 +18859,11 @@
         <v>3000</v>
       </c>
       <c r="K86" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="L86" s="39">
-        <f>I86/D86</f>
+        <f t="shared" si="14"/>
         <v>1227.4000000000001</v>
       </c>
       <c r="M86" s="38">
@@ -18872,11 +18876,11 @@
         <v>562</v>
       </c>
       <c r="P86" s="38">
-        <f>O86/I86</f>
+        <f t="shared" si="15"/>
         <v>9.1575688447124007E-2</v>
       </c>
       <c r="Q86" s="39">
-        <f>O86/D86</f>
+        <f t="shared" si="16"/>
         <v>112.4</v>
       </c>
       <c r="R86" s="38">
@@ -18897,7 +18901,7 @@
         <v>150</v>
       </c>
       <c r="F87" s="38" t="str">
-        <f>LEFT(E87, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180815</v>
       </c>
       <c r="G87" s="38">
@@ -18913,11 +18917,11 @@
         <v>3000</v>
       </c>
       <c r="K87" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="L87" s="39">
-        <f>I87/D87</f>
+        <f t="shared" si="14"/>
         <v>1978.4</v>
       </c>
       <c r="M87" s="38">
@@ -18930,11 +18934,11 @@
         <v>879</v>
       </c>
       <c r="P87" s="38">
-        <f>O87/I87</f>
+        <f t="shared" si="15"/>
         <v>8.8859684593611002E-2</v>
       </c>
       <c r="Q87" s="39">
-        <f>O87/D87</f>
+        <f t="shared" si="16"/>
         <v>175.8</v>
       </c>
       <c r="R87" s="38">
@@ -18955,7 +18959,7 @@
         <v>152</v>
       </c>
       <c r="F88" s="38" t="str">
-        <f>LEFT(E88, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G88" s="38">
@@ -18971,11 +18975,11 @@
         <v>3000</v>
       </c>
       <c r="K88" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="L88" s="39">
-        <f>I88/D88</f>
+        <f t="shared" si="14"/>
         <v>1161.8</v>
       </c>
       <c r="M88" s="38">
@@ -18988,11 +18992,11 @@
         <v>552</v>
       </c>
       <c r="P88" s="38">
-        <f>O88/I88</f>
+        <f t="shared" si="15"/>
         <v>9.5024961266999483E-2</v>
       </c>
       <c r="Q88" s="39">
-        <f>O88/D88</f>
+        <f t="shared" si="16"/>
         <v>110.4</v>
       </c>
       <c r="R88" s="38">
@@ -19013,7 +19017,7 @@
         <v>153</v>
       </c>
       <c r="F89" s="38" t="str">
-        <f>LEFT(E89, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G89" s="38">
@@ -19029,11 +19033,11 @@
         <v>3000</v>
       </c>
       <c r="K89" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="L89" s="39">
-        <f>I89/D89</f>
+        <f t="shared" si="14"/>
         <v>1145</v>
       </c>
       <c r="M89" s="38">
@@ -19046,11 +19050,11 @@
         <v>524</v>
       </c>
       <c r="P89" s="38">
-        <f>O89/I89</f>
+        <f t="shared" si="15"/>
         <v>9.1528384279475988E-2</v>
       </c>
       <c r="Q89" s="39">
-        <f>O89/D89</f>
+        <f t="shared" si="16"/>
         <v>104.8</v>
       </c>
       <c r="R89" s="38">
@@ -19071,7 +19075,7 @@
         <v>154</v>
       </c>
       <c r="F90" s="38" t="str">
-        <f>LEFT(E90, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180815</v>
       </c>
       <c r="G90" s="38">
@@ -19087,11 +19091,11 @@
         <v>3000</v>
       </c>
       <c r="K90" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="L90" s="39">
-        <f>I90/D90</f>
+        <f t="shared" si="14"/>
         <v>1159.2</v>
       </c>
       <c r="M90" s="38">
@@ -19104,11 +19108,11 @@
         <v>532</v>
       </c>
       <c r="P90" s="38">
-        <f>O90/I90</f>
+        <f t="shared" si="15"/>
         <v>9.1787439613526575E-2</v>
       </c>
       <c r="Q90" s="39">
-        <f>O90/D90</f>
+        <f t="shared" si="16"/>
         <v>106.4</v>
       </c>
       <c r="R90" s="38">
@@ -19129,7 +19133,7 @@
         <v>156</v>
       </c>
       <c r="F91" s="38" t="str">
-        <f>LEFT(E91, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G91" s="38">
@@ -19145,11 +19149,11 @@
         <v>3000</v>
       </c>
       <c r="K91" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="L91" s="39">
-        <f>I91/D91</f>
+        <f t="shared" si="14"/>
         <v>1109.5999999999999</v>
       </c>
       <c r="M91" s="38">
@@ -19162,11 +19166,11 @@
         <v>479</v>
       </c>
       <c r="P91" s="38">
-        <f>O91/I91</f>
+        <f t="shared" si="15"/>
         <v>8.6337418889689974E-2</v>
       </c>
       <c r="Q91" s="39">
-        <f>O91/D91</f>
+        <f t="shared" si="16"/>
         <v>95.8</v>
       </c>
       <c r="R91" s="38">
@@ -19187,7 +19191,7 @@
         <v>157</v>
       </c>
       <c r="F92" s="38" t="str">
-        <f>LEFT(E92, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G92" s="38">
@@ -19203,11 +19207,11 @@
         <v>3000</v>
       </c>
       <c r="K92" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="L92" s="39">
-        <f>I92/D92</f>
+        <f t="shared" si="14"/>
         <v>1134.8</v>
       </c>
       <c r="M92" s="38">
@@ -19220,11 +19224,11 @@
         <v>502</v>
       </c>
       <c r="P92" s="38">
-        <f>O92/I92</f>
+        <f t="shared" si="15"/>
         <v>8.8473739866055695E-2</v>
       </c>
       <c r="Q92" s="39">
-        <f>O92/D92</f>
+        <f t="shared" si="16"/>
         <v>100.4</v>
       </c>
       <c r="R92" s="38">
@@ -19245,7 +19249,7 @@
         <v>158</v>
       </c>
       <c r="F93" s="38" t="str">
-        <f>LEFT(E93, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180815</v>
       </c>
       <c r="G93" s="38">
@@ -19261,11 +19265,11 @@
         <v>3000</v>
       </c>
       <c r="K93" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>600</v>
       </c>
       <c r="L93" s="39">
-        <f>I93/D93</f>
+        <f t="shared" si="14"/>
         <v>1381</v>
       </c>
       <c r="M93" s="38">
@@ -19278,11 +19282,11 @@
         <v>597</v>
       </c>
       <c r="P93" s="38">
-        <f>O93/I93</f>
+        <f t="shared" si="15"/>
         <v>8.6459087617668351E-2</v>
       </c>
       <c r="Q93" s="39">
-        <f>O93/D93</f>
+        <f t="shared" si="16"/>
         <v>119.4</v>
       </c>
       <c r="R93" s="38">
@@ -19303,7 +19307,7 @@
         <v>159</v>
       </c>
       <c r="F94" s="38" t="str">
-        <f>LEFT(E94, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G94" s="38">
@@ -19319,11 +19323,11 @@
         <v>3000</v>
       </c>
       <c r="K94" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="L94" s="39">
-        <f>I94/D94</f>
+        <f t="shared" si="14"/>
         <v>1962.6666666666667</v>
       </c>
       <c r="M94" s="38">
@@ -19336,11 +19340,11 @@
         <v>503</v>
       </c>
       <c r="P94" s="38">
-        <f>O94/I94</f>
+        <f t="shared" si="15"/>
         <v>8.5427989130434784E-2</v>
       </c>
       <c r="Q94" s="39">
-        <f>O94/D94</f>
+        <f t="shared" si="16"/>
         <v>167.66666666666666</v>
       </c>
       <c r="R94" s="38">
@@ -19361,7 +19365,7 @@
         <v>160</v>
       </c>
       <c r="F95" s="38" t="str">
-        <f>LEFT(E95, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
       <c r="G95" s="38">
@@ -19377,11 +19381,11 @@
         <v>3000</v>
       </c>
       <c r="K95" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="L95" s="39">
-        <f>I95/D95</f>
+        <f t="shared" si="14"/>
         <v>1842</v>
       </c>
       <c r="M95" s="38">
@@ -19394,11 +19398,11 @@
         <v>456</v>
       </c>
       <c r="P95" s="38">
-        <f>O95/I95</f>
+        <f t="shared" si="15"/>
         <v>8.2519001085776325E-2</v>
       </c>
       <c r="Q95" s="39">
-        <f>O95/D95</f>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="R95" s="38">
@@ -19419,7 +19423,7 @@
         <v>146</v>
       </c>
       <c r="F96" s="38" t="str">
-        <f>LEFT(E96, 8)</f>
+        <f t="shared" si="13"/>
         <v>20180815</v>
       </c>
       <c r="G96" s="38">
@@ -19435,11 +19439,11 @@
         <v>3000</v>
       </c>
       <c r="K96" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="L96" s="39">
-        <f>I96/D96</f>
+        <f t="shared" si="14"/>
         <v>2051.3333333333335</v>
       </c>
       <c r="M96" s="38">
@@ -19452,11 +19456,11 @@
         <v>523</v>
       </c>
       <c r="P96" s="38">
-        <f>O96/I96</f>
+        <f t="shared" si="15"/>
         <v>8.4985375365615859E-2</v>
       </c>
       <c r="Q96" s="39">
-        <f>O96/D96</f>
+        <f t="shared" si="16"/>
         <v>174.33333333333334</v>
       </c>
       <c r="R96" s="38">
@@ -19584,9 +19588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD3939F-B255-B24A-99D1-39EFD23212CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
@@ -38118,7 +38120,7 @@
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38237,7 +38239,7 @@
       </c>
       <c r="C12">
         <f>CORREL(Results!K55:K66,Results!L55:L66)</f>
-        <v>0.78791050738237067</v>
+        <v>0.78895075115954516</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/TestResults.xlsx
+++ b/Figures/TestResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eoin/Work/PhdThesis/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A9FB5-79C2-AD43-8019-929A5886B79C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA81361-B9A4-1544-8738-213DF78E7307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="2820" windowWidth="27340" windowHeight="14440" firstSheet="1" activeTab="11" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
+    <workbookView xWindow="720" yWindow="1240" windowWidth="27340" windowHeight="14440" xr2:uid="{BDA54389-B7CA-EC41-A61F-DEAE829EE646}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="Host Cpu Total" sheetId="8" r:id="rId8"/>
     <sheet name="Calculations" sheetId="4" r:id="rId9"/>
     <sheet name="Host Energy by Util" sheetId="5" r:id="rId10"/>
-    <sheet name="Plots" sheetId="3" r:id="rId11"/>
-    <sheet name="Data Plots" sheetId="9" r:id="rId12"/>
-    <sheet name="Scenarios" sheetId="2" r:id="rId13"/>
+    <sheet name="Manual Fiohog Tests" sheetId="17" r:id="rId11"/>
+    <sheet name="Plots" sheetId="3" r:id="rId12"/>
+    <sheet name="Data Plots" sheetId="9" r:id="rId13"/>
+    <sheet name="Scenarios" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pidstat - set 1'!$B$5:$O$76</definedName>
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="285">
   <si>
     <t>Scenario</t>
   </si>
@@ -1039,12 +1040,42 @@
   <si>
     <t>20180818-003051</t>
   </si>
+  <si>
+    <t>CPU msec</t>
+  </si>
+  <si>
+    <t>MB Written</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Manual tests against Fiohog on AWS with CPU consumption pulled from /proc/PID/stat</t>
+  </si>
+  <si>
+    <t>Replaced with the "Manual Fiohog tests" in a separate tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The "std volume" tests turned out to be useless.  Correctly run, but useless. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For anything other than very large IO loads, varying number of service </t>
+  </si>
+  <si>
+    <t>requests and IO requests changes the workload so you won't get</t>
+  </si>
+  <si>
+    <t>a "flat" CPU consumption line as I'd assumed.</t>
+  </si>
+  <si>
+    <t>These "std volume" data tests are valid, but useless - see notes to the right of the data.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1116,6 +1147,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1162,13 +1200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFE4DA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,8 +1252,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1233,8 +1269,10 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,6 +1282,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE4DA"/>
       <color rgb="FFFFA38F"/>
     </mruColors>
   </colors>
@@ -4963,6 +5002,1055 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>CPU for IO Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Manual Fiohog Tests'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU msec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Manual Fiohog Tests'!$B$7:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Manual Fiohog Tests'!$C$7:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-565E-5942-A6CB-ED2A5B934EDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="627552351"/>
+        <c:axId val="628023871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="627552351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MB Written</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628023871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628023871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU msec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627552351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5497,7 +6585,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5898,7 +6986,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6467,7 +7555,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7060,7 +8148,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7771,7 +8859,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8475,7 +9563,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8575,7 +9663,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$C$55:$C$66</c:f>
+              <c:f>Results!$C$60:$C$71</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -8619,7 +9707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$L$55:$L$66</c:f>
+              <c:f>Results!$L$60:$L$71</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8705,7 +9793,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Results!$C$55:$C$66</c:f>
+              <c:f>Results!$C$60:$C$71</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -8749,7 +9837,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results!$Q$55:$Q$66</c:f>
+              <c:f>Results!$Q$60:$Q$71</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9369,6 +10457,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10441,7 +11569,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10468,8 +11596,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10549,11 +11677,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10564,11 +11687,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -10580,7 +11698,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10600,9 +11718,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10615,10 +11730,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10658,22 +11773,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10778,8 +11894,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10911,19 +12027,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10937,6 +12054,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11989,7 +13117,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12016,8 +13144,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12097,6 +13225,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12107,6 +13240,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12118,7 +13256,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12138,6 +13276,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12150,10 +13291,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12193,23 +13334,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -12314,8 +13454,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12447,20 +13587,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12474,17 +13613,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13536,6 +14664,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13578,6 +15222,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD17B2E-C11E-B444-B8D7-12C6B7BEE24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13734,7 +15421,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -14222,7 +15909,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14660,14 +16347,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A7A84C-38BB-9C46-BB61-734C431F3DDA}">
   <dimension ref="B2:S96"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
@@ -16850,7 +18537,7 @@
         <v>254</v>
       </c>
       <c r="F46" s="23" t="str">
-        <f t="shared" ref="F46:F66" si="7">LEFT(E46, 8)</f>
+        <f t="shared" ref="F46:F71" si="7">LEFT(E46, 8)</f>
         <v>20180817</v>
       </c>
       <c r="G46" s="23">
@@ -16870,7 +18557,7 @@
         <v>400</v>
       </c>
       <c r="L46" s="24">
-        <f t="shared" ref="L46:L66" si="9">I46/D46</f>
+        <f t="shared" ref="L46:L63" si="9">I46/D46</f>
         <v>188</v>
       </c>
       <c r="M46" s="23">
@@ -16883,11 +18570,11 @@
         <v>44</v>
       </c>
       <c r="P46" s="23">
-        <f t="shared" ref="P46:P66" si="10">O46/I46</f>
+        <f t="shared" ref="P46:P71" si="10">O46/I46</f>
         <v>0.23404255319148937</v>
       </c>
       <c r="Q46" s="24">
-        <f t="shared" ref="Q46:Q66" si="11">O46/D46</f>
+        <f t="shared" ref="Q46:Q63" si="11">O46/D46</f>
         <v>44</v>
       </c>
       <c r="R46" s="23">
@@ -17010,7 +18697,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="2:18" s="23" customFormat="1">
+    <row r="49" spans="2:19" s="23" customFormat="1">
       <c r="B49" s="23" t="s">
         <v>252</v>
       </c>
@@ -17068,7 +18755,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="50" spans="2:18" s="23" customFormat="1">
+    <row r="50" spans="2:19" s="23" customFormat="1">
       <c r="B50" s="23" t="s">
         <v>252</v>
       </c>
@@ -17126,7 +18813,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="51" spans="2:18" s="23" customFormat="1">
+    <row r="51" spans="2:19" s="23" customFormat="1">
       <c r="B51" s="23" t="s">
         <v>252</v>
       </c>
@@ -17184,7 +18871,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="52" spans="2:18" s="23" customFormat="1">
+    <row r="52" spans="2:19" s="23" customFormat="1">
       <c r="B52" s="23" t="s">
         <v>252</v>
       </c>
@@ -17242,7 +18929,7 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="53" spans="2:18" s="23" customFormat="1">
+    <row r="53" spans="2:19" s="23" customFormat="1">
       <c r="B53" s="23" t="s">
         <v>252</v>
       </c>
@@ -17300,7 +18987,7 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="54" spans="2:18" s="23" customFormat="1">
+    <row r="54" spans="2:19" s="23" customFormat="1">
       <c r="B54" s="23" t="s">
         <v>252</v>
       </c>
@@ -17358,716 +19045,739 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="55" spans="2:18" s="25" customFormat="1">
-      <c r="B55" s="25" t="s">
+    <row r="55" spans="2:19" s="23" customFormat="1">
+      <c r="L55" s="24"/>
+      <c r="Q55" s="24"/>
+    </row>
+    <row r="56" spans="2:19" s="5" customFormat="1">
+      <c r="L56" s="6"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="2:19" s="5" customFormat="1">
+      <c r="L57" s="6"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="2:19" s="5" customFormat="1">
+      <c r="L58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="2:19" s="5" customFormat="1">
+      <c r="B59" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="2:19" s="38" customFormat="1">
+      <c r="B60" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C60" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D60" s="38">
         <v>5</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E60" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="F55" s="25" t="str">
+      <c r="F60" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G55" s="25">
-        <v>0</v>
-      </c>
-      <c r="H55" s="25">
+      <c r="G60" s="38">
+        <v>0</v>
+      </c>
+      <c r="H60" s="38">
         <v>23895</v>
       </c>
-      <c r="I55" s="25">
+      <c r="I60" s="38">
         <v>6908</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J60" s="38">
         <v>3000</v>
       </c>
-      <c r="K55" s="25">
-        <f t="shared" ref="K55:K66" si="12">J55/D55</f>
+      <c r="K60" s="38">
+        <f t="shared" ref="K60:K63" si="12">J60/D60</f>
         <v>600</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L60" s="39">
         <f t="shared" si="9"/>
         <v>1381.6</v>
       </c>
-      <c r="M55" s="25">
+      <c r="M60" s="38">
         <v>33498</v>
       </c>
-      <c r="N55" s="25">
+      <c r="N60" s="38">
         <v>21</v>
       </c>
-      <c r="O55" s="25">
+      <c r="O60" s="38">
         <v>607</v>
       </c>
-      <c r="P55" s="25">
+      <c r="P60" s="38">
         <f t="shared" si="10"/>
         <v>8.7869137232194555E-2</v>
       </c>
-      <c r="Q55" s="26">
+      <c r="Q60" s="39">
         <f t="shared" si="11"/>
         <v>121.4</v>
       </c>
-      <c r="R55" s="25">
+      <c r="R60" s="38">
         <v>2944</v>
       </c>
-    </row>
-    <row r="56" spans="2:18" s="25" customFormat="1">
-      <c r="B56" s="25" t="s">
+      <c r="S60" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" s="38" customFormat="1">
+      <c r="B61" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C61" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D61" s="38">
         <v>5</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E61" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="F56" s="25" t="str">
+      <c r="F61" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G56" s="25">
-        <v>0</v>
-      </c>
-      <c r="H56" s="25">
+      <c r="G61" s="38">
+        <v>0</v>
+      </c>
+      <c r="H61" s="38">
         <v>24030</v>
       </c>
-      <c r="I56" s="25">
+      <c r="I61" s="38">
         <v>6141</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J61" s="38">
         <v>3000</v>
       </c>
-      <c r="K56" s="25">
+      <c r="K61" s="38">
         <f t="shared" si="12"/>
         <v>600</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L61" s="39">
         <f t="shared" si="9"/>
         <v>1228.2</v>
       </c>
-      <c r="M56" s="25">
+      <c r="M61" s="38">
         <v>32127</v>
       </c>
-      <c r="N56" s="25">
+      <c r="N61" s="38">
         <v>19</v>
       </c>
-      <c r="O56" s="25">
+      <c r="O61" s="38">
         <v>572</v>
       </c>
-      <c r="P56" s="25">
+      <c r="P61" s="38">
         <f t="shared" si="10"/>
         <v>9.3144439016446839E-2</v>
       </c>
-      <c r="Q56" s="26">
+      <c r="Q61" s="39">
         <f t="shared" si="11"/>
         <v>114.4</v>
       </c>
-      <c r="R56" s="25">
+      <c r="R61" s="38">
         <v>2995</v>
       </c>
-    </row>
-    <row r="57" spans="2:18" s="25" customFormat="1">
-      <c r="B57" s="25" t="s">
+      <c r="S61" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" s="38" customFormat="1">
+      <c r="B62" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C62" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D62" s="38">
         <v>5</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E62" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="F57" s="25" t="str">
+      <c r="F62" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G57" s="25">
-        <v>0</v>
-      </c>
-      <c r="H57" s="25">
+      <c r="G62" s="38">
+        <v>0</v>
+      </c>
+      <c r="H62" s="38">
         <v>23966</v>
       </c>
-      <c r="I57" s="25">
+      <c r="I62" s="38">
         <v>8735</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J62" s="38">
         <v>3000</v>
       </c>
-      <c r="K57" s="25">
+      <c r="K62" s="38">
         <f t="shared" si="12"/>
         <v>600</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L62" s="39">
         <f t="shared" si="9"/>
         <v>1747</v>
       </c>
-      <c r="M57" s="25">
+      <c r="M62" s="38">
         <v>34376</v>
       </c>
-      <c r="N57" s="25">
+      <c r="N62" s="38">
         <v>25</v>
       </c>
-      <c r="O57" s="25">
+      <c r="O62" s="38">
         <v>757</v>
       </c>
-      <c r="P57" s="25">
+      <c r="P62" s="38">
         <f t="shared" si="10"/>
         <v>8.6662850601030336E-2</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="Q62" s="39">
         <f t="shared" si="11"/>
         <v>151.4</v>
       </c>
-      <c r="R57" s="25">
+      <c r="R62" s="38">
         <v>2981</v>
       </c>
-    </row>
-    <row r="58" spans="2:18" s="25" customFormat="1">
-      <c r="B58" s="25" t="s">
+      <c r="S62" s="38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" s="38" customFormat="1">
+      <c r="B63" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C63" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D63" s="38">
         <v>5</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E63" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="F58" s="25" t="str">
+      <c r="F63" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G58" s="25">
-        <v>0</v>
-      </c>
-      <c r="H58" s="25">
+      <c r="G63" s="38">
+        <v>0</v>
+      </c>
+      <c r="H63" s="38">
         <v>24235</v>
       </c>
-      <c r="I58" s="25">
+      <c r="I63" s="38">
         <v>5786</v>
       </c>
-      <c r="J58" s="25">
+      <c r="J63" s="38">
         <v>3000</v>
       </c>
-      <c r="K58" s="25">
+      <c r="K63" s="38">
         <f t="shared" si="12"/>
         <v>600</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L63" s="39">
         <f t="shared" si="9"/>
         <v>1157.2</v>
       </c>
-      <c r="M58" s="25">
+      <c r="M63" s="38">
         <v>31625</v>
       </c>
-      <c r="N58" s="25">
+      <c r="N63" s="38">
         <v>18</v>
       </c>
-      <c r="O58" s="25">
+      <c r="O63" s="38">
         <v>548</v>
       </c>
-      <c r="P58" s="25">
+      <c r="P63" s="38">
         <f t="shared" si="10"/>
         <v>9.4711372277912195E-2</v>
       </c>
-      <c r="Q58" s="26">
+      <c r="Q63" s="39">
         <f t="shared" si="11"/>
         <v>109.6</v>
       </c>
-      <c r="R58" s="25">
+      <c r="R63" s="38">
         <v>2995</v>
       </c>
-    </row>
-    <row r="59" spans="2:18" s="25" customFormat="1">
-      <c r="B59" s="25" t="s">
+      <c r="S63" s="38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" s="38" customFormat="1">
+      <c r="B64" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C64" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D64" s="38">
         <v>5</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E64" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="F59" s="25" t="str">
+      <c r="F64" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G59" s="25">
-        <v>0</v>
-      </c>
-      <c r="H59" s="25">
+      <c r="G64" s="38">
+        <v>0</v>
+      </c>
+      <c r="H64" s="38">
         <v>24311</v>
       </c>
-      <c r="I59" s="25">
+      <c r="I64" s="38">
         <v>5772</v>
       </c>
-      <c r="J59" s="25">
+      <c r="J64" s="38">
         <v>3000</v>
       </c>
-      <c r="K59" s="25">
-        <f t="shared" si="12"/>
+      <c r="K64" s="38">
+        <f>J64/D64</f>
         <v>600</v>
       </c>
-      <c r="L59" s="26">
-        <f t="shared" si="9"/>
+      <c r="L64" s="39">
+        <f>I64/D64</f>
         <v>1154.4000000000001</v>
       </c>
-      <c r="M59" s="25">
+      <c r="M64" s="38">
         <v>32169</v>
       </c>
-      <c r="N59" s="25">
+      <c r="N64" s="38">
         <v>18</v>
       </c>
-      <c r="O59" s="25">
+      <c r="O64" s="38">
         <v>537</v>
       </c>
-      <c r="P59" s="25">
+      <c r="P64" s="38">
         <f t="shared" si="10"/>
         <v>9.3035343035343041E-2</v>
       </c>
-      <c r="Q59" s="26">
-        <f t="shared" si="11"/>
+      <c r="Q64" s="39">
+        <f>O64/D64</f>
         <v>107.4</v>
       </c>
-      <c r="R59" s="25">
+      <c r="R64" s="38">
         <v>2995</v>
       </c>
-    </row>
-    <row r="60" spans="2:18" s="25" customFormat="1">
-      <c r="B60" s="25" t="s">
+      <c r="S64" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" s="38" customFormat="1">
+      <c r="B65" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C65" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D65" s="38">
         <v>5</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E65" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="F60" s="25" t="str">
+      <c r="F65" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G60" s="25">
-        <v>0</v>
-      </c>
-      <c r="H60" s="25">
+      <c r="G65" s="38">
+        <v>0</v>
+      </c>
+      <c r="H65" s="38">
         <v>24291</v>
       </c>
-      <c r="I60" s="25">
+      <c r="I65" s="38">
         <v>5837</v>
       </c>
-      <c r="J60" s="25">
+      <c r="J65" s="38">
         <v>3000</v>
       </c>
-      <c r="K60" s="25">
-        <f t="shared" si="12"/>
+      <c r="K65" s="38">
+        <f>J65/D65</f>
         <v>600</v>
       </c>
-      <c r="L60" s="26">
-        <f t="shared" si="9"/>
+      <c r="L65" s="39">
+        <f>I65/D65</f>
         <v>1167.4000000000001</v>
       </c>
-      <c r="M60" s="25">
+      <c r="M65" s="38">
         <v>33387</v>
       </c>
-      <c r="N60" s="25">
+      <c r="N65" s="38">
         <v>17</v>
       </c>
-      <c r="O60" s="25">
+      <c r="O65" s="38">
         <v>530</v>
       </c>
-      <c r="P60" s="25">
+      <c r="P65" s="38">
         <f t="shared" si="10"/>
         <v>9.0800068528353609E-2</v>
       </c>
-      <c r="Q60" s="26">
-        <f t="shared" si="11"/>
+      <c r="Q65" s="39">
+        <f>O65/D65</f>
         <v>106</v>
       </c>
-      <c r="R60" s="25">
+      <c r="R65" s="38">
         <v>3034</v>
       </c>
     </row>
-    <row r="61" spans="2:18" s="25" customFormat="1">
-      <c r="B61" s="25" t="s">
+    <row r="66" spans="2:18" s="38" customFormat="1">
+      <c r="B66" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C66" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D66" s="38">
         <v>5</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E66" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="F61" s="25" t="str">
+      <c r="F66" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G61" s="25">
-        <v>0</v>
-      </c>
-      <c r="H61" s="25">
+      <c r="G66" s="38">
+        <v>0</v>
+      </c>
+      <c r="H66" s="38">
         <v>24401</v>
       </c>
-      <c r="I61" s="25">
+      <c r="I66" s="38">
         <v>8309</v>
       </c>
-      <c r="J61" s="25">
+      <c r="J66" s="38">
         <v>3000</v>
       </c>
-      <c r="K61" s="25">
-        <f t="shared" si="12"/>
+      <c r="K66" s="38">
+        <f>J66/D66</f>
         <v>600</v>
       </c>
-      <c r="L61" s="26">
-        <f t="shared" si="9"/>
+      <c r="L66" s="39">
+        <f>I66/D66</f>
         <v>1661.8</v>
       </c>
-      <c r="M61" s="25">
+      <c r="M66" s="38">
         <v>37088</v>
       </c>
-      <c r="N61" s="25">
+      <c r="N66" s="38">
         <v>22</v>
       </c>
-      <c r="O61" s="25">
+      <c r="O66" s="38">
         <v>714</v>
       </c>
-      <c r="P61" s="25">
+      <c r="P66" s="38">
         <f t="shared" si="10"/>
         <v>8.5930918281381635E-2</v>
       </c>
-      <c r="Q61" s="26">
-        <f t="shared" si="11"/>
+      <c r="Q66" s="39">
+        <f>O66/D66</f>
         <v>142.80000000000001</v>
       </c>
-      <c r="R61" s="25">
+      <c r="R66" s="38">
         <v>3187</v>
       </c>
     </row>
-    <row r="62" spans="2:18" s="25" customFormat="1">
-      <c r="B62" s="25" t="s">
+    <row r="67" spans="2:18" s="38" customFormat="1">
+      <c r="B67" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C67" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D67" s="38">
         <v>5</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E67" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="F62" s="25" t="str">
+      <c r="F67" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G62" s="25">
-        <v>0</v>
-      </c>
-      <c r="H62" s="25">
+      <c r="G67" s="38">
+        <v>0</v>
+      </c>
+      <c r="H67" s="38">
         <v>24524</v>
       </c>
-      <c r="I62" s="25">
+      <c r="I67" s="38">
         <v>7925</v>
       </c>
-      <c r="J62" s="25">
+      <c r="J67" s="38">
         <v>3000</v>
       </c>
-      <c r="K62" s="25">
-        <f t="shared" si="12"/>
+      <c r="K67" s="38">
+        <f>J67/D67</f>
         <v>600</v>
       </c>
-      <c r="L62" s="26">
-        <f t="shared" si="9"/>
+      <c r="L67" s="39">
+        <f>I67/D67</f>
         <v>1585</v>
       </c>
-      <c r="M62" s="25">
+      <c r="M67" s="38">
         <v>37071</v>
       </c>
-      <c r="N62" s="25">
+      <c r="N67" s="38">
         <v>21</v>
       </c>
-      <c r="O62" s="25">
+      <c r="O67" s="38">
         <v>681</v>
       </c>
-      <c r="P62" s="25">
+      <c r="P67" s="38">
         <f t="shared" si="10"/>
         <v>8.5930599369085175E-2</v>
       </c>
-      <c r="Q62" s="26">
-        <f t="shared" si="11"/>
+      <c r="Q67" s="39">
+        <f>O67/D67</f>
         <v>136.19999999999999</v>
       </c>
-      <c r="R62" s="25">
+      <c r="R67" s="38">
         <v>3187</v>
       </c>
     </row>
-    <row r="63" spans="2:18" s="25" customFormat="1">
-      <c r="B63" s="25" t="s">
+    <row r="68" spans="2:18" s="38" customFormat="1">
+      <c r="B68" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C68" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D68" s="38">
         <v>5</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E68" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="F63" s="25" t="str">
+      <c r="F68" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G63" s="25">
-        <v>0</v>
-      </c>
-      <c r="H63" s="25">
+      <c r="G68" s="38">
+        <v>0</v>
+      </c>
+      <c r="H68" s="38">
         <v>24408</v>
       </c>
-      <c r="I63" s="25">
+      <c r="I68" s="38">
         <v>5767</v>
       </c>
-      <c r="J63" s="25">
+      <c r="J68" s="38">
         <v>3000</v>
       </c>
-      <c r="K63" s="25">
-        <f t="shared" si="12"/>
+      <c r="K68" s="38">
+        <f>J68/D68</f>
         <v>600</v>
       </c>
-      <c r="L63" s="26">
-        <f t="shared" si="9"/>
+      <c r="L68" s="39">
+        <f>I68/D68</f>
         <v>1153.4000000000001</v>
       </c>
-      <c r="M63" s="25">
+      <c r="M68" s="38">
         <v>33316</v>
       </c>
-      <c r="N63" s="25">
+      <c r="N68" s="38">
         <v>17</v>
       </c>
-      <c r="O63" s="25">
+      <c r="O68" s="38">
         <v>525</v>
       </c>
-      <c r="P63" s="25">
+      <c r="P68" s="38">
         <f t="shared" si="10"/>
         <v>9.1035200277440609E-2</v>
       </c>
-      <c r="Q63" s="26">
-        <f t="shared" si="11"/>
+      <c r="Q68" s="39">
+        <f>O68/D68</f>
         <v>105</v>
       </c>
-      <c r="R63" s="25">
+      <c r="R68" s="38">
         <v>3034</v>
       </c>
     </row>
-    <row r="64" spans="2:18" s="25" customFormat="1">
-      <c r="B64" s="25" t="s">
+    <row r="69" spans="2:18" s="38" customFormat="1">
+      <c r="B69" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C69" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D69" s="38">
         <v>3</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E69" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="F64" s="25" t="str">
+      <c r="F69" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G64" s="25">
-        <v>0</v>
-      </c>
-      <c r="H64" s="25">
+      <c r="G69" s="38">
+        <v>0</v>
+      </c>
+      <c r="H69" s="38">
         <v>24793</v>
       </c>
-      <c r="I64" s="25">
+      <c r="I69" s="38">
         <v>5841</v>
       </c>
-      <c r="J64" s="25">
+      <c r="J69" s="38">
         <v>3000</v>
       </c>
-      <c r="K64" s="25">
-        <f t="shared" si="12"/>
+      <c r="K69" s="38">
+        <f>J69/D69</f>
         <v>1000</v>
       </c>
-      <c r="L64" s="26">
-        <f t="shared" si="9"/>
+      <c r="L69" s="39">
+        <f>I69/D69</f>
         <v>1947</v>
       </c>
-      <c r="M64" s="25">
+      <c r="M69" s="38">
         <v>38487</v>
       </c>
-      <c r="N64" s="25">
+      <c r="N69" s="38">
         <v>15</v>
       </c>
-      <c r="O64" s="25">
+      <c r="O69" s="38">
         <v>490</v>
       </c>
-      <c r="P64" s="25">
+      <c r="P69" s="38">
         <f t="shared" si="10"/>
         <v>8.3889744906694055E-2</v>
       </c>
-      <c r="Q64" s="26">
-        <f t="shared" si="11"/>
+      <c r="Q69" s="39">
+        <f>O69/D69</f>
         <v>163.33333333333334</v>
       </c>
-      <c r="R64" s="25">
+      <c r="R69" s="38">
         <v>3226</v>
       </c>
     </row>
-    <row r="65" spans="2:18" s="25" customFormat="1">
-      <c r="B65" s="25" t="s">
+    <row r="70" spans="2:18" s="38" customFormat="1">
+      <c r="B70" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C70" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D70" s="38">
         <v>3</v>
       </c>
-      <c r="E65" s="25" t="s">
+      <c r="E70" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="F65" s="25" t="str">
+      <c r="F70" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G65" s="25">
-        <v>0</v>
-      </c>
-      <c r="H65" s="25">
+      <c r="G70" s="38">
+        <v>0</v>
+      </c>
+      <c r="H70" s="38">
         <v>24811</v>
       </c>
-      <c r="I65" s="25">
+      <c r="I70" s="38">
         <v>5730</v>
       </c>
-      <c r="J65" s="25">
+      <c r="J70" s="38">
         <v>3000</v>
       </c>
-      <c r="K65" s="25">
-        <f t="shared" si="12"/>
+      <c r="K70" s="38">
+        <f>J70/D70</f>
         <v>1000</v>
       </c>
-      <c r="L65" s="26">
-        <f t="shared" si="9"/>
+      <c r="L70" s="39">
+        <f>I70/D70</f>
         <v>1910</v>
       </c>
-      <c r="M65" s="25">
+      <c r="M70" s="38">
         <v>39655</v>
       </c>
-      <c r="N65" s="25">
+      <c r="N70" s="38">
         <v>14</v>
       </c>
-      <c r="O65" s="25">
+      <c r="O70" s="38">
         <v>472</v>
       </c>
-      <c r="P65" s="25">
+      <c r="P70" s="38">
         <f t="shared" si="10"/>
         <v>8.2373472949389182E-2</v>
       </c>
-      <c r="Q65" s="26">
-        <f t="shared" si="11"/>
+      <c r="Q70" s="39">
+        <f>O70/D70</f>
         <v>157.33333333333334</v>
       </c>
-      <c r="R65" s="25">
+      <c r="R70" s="38">
         <v>3264</v>
       </c>
     </row>
-    <row r="66" spans="2:18" s="25" customFormat="1">
-      <c r="B66" s="25" t="s">
+    <row r="71" spans="2:18" s="38" customFormat="1">
+      <c r="B71" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C71" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D71" s="38">
         <v>3</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E71" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="F66" s="25" t="str">
+      <c r="F71" s="38" t="str">
         <f t="shared" si="7"/>
         <v>20180818</v>
       </c>
-      <c r="G66" s="25">
-        <v>0</v>
-      </c>
-      <c r="H66" s="25">
+      <c r="G71" s="38">
+        <v>0</v>
+      </c>
+      <c r="H71" s="38">
         <v>24822</v>
       </c>
-      <c r="I66" s="25">
+      <c r="I71" s="38">
         <v>5980</v>
       </c>
-      <c r="J66" s="25">
+      <c r="J71" s="38">
         <v>3000</v>
       </c>
-      <c r="K66" s="25">
-        <f t="shared" si="12"/>
+      <c r="K71" s="38">
+        <f>J71/D71</f>
         <v>1000</v>
       </c>
-      <c r="L66" s="26">
-        <f t="shared" si="9"/>
+      <c r="L71" s="39">
+        <f>I71/D71</f>
         <v>1993.3333333333333</v>
       </c>
-      <c r="M66" s="25">
+      <c r="M71" s="38">
         <v>34619</v>
       </c>
-      <c r="N66" s="25">
+      <c r="N71" s="38">
         <v>17</v>
       </c>
-      <c r="O66" s="25">
+      <c r="O71" s="38">
         <v>531</v>
       </c>
-      <c r="P66" s="25">
+      <c r="P71" s="38">
         <f t="shared" si="10"/>
         <v>8.8795986622073581E-2</v>
       </c>
-      <c r="Q66" s="26">
-        <f t="shared" si="11"/>
+      <c r="Q71" s="39">
+        <f>O71/D71</f>
         <v>177</v>
       </c>
-      <c r="R66" s="25">
+      <c r="R71" s="38">
         <v>3072</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" s="5" customFormat="1">
-      <c r="L67" s="6"/>
-    </row>
-    <row r="68" spans="2:18">
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="2:18">
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="2:18">
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="2:18">
-      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="2:18">
       <c r="B72" t="s">
@@ -18075,1395 +19785,1395 @@
       </c>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="2:18" s="38" customFormat="1">
-      <c r="B73" s="38" t="s">
+    <row r="73" spans="2:18" s="36" customFormat="1">
+      <c r="B73" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D73" s="38">
+      <c r="D73" s="36">
         <v>1</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F73" s="38" t="str">
+      <c r="F73" s="36" t="str">
         <f t="shared" ref="F73:F96" si="13">LEFT(E73, 8)</f>
         <v>20180813</v>
       </c>
-      <c r="G73" s="38">
-        <v>0</v>
-      </c>
-      <c r="H73" s="38">
+      <c r="G73" s="36">
+        <v>0</v>
+      </c>
+      <c r="H73" s="36">
         <v>3135</v>
       </c>
-      <c r="I73" s="38">
+      <c r="I73" s="36">
         <v>1742</v>
       </c>
-      <c r="J73" s="38">
+      <c r="J73" s="36">
         <v>400</v>
       </c>
-      <c r="K73" s="38">
+      <c r="K73" s="36">
         <f>J73/D73</f>
         <v>400</v>
       </c>
-      <c r="L73" s="39">
-        <f t="shared" ref="L73:L96" si="14">I73/D73</f>
+      <c r="L73" s="37">
+        <f>I73/D73</f>
         <v>1742</v>
       </c>
-      <c r="M73" s="38">
+      <c r="M73" s="36">
         <v>1605</v>
       </c>
-      <c r="N73" s="38">
+      <c r="N73" s="36">
         <v>109</v>
       </c>
-      <c r="O73" s="38">
+      <c r="O73" s="36">
         <v>293</v>
       </c>
-      <c r="P73" s="38">
-        <f t="shared" ref="P73:P96" si="15">O73/I73</f>
+      <c r="P73" s="36">
+        <f t="shared" ref="P73:P96" si="14">O73/I73</f>
         <v>0.16819747416762343</v>
       </c>
-      <c r="Q73" s="39">
-        <f t="shared" ref="Q73:Q96" si="16">O73/D73</f>
+      <c r="Q73" s="37">
+        <f>O73/D73</f>
         <v>293</v>
       </c>
-      <c r="R73" s="38">
+      <c r="R73" s="36">
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="2:18" s="38" customFormat="1">
-      <c r="B74" s="38" t="s">
+    <row r="74" spans="2:18" s="36" customFormat="1">
+      <c r="B74" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D74" s="38">
+      <c r="D74" s="36">
         <v>1</v>
       </c>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="38" t="str">
+      <c r="F74" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
-      <c r="G74" s="38">
-        <v>0</v>
-      </c>
-      <c r="H74" s="38">
+      <c r="G74" s="36">
+        <v>0</v>
+      </c>
+      <c r="H74" s="36">
         <v>2565</v>
       </c>
-      <c r="I74" s="38">
+      <c r="I74" s="36">
         <v>258</v>
       </c>
-      <c r="J74" s="38">
+      <c r="J74" s="36">
         <v>400</v>
       </c>
-      <c r="K74" s="38">
-        <f t="shared" ref="K74:K96" si="17">J74/D74</f>
+      <c r="K74" s="36">
+        <f>J74/D74</f>
         <v>400</v>
       </c>
-      <c r="L74" s="39">
+      <c r="L74" s="37">
+        <f>I74/D74</f>
+        <v>258</v>
+      </c>
+      <c r="M74" s="36">
+        <v>972</v>
+      </c>
+      <c r="N74" s="36">
+        <v>27</v>
+      </c>
+      <c r="O74" s="36">
+        <v>44</v>
+      </c>
+      <c r="P74" s="36">
         <f t="shared" si="14"/>
-        <v>258</v>
-      </c>
-      <c r="M74" s="38">
-        <v>972</v>
-      </c>
-      <c r="N74" s="38">
-        <v>27</v>
-      </c>
-      <c r="O74" s="38">
+        <v>0.17054263565891473</v>
+      </c>
+      <c r="Q74" s="37">
+        <f>O74/D74</f>
         <v>44</v>
       </c>
-      <c r="P74" s="38">
-        <f t="shared" si="15"/>
-        <v>0.17054263565891473</v>
-      </c>
-      <c r="Q74" s="39">
-        <f t="shared" si="16"/>
-        <v>44</v>
-      </c>
-      <c r="R74" s="38">
+      <c r="R74" s="36">
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="2:18" s="38" customFormat="1">
-      <c r="B75" s="38" t="s">
+    <row r="75" spans="2:18" s="36" customFormat="1">
+      <c r="B75" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="38">
+      <c r="D75" s="36">
         <v>1</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="38" t="str">
+      <c r="F75" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
-      <c r="G75" s="38">
-        <v>0</v>
-      </c>
-      <c r="H75" s="38">
+      <c r="G75" s="36">
+        <v>0</v>
+      </c>
+      <c r="H75" s="36">
         <v>2567</v>
       </c>
-      <c r="I75" s="38">
+      <c r="I75" s="36">
         <v>267</v>
       </c>
-      <c r="J75" s="38">
+      <c r="J75" s="36">
         <v>400</v>
       </c>
-      <c r="K75" s="38">
-        <f t="shared" si="17"/>
+      <c r="K75" s="36">
+        <f>J75/D75</f>
         <v>400</v>
       </c>
-      <c r="L75" s="39">
+      <c r="L75" s="37">
+        <f>I75/D75</f>
+        <v>267</v>
+      </c>
+      <c r="M75" s="36">
+        <v>976</v>
+      </c>
+      <c r="N75" s="36">
+        <v>27</v>
+      </c>
+      <c r="O75" s="36">
+        <v>47</v>
+      </c>
+      <c r="P75" s="36">
         <f t="shared" si="14"/>
-        <v>267</v>
-      </c>
-      <c r="M75" s="38">
-        <v>976</v>
-      </c>
-      <c r="N75" s="38">
-        <v>27</v>
-      </c>
-      <c r="O75" s="38">
+        <v>0.17602996254681649</v>
+      </c>
+      <c r="Q75" s="37">
+        <f>O75/D75</f>
         <v>47</v>
       </c>
-      <c r="P75" s="38">
-        <f t="shared" si="15"/>
-        <v>0.17602996254681649</v>
-      </c>
-      <c r="Q75" s="39">
-        <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="R75" s="38">
+      <c r="R75" s="36">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="2:18" s="38" customFormat="1">
-      <c r="B76" s="38" t="s">
+    <row r="76" spans="2:18" s="36" customFormat="1">
+      <c r="B76" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="38">
+      <c r="D76" s="36">
         <v>1</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="F76" s="38" t="str">
+      <c r="F76" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G76" s="38">
-        <v>0</v>
-      </c>
-      <c r="H76" s="38">
+      <c r="G76" s="36">
+        <v>0</v>
+      </c>
+      <c r="H76" s="36">
         <v>2551</v>
       </c>
-      <c r="I76" s="38">
+      <c r="I76" s="36">
         <v>255</v>
       </c>
-      <c r="J76" s="38">
+      <c r="J76" s="36">
         <v>400</v>
       </c>
-      <c r="K76" s="38">
-        <f t="shared" si="17"/>
+      <c r="K76" s="36">
+        <f>J76/D76</f>
         <v>400</v>
       </c>
-      <c r="L76" s="39">
+      <c r="L76" s="37">
+        <f>I76/D76</f>
+        <v>255</v>
+      </c>
+      <c r="M76" s="36">
+        <v>954</v>
+      </c>
+      <c r="N76" s="36">
+        <v>27</v>
+      </c>
+      <c r="O76" s="36">
+        <v>43</v>
+      </c>
+      <c r="P76" s="36">
         <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="M76" s="38">
-        <v>954</v>
-      </c>
-      <c r="N76" s="38">
-        <v>27</v>
-      </c>
-      <c r="O76" s="38">
+        <v>0.16862745098039217</v>
+      </c>
+      <c r="Q76" s="37">
+        <f>O76/D76</f>
         <v>43</v>
       </c>
-      <c r="P76" s="38">
-        <f t="shared" si="15"/>
-        <v>0.16862745098039217</v>
-      </c>
-      <c r="Q76" s="39">
-        <f t="shared" si="16"/>
-        <v>43</v>
-      </c>
-      <c r="R76" s="38">
+      <c r="R76" s="36">
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="2:18" s="38" customFormat="1">
-      <c r="B77" s="38" t="s">
+    <row r="77" spans="2:18" s="36" customFormat="1">
+      <c r="B77" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D77" s="38">
+      <c r="D77" s="36">
         <v>1</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="38" t="str">
+      <c r="F77" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G77" s="38">
-        <v>0</v>
-      </c>
-      <c r="H77" s="38">
+      <c r="G77" s="36">
+        <v>0</v>
+      </c>
+      <c r="H77" s="36">
         <v>2558</v>
       </c>
-      <c r="I77" s="38">
+      <c r="I77" s="36">
         <v>150</v>
       </c>
-      <c r="J77" s="38">
+      <c r="J77" s="36">
         <v>400</v>
       </c>
-      <c r="K77" s="38">
-        <f t="shared" si="17"/>
+      <c r="K77" s="36">
+        <f>J77/D77</f>
         <v>400</v>
       </c>
-      <c r="L77" s="39">
+      <c r="L77" s="37">
+        <f>I77/D77</f>
+        <v>150</v>
+      </c>
+      <c r="M77" s="36">
+        <v>1018</v>
+      </c>
+      <c r="N77" s="36">
+        <v>15</v>
+      </c>
+      <c r="O77" s="36">
+        <v>26</v>
+      </c>
+      <c r="P77" s="36">
         <f t="shared" si="14"/>
-        <v>150</v>
-      </c>
-      <c r="M77" s="38">
-        <v>1018</v>
-      </c>
-      <c r="N77" s="38">
-        <v>15</v>
-      </c>
-      <c r="O77" s="38">
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="Q77" s="37">
+        <f>O77/D77</f>
         <v>26</v>
       </c>
-      <c r="P77" s="38">
-        <f t="shared" si="15"/>
-        <v>0.17333333333333334</v>
-      </c>
-      <c r="Q77" s="39">
-        <f t="shared" si="16"/>
-        <v>26</v>
-      </c>
-      <c r="R77" s="38">
+      <c r="R77" s="36">
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="2:18" s="38" customFormat="1">
-      <c r="B78" s="38" t="s">
+    <row r="78" spans="2:18" s="36" customFormat="1">
+      <c r="B78" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78" s="36">
         <v>1</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="F78" s="38" t="str">
+      <c r="F78" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G78" s="38">
-        <v>0</v>
-      </c>
-      <c r="H78" s="38">
+      <c r="G78" s="36">
+        <v>0</v>
+      </c>
+      <c r="H78" s="36">
         <v>2560</v>
       </c>
-      <c r="I78" s="38">
+      <c r="I78" s="36">
         <v>242</v>
       </c>
-      <c r="J78" s="38">
+      <c r="J78" s="36">
         <v>400</v>
       </c>
-      <c r="K78" s="38">
-        <f t="shared" si="17"/>
+      <c r="K78" s="36">
+        <f>J78/D78</f>
         <v>400</v>
       </c>
-      <c r="L78" s="39">
+      <c r="L78" s="37">
+        <f>I78/D78</f>
+        <v>242</v>
+      </c>
+      <c r="M78" s="36">
+        <v>893</v>
+      </c>
+      <c r="N78" s="36">
+        <v>27</v>
+      </c>
+      <c r="O78" s="36">
+        <v>44</v>
+      </c>
+      <c r="P78" s="36">
         <f t="shared" si="14"/>
-        <v>242</v>
-      </c>
-      <c r="M78" s="38">
-        <v>893</v>
-      </c>
-      <c r="N78" s="38">
-        <v>27</v>
-      </c>
-      <c r="O78" s="38">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="Q78" s="37">
+        <f>O78/D78</f>
         <v>44</v>
       </c>
-      <c r="P78" s="38">
-        <f t="shared" si="15"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="Q78" s="39">
-        <f t="shared" si="16"/>
-        <v>44</v>
-      </c>
-      <c r="R78" s="38">
+      <c r="R78" s="36">
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="2:18" s="38" customFormat="1">
-      <c r="B79" s="38" t="s">
+    <row r="79" spans="2:18" s="36" customFormat="1">
+      <c r="B79" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D79" s="38">
+      <c r="D79" s="36">
         <v>1</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="F79" s="38" t="str">
+      <c r="F79" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
-      <c r="G79" s="38">
-        <v>0</v>
-      </c>
-      <c r="H79" s="38">
+      <c r="G79" s="36">
+        <v>0</v>
+      </c>
+      <c r="H79" s="36">
         <v>16498</v>
       </c>
-      <c r="I79" s="38">
+      <c r="I79" s="36">
         <v>3904</v>
       </c>
-      <c r="J79" s="38">
+      <c r="J79" s="36">
         <v>2000</v>
       </c>
-      <c r="K79" s="38">
-        <f t="shared" si="17"/>
+      <c r="K79" s="36">
+        <f>J79/D79</f>
         <v>2000</v>
       </c>
-      <c r="L79" s="39">
+      <c r="L79" s="37">
+        <f>I79/D79</f>
+        <v>3904</v>
+      </c>
+      <c r="M79" s="36">
+        <v>23889</v>
+      </c>
+      <c r="N79" s="36">
+        <v>16</v>
+      </c>
+      <c r="O79" s="36">
+        <v>339</v>
+      </c>
+      <c r="P79" s="36">
         <f t="shared" si="14"/>
-        <v>3904</v>
-      </c>
-      <c r="M79" s="38">
-        <v>23889</v>
-      </c>
-      <c r="N79" s="38">
-        <v>16</v>
-      </c>
-      <c r="O79" s="38">
+        <v>8.6834016393442626E-2</v>
+      </c>
+      <c r="Q79" s="37">
+        <f>O79/D79</f>
         <v>339</v>
       </c>
-      <c r="P79" s="38">
-        <f t="shared" si="15"/>
-        <v>8.6834016393442626E-2</v>
-      </c>
-      <c r="Q79" s="39">
-        <f t="shared" si="16"/>
-        <v>339</v>
-      </c>
-      <c r="R79" s="38">
+      <c r="R79" s="36">
         <v>2074</v>
       </c>
     </row>
-    <row r="80" spans="2:18" s="38" customFormat="1">
-      <c r="B80" s="38" t="s">
+    <row r="80" spans="2:18" s="36" customFormat="1">
+      <c r="B80" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="36">
         <v>1</v>
       </c>
-      <c r="E80" s="38" t="s">
+      <c r="E80" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="F80" s="38" t="str">
+      <c r="F80" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
-      <c r="G80" s="38">
-        <v>0</v>
-      </c>
-      <c r="H80" s="38">
+      <c r="G80" s="36">
+        <v>0</v>
+      </c>
+      <c r="H80" s="36">
         <v>16518</v>
       </c>
-      <c r="I80" s="38">
+      <c r="I80" s="36">
         <v>3496</v>
       </c>
-      <c r="J80" s="38">
+      <c r="J80" s="36">
         <v>2000</v>
       </c>
-      <c r="K80" s="38">
-        <f t="shared" si="17"/>
+      <c r="K80" s="36">
+        <f>J80/D80</f>
         <v>2000</v>
       </c>
-      <c r="L80" s="39">
+      <c r="L80" s="37">
+        <f>I80/D80</f>
+        <v>3496</v>
+      </c>
+      <c r="M80" s="36">
+        <v>24308</v>
+      </c>
+      <c r="N80" s="36">
+        <v>14</v>
+      </c>
+      <c r="O80" s="36">
+        <v>303</v>
+      </c>
+      <c r="P80" s="36">
         <f t="shared" si="14"/>
-        <v>3496</v>
-      </c>
-      <c r="M80" s="38">
-        <v>24308</v>
-      </c>
-      <c r="N80" s="38">
-        <v>14</v>
-      </c>
-      <c r="O80" s="38">
+        <v>8.6670480549199083E-2</v>
+      </c>
+      <c r="Q80" s="37">
+        <f>O80/D80</f>
         <v>303</v>
       </c>
-      <c r="P80" s="38">
-        <f t="shared" si="15"/>
-        <v>8.6670480549199083E-2</v>
-      </c>
-      <c r="Q80" s="39">
-        <f t="shared" si="16"/>
-        <v>303</v>
-      </c>
-      <c r="R80" s="38">
+      <c r="R80" s="36">
         <v>2099</v>
       </c>
     </row>
-    <row r="81" spans="2:18" s="38" customFormat="1">
-      <c r="B81" s="38" t="s">
+    <row r="81" spans="2:18" s="36" customFormat="1">
+      <c r="B81" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D81" s="38">
+      <c r="D81" s="36">
         <v>1</v>
       </c>
-      <c r="E81" s="38" t="s">
+      <c r="E81" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="F81" s="38" t="str">
+      <c r="F81" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
-      <c r="G81" s="38">
-        <v>0</v>
-      </c>
-      <c r="H81" s="38">
+      <c r="G81" s="36">
+        <v>0</v>
+      </c>
+      <c r="H81" s="36">
         <v>17272</v>
       </c>
-      <c r="I81" s="38">
+      <c r="I81" s="36">
         <v>3445</v>
       </c>
-      <c r="J81" s="38">
+      <c r="J81" s="36">
         <v>2000</v>
       </c>
-      <c r="K81" s="38">
-        <f t="shared" si="17"/>
+      <c r="K81" s="36">
+        <f>J81/D81</f>
         <v>2000</v>
       </c>
-      <c r="L81" s="39">
+      <c r="L81" s="37">
+        <f>I81/D81</f>
+        <v>3445</v>
+      </c>
+      <c r="M81" s="36">
+        <v>35363</v>
+      </c>
+      <c r="N81" s="36">
+        <v>10</v>
+      </c>
+      <c r="O81" s="36">
+        <v>250</v>
+      </c>
+      <c r="P81" s="36">
         <f t="shared" si="14"/>
-        <v>3445</v>
-      </c>
-      <c r="M81" s="38">
-        <v>35363</v>
-      </c>
-      <c r="N81" s="38">
-        <v>10</v>
-      </c>
-      <c r="O81" s="38">
+        <v>7.2568940493468792E-2</v>
+      </c>
+      <c r="Q81" s="37">
+        <f>O81/D81</f>
         <v>250</v>
       </c>
-      <c r="P81" s="38">
-        <f t="shared" si="15"/>
-        <v>7.2568940493468792E-2</v>
-      </c>
-      <c r="Q81" s="39">
-        <f t="shared" si="16"/>
-        <v>250</v>
-      </c>
-      <c r="R81" s="38">
+      <c r="R81" s="36">
         <v>2572</v>
       </c>
     </row>
-    <row r="82" spans="2:18" s="38" customFormat="1">
-      <c r="B82" s="38" t="s">
+    <row r="82" spans="2:18" s="36" customFormat="1">
+      <c r="B82" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D82" s="38">
+      <c r="D82" s="36">
         <v>1</v>
       </c>
-      <c r="E82" s="38" t="s">
+      <c r="E82" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="38" t="str">
+      <c r="F82" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
-      <c r="G82" s="38">
-        <v>0</v>
-      </c>
-      <c r="H82" s="38">
+      <c r="G82" s="36">
+        <v>0</v>
+      </c>
+      <c r="H82" s="36">
         <v>36711</v>
       </c>
-      <c r="I82" s="38">
+      <c r="I82" s="36">
         <v>7585</v>
       </c>
-      <c r="J82" s="38">
+      <c r="J82" s="36">
         <v>4000</v>
       </c>
-      <c r="K82" s="38">
-        <f t="shared" si="17"/>
+      <c r="K82" s="36">
+        <f>J82/D82</f>
         <v>4000</v>
       </c>
-      <c r="L82" s="39">
+      <c r="L82" s="37">
+        <f>I82/D82</f>
+        <v>7585</v>
+      </c>
+      <c r="M82" s="36">
+        <v>53502</v>
+      </c>
+      <c r="N82" s="36">
+        <v>14</v>
+      </c>
+      <c r="O82" s="36">
+        <v>661</v>
+      </c>
+      <c r="P82" s="36">
         <f t="shared" si="14"/>
-        <v>7585</v>
-      </c>
-      <c r="M82" s="38">
-        <v>53502</v>
-      </c>
-      <c r="N82" s="38">
-        <v>14</v>
-      </c>
-      <c r="O82" s="38">
+        <v>8.7145682267633487E-2</v>
+      </c>
+      <c r="Q82" s="37">
+        <f>O82/D82</f>
         <v>661</v>
       </c>
-      <c r="P82" s="38">
-        <f t="shared" si="15"/>
-        <v>8.7145682267633487E-2</v>
-      </c>
-      <c r="Q82" s="39">
-        <f t="shared" si="16"/>
-        <v>661</v>
-      </c>
-      <c r="R82" s="38">
+      <c r="R82" s="36">
         <v>4666</v>
       </c>
     </row>
-    <row r="83" spans="2:18" s="38" customFormat="1">
-      <c r="B83" s="38" t="s">
+    <row r="83" spans="2:18" s="36" customFormat="1">
+      <c r="B83" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D83" s="38">
+      <c r="D83" s="36">
         <v>1</v>
       </c>
-      <c r="E83" s="38" t="s">
+      <c r="E83" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F83" s="38" t="str">
+      <c r="F83" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180813</v>
       </c>
-      <c r="G83" s="38">
-        <v>0</v>
-      </c>
-      <c r="H83" s="38">
+      <c r="G83" s="36">
+        <v>0</v>
+      </c>
+      <c r="H83" s="36">
         <v>36717</v>
       </c>
-      <c r="I83" s="38">
+      <c r="I83" s="36">
         <v>7269</v>
       </c>
-      <c r="J83" s="38">
+      <c r="J83" s="36">
         <v>4000</v>
       </c>
-      <c r="K83" s="38">
-        <f t="shared" si="17"/>
+      <c r="K83" s="36">
+        <f>J83/D83</f>
         <v>4000</v>
       </c>
-      <c r="L83" s="39">
+      <c r="L83" s="37">
+        <f>I83/D83</f>
+        <v>7269</v>
+      </c>
+      <c r="M83" s="36">
+        <v>52664</v>
+      </c>
+      <c r="N83" s="36">
+        <v>14</v>
+      </c>
+      <c r="O83" s="36">
+        <v>644</v>
+      </c>
+      <c r="P83" s="36">
         <f t="shared" si="14"/>
-        <v>7269</v>
-      </c>
-      <c r="M83" s="38">
-        <v>52664</v>
-      </c>
-      <c r="N83" s="38">
-        <v>14</v>
-      </c>
-      <c r="O83" s="38">
+        <v>8.8595405145136877E-2</v>
+      </c>
+      <c r="Q83" s="37">
+        <f>O83/D83</f>
         <v>644</v>
       </c>
-      <c r="P83" s="38">
-        <f t="shared" si="15"/>
-        <v>8.8595405145136877E-2</v>
-      </c>
-      <c r="Q83" s="39">
-        <f t="shared" si="16"/>
-        <v>644</v>
-      </c>
-      <c r="R83" s="38">
+      <c r="R83" s="36">
         <v>4666</v>
       </c>
     </row>
-    <row r="84" spans="2:18" s="38" customFormat="1">
-      <c r="B84" s="38" t="s">
+    <row r="84" spans="2:18" s="36" customFormat="1">
+      <c r="B84" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D84" s="38">
+      <c r="D84" s="36">
         <v>1</v>
       </c>
-      <c r="E84" s="38" t="s">
+      <c r="E84" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F84" s="38" t="str">
+      <c r="F84" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G84" s="38">
-        <v>0</v>
-      </c>
-      <c r="H84" s="38">
+      <c r="G84" s="36">
+        <v>0</v>
+      </c>
+      <c r="H84" s="36">
         <v>36829</v>
       </c>
-      <c r="I84" s="38">
+      <c r="I84" s="36">
         <v>7396</v>
       </c>
-      <c r="J84" s="38">
+      <c r="J84" s="36">
         <v>4000</v>
       </c>
-      <c r="K84" s="38">
-        <f t="shared" si="17"/>
+      <c r="K84" s="36">
+        <f>J84/D84</f>
         <v>4000</v>
       </c>
-      <c r="L84" s="39">
+      <c r="L84" s="37">
+        <f>I84/D84</f>
+        <v>7396</v>
+      </c>
+      <c r="M84" s="36">
+        <v>58227</v>
+      </c>
+      <c r="N84" s="36">
+        <v>13</v>
+      </c>
+      <c r="O84" s="36">
+        <v>621</v>
+      </c>
+      <c r="P84" s="36">
         <f t="shared" si="14"/>
-        <v>7396</v>
-      </c>
-      <c r="M84" s="38">
-        <v>58227</v>
-      </c>
-      <c r="N84" s="38">
-        <v>13</v>
-      </c>
-      <c r="O84" s="38">
+        <v>8.3964305029745806E-2</v>
+      </c>
+      <c r="Q84" s="37">
+        <f>O84/D84</f>
         <v>621</v>
       </c>
-      <c r="P84" s="38">
-        <f t="shared" si="15"/>
-        <v>8.3964305029745806E-2</v>
-      </c>
-      <c r="Q84" s="39">
-        <f t="shared" si="16"/>
-        <v>621</v>
-      </c>
-      <c r="R84" s="38">
+      <c r="R84" s="36">
         <v>4896</v>
       </c>
     </row>
-    <row r="85" spans="2:18" s="38" customFormat="1">
-      <c r="B85" s="38" t="s">
+    <row r="85" spans="2:18" s="36" customFormat="1">
+      <c r="B85" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D85" s="38">
+      <c r="D85" s="36">
         <v>5</v>
       </c>
-      <c r="E85" s="38" t="s">
+      <c r="E85" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="F85" s="38" t="str">
+      <c r="F85" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G85" s="38">
-        <v>0</v>
-      </c>
-      <c r="H85" s="38">
+      <c r="G85" s="36">
+        <v>0</v>
+      </c>
+      <c r="H85" s="36">
         <v>23893</v>
       </c>
-      <c r="I85" s="38">
+      <c r="I85" s="36">
         <v>5864</v>
       </c>
-      <c r="J85" s="38">
+      <c r="J85" s="36">
         <v>3000</v>
       </c>
-      <c r="K85" s="38">
-        <f t="shared" si="17"/>
+      <c r="K85" s="36">
+        <f>J85/D85</f>
         <v>600</v>
       </c>
-      <c r="L85" s="39">
+      <c r="L85" s="37">
+        <f>I85/D85</f>
+        <v>1172.8</v>
+      </c>
+      <c r="M85" s="36">
+        <v>29547</v>
+      </c>
+      <c r="N85" s="36">
+        <v>20</v>
+      </c>
+      <c r="O85" s="36">
+        <v>555</v>
+      </c>
+      <c r="P85" s="36">
         <f t="shared" si="14"/>
-        <v>1172.8</v>
-      </c>
-      <c r="M85" s="38">
-        <v>29547</v>
-      </c>
-      <c r="N85" s="38">
-        <v>20</v>
-      </c>
-      <c r="O85" s="38">
-        <v>555</v>
-      </c>
-      <c r="P85" s="38">
-        <f t="shared" si="15"/>
         <v>9.464529331514325E-2</v>
       </c>
-      <c r="Q85" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q85" s="37">
+        <f>O85/D85</f>
         <v>111</v>
       </c>
-      <c r="R85" s="38">
+      <c r="R85" s="36">
         <v>2797</v>
       </c>
     </row>
-    <row r="86" spans="2:18" s="38" customFormat="1">
-      <c r="B86" s="38" t="s">
+    <row r="86" spans="2:18" s="36" customFormat="1">
+      <c r="B86" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D86" s="38">
+      <c r="D86" s="36">
         <v>5</v>
       </c>
-      <c r="E86" s="38" t="s">
+      <c r="E86" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="F86" s="38" t="str">
+      <c r="F86" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G86" s="38">
-        <v>0</v>
-      </c>
-      <c r="H86" s="38">
+      <c r="G86" s="36">
+        <v>0</v>
+      </c>
+      <c r="H86" s="36">
         <v>24253</v>
       </c>
-      <c r="I86" s="38">
+      <c r="I86" s="36">
         <v>6137</v>
       </c>
-      <c r="J86" s="38">
+      <c r="J86" s="36">
         <v>3000</v>
       </c>
-      <c r="K86" s="38">
-        <f t="shared" si="17"/>
+      <c r="K86" s="36">
+        <f>J86/D86</f>
         <v>600</v>
       </c>
-      <c r="L86" s="39">
+      <c r="L86" s="37">
+        <f>I86/D86</f>
+        <v>1227.4000000000001</v>
+      </c>
+      <c r="M86" s="36">
+        <v>33525</v>
+      </c>
+      <c r="N86" s="36">
+        <v>18</v>
+      </c>
+      <c r="O86" s="36">
+        <v>562</v>
+      </c>
+      <c r="P86" s="36">
         <f t="shared" si="14"/>
-        <v>1227.4000000000001</v>
-      </c>
-      <c r="M86" s="38">
-        <v>33525</v>
-      </c>
-      <c r="N86" s="38">
-        <v>18</v>
-      </c>
-      <c r="O86" s="38">
-        <v>562</v>
-      </c>
-      <c r="P86" s="38">
-        <f t="shared" si="15"/>
         <v>9.1575688447124007E-2</v>
       </c>
-      <c r="Q86" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q86" s="37">
+        <f>O86/D86</f>
         <v>112.4</v>
       </c>
-      <c r="R86" s="38">
+      <c r="R86" s="36">
         <v>3072</v>
       </c>
     </row>
-    <row r="87" spans="2:18" s="38" customFormat="1">
-      <c r="B87" s="38" t="s">
+    <row r="87" spans="2:18" s="36" customFormat="1">
+      <c r="B87" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="36">
         <v>5</v>
       </c>
-      <c r="E87" s="38" t="s">
+      <c r="E87" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="F87" s="38" t="str">
+      <c r="F87" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180815</v>
       </c>
-      <c r="G87" s="38">
-        <v>0</v>
-      </c>
-      <c r="H87" s="38">
+      <c r="G87" s="36">
+        <v>0</v>
+      </c>
+      <c r="H87" s="36">
         <v>24959</v>
       </c>
-      <c r="I87" s="38">
+      <c r="I87" s="36">
         <v>9892</v>
       </c>
-      <c r="J87" s="38">
+      <c r="J87" s="36">
         <v>3000</v>
       </c>
-      <c r="K87" s="38">
-        <f t="shared" si="17"/>
+      <c r="K87" s="36">
+        <f>J87/D87</f>
         <v>600</v>
       </c>
-      <c r="L87" s="39">
+      <c r="L87" s="37">
+        <f>I87/D87</f>
+        <v>1978.4</v>
+      </c>
+      <c r="M87" s="36">
+        <v>34604</v>
+      </c>
+      <c r="N87" s="36">
+        <v>29</v>
+      </c>
+      <c r="O87" s="36">
+        <v>879</v>
+      </c>
+      <c r="P87" s="36">
         <f t="shared" si="14"/>
-        <v>1978.4</v>
-      </c>
-      <c r="M87" s="38">
-        <v>34604</v>
-      </c>
-      <c r="N87" s="38">
-        <v>29</v>
-      </c>
-      <c r="O87" s="38">
-        <v>879</v>
-      </c>
-      <c r="P87" s="38">
-        <f t="shared" si="15"/>
         <v>8.8859684593611002E-2</v>
       </c>
-      <c r="Q87" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q87" s="37">
+        <f>O87/D87</f>
         <v>175.8</v>
       </c>
-      <c r="R87" s="38">
+      <c r="R87" s="36">
         <v>3072</v>
       </c>
     </row>
-    <row r="88" spans="2:18" s="38" customFormat="1">
-      <c r="B88" s="38" t="s">
+    <row r="88" spans="2:18" s="36" customFormat="1">
+      <c r="B88" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D88" s="38">
+      <c r="D88" s="36">
         <v>5</v>
       </c>
-      <c r="E88" s="38" t="s">
+      <c r="E88" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="F88" s="38" t="str">
+      <c r="F88" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G88" s="38">
-        <v>0</v>
-      </c>
-      <c r="H88" s="38">
+      <c r="G88" s="36">
+        <v>0</v>
+      </c>
+      <c r="H88" s="36">
         <v>24316</v>
       </c>
-      <c r="I88" s="38">
+      <c r="I88" s="36">
         <v>5809</v>
       </c>
-      <c r="J88" s="38">
+      <c r="J88" s="36">
         <v>3000</v>
       </c>
-      <c r="K88" s="38">
-        <f t="shared" si="17"/>
+      <c r="K88" s="36">
+        <f>J88/D88</f>
         <v>600</v>
       </c>
-      <c r="L88" s="39">
+      <c r="L88" s="37">
+        <f>I88/D88</f>
+        <v>1161.8</v>
+      </c>
+      <c r="M88" s="36">
+        <v>31070</v>
+      </c>
+      <c r="N88" s="36">
+        <v>19</v>
+      </c>
+      <c r="O88" s="36">
+        <v>552</v>
+      </c>
+      <c r="P88" s="36">
         <f t="shared" si="14"/>
-        <v>1161.8</v>
-      </c>
-      <c r="M88" s="38">
-        <v>31070</v>
-      </c>
-      <c r="N88" s="38">
-        <v>19</v>
-      </c>
-      <c r="O88" s="38">
-        <v>552</v>
-      </c>
-      <c r="P88" s="38">
-        <f t="shared" si="15"/>
         <v>9.5024961266999483E-2</v>
       </c>
-      <c r="Q88" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q88" s="37">
+        <f>O88/D88</f>
         <v>110.4</v>
       </c>
-      <c r="R88" s="38">
+      <c r="R88" s="36">
         <v>2957</v>
       </c>
     </row>
-    <row r="89" spans="2:18" s="38" customFormat="1">
-      <c r="B89" s="38" t="s">
+    <row r="89" spans="2:18" s="36" customFormat="1">
+      <c r="B89" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D89" s="38">
+      <c r="D89" s="36">
         <v>5</v>
       </c>
-      <c r="E89" s="38" t="s">
+      <c r="E89" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="F89" s="38" t="str">
+      <c r="F89" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G89" s="38">
-        <v>0</v>
-      </c>
-      <c r="H89" s="38">
+      <c r="G89" s="36">
+        <v>0</v>
+      </c>
+      <c r="H89" s="36">
         <v>24557</v>
       </c>
-      <c r="I89" s="38">
+      <c r="I89" s="36">
         <v>5725</v>
       </c>
-      <c r="J89" s="38">
+      <c r="J89" s="36">
         <v>3000</v>
       </c>
-      <c r="K89" s="38">
-        <f t="shared" si="17"/>
+      <c r="K89" s="36">
+        <f>J89/D89</f>
         <v>600</v>
       </c>
-      <c r="L89" s="39">
+      <c r="L89" s="37">
+        <f>I89/D89</f>
+        <v>1145</v>
+      </c>
+      <c r="M89" s="36">
+        <v>32726</v>
+      </c>
+      <c r="N89" s="36">
+        <v>17</v>
+      </c>
+      <c r="O89" s="36">
+        <v>524</v>
+      </c>
+      <c r="P89" s="36">
         <f t="shared" si="14"/>
-        <v>1145</v>
-      </c>
-      <c r="M89" s="38">
-        <v>32726</v>
-      </c>
-      <c r="N89" s="38">
-        <v>17</v>
-      </c>
-      <c r="O89" s="38">
-        <v>524</v>
-      </c>
-      <c r="P89" s="38">
-        <f t="shared" si="15"/>
         <v>9.1528384279475988E-2</v>
       </c>
-      <c r="Q89" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q89" s="37">
+        <f>O89/D89</f>
         <v>104.8</v>
       </c>
-      <c r="R89" s="38">
+      <c r="R89" s="36">
         <v>2995</v>
       </c>
     </row>
-    <row r="90" spans="2:18" s="38" customFormat="1">
-      <c r="B90" s="38" t="s">
+    <row r="90" spans="2:18" s="36" customFormat="1">
+      <c r="B90" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D90" s="38">
+      <c r="D90" s="36">
         <v>5</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F90" s="38" t="str">
+      <c r="F90" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180815</v>
       </c>
-      <c r="G90" s="38">
-        <v>0</v>
-      </c>
-      <c r="H90" s="38">
+      <c r="G90" s="36">
+        <v>0</v>
+      </c>
+      <c r="H90" s="36">
         <v>24133</v>
       </c>
-      <c r="I90" s="38">
+      <c r="I90" s="36">
         <v>5796</v>
       </c>
-      <c r="J90" s="38">
+      <c r="J90" s="36">
         <v>3000</v>
       </c>
-      <c r="K90" s="38">
-        <f t="shared" si="17"/>
+      <c r="K90" s="36">
+        <f>J90/D90</f>
         <v>600</v>
       </c>
-      <c r="L90" s="39">
+      <c r="L90" s="37">
+        <f>I90/D90</f>
+        <v>1159.2</v>
+      </c>
+      <c r="M90" s="36">
+        <v>33081</v>
+      </c>
+      <c r="N90" s="36">
+        <v>18</v>
+      </c>
+      <c r="O90" s="36">
+        <v>532</v>
+      </c>
+      <c r="P90" s="36">
         <f t="shared" si="14"/>
-        <v>1159.2</v>
-      </c>
-      <c r="M90" s="38">
-        <v>33081</v>
-      </c>
-      <c r="N90" s="38">
-        <v>18</v>
-      </c>
-      <c r="O90" s="38">
-        <v>532</v>
-      </c>
-      <c r="P90" s="38">
-        <f t="shared" si="15"/>
         <v>9.1787439613526575E-2</v>
       </c>
-      <c r="Q90" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q90" s="37">
+        <f>O90/D90</f>
         <v>106.4</v>
       </c>
-      <c r="R90" s="38">
+      <c r="R90" s="36">
         <v>3034</v>
       </c>
     </row>
-    <row r="91" spans="2:18" s="38" customFormat="1">
-      <c r="B91" s="38" t="s">
+    <row r="91" spans="2:18" s="36" customFormat="1">
+      <c r="B91" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D91" s="38">
+      <c r="D91" s="36">
         <v>5</v>
       </c>
-      <c r="E91" s="38" t="s">
+      <c r="E91" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="F91" s="38" t="str">
+      <c r="F91" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G91" s="38">
-        <v>0</v>
-      </c>
-      <c r="H91" s="38">
+      <c r="G91" s="36">
+        <v>0</v>
+      </c>
+      <c r="H91" s="36">
         <v>24475</v>
       </c>
-      <c r="I91" s="38">
+      <c r="I91" s="36">
         <v>5548</v>
       </c>
-      <c r="J91" s="38">
+      <c r="J91" s="36">
         <v>3000</v>
       </c>
-      <c r="K91" s="38">
-        <f t="shared" si="17"/>
+      <c r="K91" s="36">
+        <f>J91/D91</f>
         <v>600</v>
       </c>
-      <c r="L91" s="39">
+      <c r="L91" s="37">
+        <f>I91/D91</f>
+        <v>1109.5999999999999</v>
+      </c>
+      <c r="M91" s="36">
+        <v>36414</v>
+      </c>
+      <c r="N91" s="36">
+        <v>15</v>
+      </c>
+      <c r="O91" s="36">
+        <v>479</v>
+      </c>
+      <c r="P91" s="36">
         <f t="shared" si="14"/>
-        <v>1109.5999999999999</v>
-      </c>
-      <c r="M91" s="38">
-        <v>36414</v>
-      </c>
-      <c r="N91" s="38">
-        <v>15</v>
-      </c>
-      <c r="O91" s="38">
-        <v>479</v>
-      </c>
-      <c r="P91" s="38">
-        <f t="shared" si="15"/>
         <v>8.6337418889689974E-2</v>
       </c>
-      <c r="Q91" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q91" s="37">
+        <f>O91/D91</f>
         <v>95.8</v>
       </c>
-      <c r="R91" s="38">
+      <c r="R91" s="36">
         <v>3149</v>
       </c>
     </row>
-    <row r="92" spans="2:18" s="38" customFormat="1">
-      <c r="B92" s="38" t="s">
+    <row r="92" spans="2:18" s="36" customFormat="1">
+      <c r="B92" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D92" s="38">
+      <c r="D92" s="36">
         <v>5</v>
       </c>
-      <c r="E92" s="38" t="s">
+      <c r="E92" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="F92" s="38" t="str">
+      <c r="F92" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G92" s="38">
-        <v>0</v>
-      </c>
-      <c r="H92" s="38">
+      <c r="G92" s="36">
+        <v>0</v>
+      </c>
+      <c r="H92" s="36">
         <v>24526</v>
       </c>
-      <c r="I92" s="38">
+      <c r="I92" s="36">
         <v>5674</v>
       </c>
-      <c r="J92" s="38">
+      <c r="J92" s="36">
         <v>3000</v>
       </c>
-      <c r="K92" s="38">
-        <f t="shared" si="17"/>
+      <c r="K92" s="36">
+        <f>J92/D92</f>
         <v>600</v>
       </c>
-      <c r="L92" s="39">
+      <c r="L92" s="37">
+        <f>I92/D92</f>
+        <v>1134.8</v>
+      </c>
+      <c r="M92" s="36">
+        <v>35180</v>
+      </c>
+      <c r="N92" s="36">
+        <v>16</v>
+      </c>
+      <c r="O92" s="36">
+        <v>502</v>
+      </c>
+      <c r="P92" s="36">
         <f t="shared" si="14"/>
-        <v>1134.8</v>
-      </c>
-      <c r="M92" s="38">
-        <v>35180</v>
-      </c>
-      <c r="N92" s="38">
-        <v>16</v>
-      </c>
-      <c r="O92" s="38">
-        <v>502</v>
-      </c>
-      <c r="P92" s="38">
-        <f t="shared" si="15"/>
         <v>8.8473739866055695E-2</v>
       </c>
-      <c r="Q92" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q92" s="37">
+        <f>O92/D92</f>
         <v>100.4</v>
       </c>
-      <c r="R92" s="38">
+      <c r="R92" s="36">
         <v>3110</v>
       </c>
     </row>
-    <row r="93" spans="2:18" s="38" customFormat="1">
-      <c r="B93" s="38" t="s">
+    <row r="93" spans="2:18" s="36" customFormat="1">
+      <c r="B93" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C93" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D93" s="38">
+      <c r="D93" s="36">
         <v>5</v>
       </c>
-      <c r="E93" s="38" t="s">
+      <c r="E93" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="F93" s="38" t="str">
+      <c r="F93" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180815</v>
       </c>
-      <c r="G93" s="38">
-        <v>0</v>
-      </c>
-      <c r="H93" s="38">
+      <c r="G93" s="36">
+        <v>0</v>
+      </c>
+      <c r="H93" s="36">
         <v>24729</v>
       </c>
-      <c r="I93" s="38">
+      <c r="I93" s="36">
         <v>6905</v>
       </c>
-      <c r="J93" s="38">
+      <c r="J93" s="36">
         <v>3000</v>
       </c>
-      <c r="K93" s="38">
-        <f t="shared" si="17"/>
+      <c r="K93" s="36">
+        <f>J93/D93</f>
         <v>600</v>
       </c>
-      <c r="L93" s="39">
+      <c r="L93" s="37">
+        <f>I93/D93</f>
+        <v>1381</v>
+      </c>
+      <c r="M93" s="36">
+        <v>36416</v>
+      </c>
+      <c r="N93" s="36">
+        <v>19</v>
+      </c>
+      <c r="O93" s="36">
+        <v>597</v>
+      </c>
+      <c r="P93" s="36">
         <f t="shared" si="14"/>
-        <v>1381</v>
-      </c>
-      <c r="M93" s="38">
-        <v>36416</v>
-      </c>
-      <c r="N93" s="38">
-        <v>19</v>
-      </c>
-      <c r="O93" s="38">
-        <v>597</v>
-      </c>
-      <c r="P93" s="38">
-        <f t="shared" si="15"/>
         <v>8.6459087617668351E-2</v>
       </c>
-      <c r="Q93" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q93" s="37">
+        <f>O93/D93</f>
         <v>119.4</v>
       </c>
-      <c r="R93" s="38">
+      <c r="R93" s="36">
         <v>3149</v>
       </c>
     </row>
-    <row r="94" spans="2:18" s="38" customFormat="1">
-      <c r="B94" s="38" t="s">
+    <row r="94" spans="2:18" s="36" customFormat="1">
+      <c r="B94" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D94" s="38">
+      <c r="D94" s="36">
         <v>3</v>
       </c>
-      <c r="E94" s="38" t="s">
+      <c r="E94" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="F94" s="38" t="str">
+      <c r="F94" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G94" s="38">
-        <v>0</v>
-      </c>
-      <c r="H94" s="38">
+      <c r="G94" s="36">
+        <v>0</v>
+      </c>
+      <c r="H94" s="36">
         <v>24831</v>
       </c>
-      <c r="I94" s="38">
+      <c r="I94" s="36">
         <v>5888</v>
       </c>
-      <c r="J94" s="38">
+      <c r="J94" s="36">
         <v>3000</v>
       </c>
-      <c r="K94" s="38">
-        <f t="shared" si="17"/>
+      <c r="K94" s="36">
+        <f>J94/D94</f>
         <v>1000</v>
       </c>
-      <c r="L94" s="39">
+      <c r="L94" s="37">
+        <f>I94/D94</f>
+        <v>1962.6666666666667</v>
+      </c>
+      <c r="M94" s="36">
+        <v>37327</v>
+      </c>
+      <c r="N94" s="36">
+        <v>16</v>
+      </c>
+      <c r="O94" s="36">
+        <v>503</v>
+      </c>
+      <c r="P94" s="36">
         <f t="shared" si="14"/>
-        <v>1962.6666666666667</v>
-      </c>
-      <c r="M94" s="38">
-        <v>37327</v>
-      </c>
-      <c r="N94" s="38">
-        <v>16</v>
-      </c>
-      <c r="O94" s="38">
-        <v>503</v>
-      </c>
-      <c r="P94" s="38">
-        <f t="shared" si="15"/>
         <v>8.5427989130434784E-2</v>
       </c>
-      <c r="Q94" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q94" s="37">
+        <f>O94/D94</f>
         <v>167.66666666666666</v>
       </c>
-      <c r="R94" s="38">
+      <c r="R94" s="36">
         <v>3187</v>
       </c>
     </row>
-    <row r="95" spans="2:18" s="38" customFormat="1">
-      <c r="B95" s="38" t="s">
+    <row r="95" spans="2:18" s="36" customFormat="1">
+      <c r="B95" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C95" s="38" t="s">
+      <c r="C95" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D95" s="38">
+      <c r="D95" s="36">
         <v>3</v>
       </c>
-      <c r="E95" s="38" t="s">
+      <c r="E95" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="F95" s="38" t="str">
+      <c r="F95" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180814</v>
       </c>
-      <c r="G95" s="38">
-        <v>0</v>
-      </c>
-      <c r="H95" s="38">
+      <c r="G95" s="36">
+        <v>0</v>
+      </c>
+      <c r="H95" s="36">
         <v>24891</v>
       </c>
-      <c r="I95" s="38">
+      <c r="I95" s="36">
         <v>5526</v>
       </c>
-      <c r="J95" s="38">
+      <c r="J95" s="36">
         <v>3000</v>
       </c>
-      <c r="K95" s="38">
-        <f t="shared" si="17"/>
+      <c r="K95" s="36">
+        <f>J95/D95</f>
         <v>1000</v>
       </c>
-      <c r="L95" s="39">
+      <c r="L95" s="37">
+        <f>I95/D95</f>
+        <v>1842</v>
+      </c>
+      <c r="M95" s="36">
+        <v>39074</v>
+      </c>
+      <c r="N95" s="36">
+        <v>14</v>
+      </c>
+      <c r="O95" s="36">
+        <v>456</v>
+      </c>
+      <c r="P95" s="36">
         <f t="shared" si="14"/>
-        <v>1842</v>
-      </c>
-      <c r="M95" s="38">
-        <v>39074</v>
-      </c>
-      <c r="N95" s="38">
-        <v>14</v>
-      </c>
-      <c r="O95" s="38">
-        <v>456</v>
-      </c>
-      <c r="P95" s="38">
-        <f t="shared" si="15"/>
         <v>8.2519001085776325E-2</v>
       </c>
-      <c r="Q95" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q95" s="37">
+        <f>O95/D95</f>
         <v>152</v>
       </c>
-      <c r="R95" s="38">
+      <c r="R95" s="36">
         <v>3226</v>
       </c>
     </row>
-    <row r="96" spans="2:18" s="38" customFormat="1">
-      <c r="B96" s="38" t="s">
+    <row r="96" spans="2:18" s="36" customFormat="1">
+      <c r="B96" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="38" t="s">
+      <c r="C96" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D96" s="38">
+      <c r="D96" s="36">
         <v>3</v>
       </c>
-      <c r="E96" s="38" t="s">
+      <c r="E96" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="F96" s="38" t="str">
+      <c r="F96" s="36" t="str">
         <f t="shared" si="13"/>
         <v>20180815</v>
       </c>
-      <c r="G96" s="38">
-        <v>0</v>
-      </c>
-      <c r="H96" s="38">
+      <c r="G96" s="36">
+        <v>0</v>
+      </c>
+      <c r="H96" s="36">
         <v>24643</v>
       </c>
-      <c r="I96" s="38">
+      <c r="I96" s="36">
         <v>6154</v>
       </c>
-      <c r="J96" s="38">
+      <c r="J96" s="36">
         <v>3000</v>
       </c>
-      <c r="K96" s="38">
-        <f t="shared" si="17"/>
+      <c r="K96" s="36">
+        <f>J96/D96</f>
         <v>1000</v>
       </c>
-      <c r="L96" s="39">
+      <c r="L96" s="37">
+        <f>I96/D96</f>
+        <v>2051.3333333333335</v>
+      </c>
+      <c r="M96" s="36">
+        <v>37504</v>
+      </c>
+      <c r="N96" s="36">
+        <v>16</v>
+      </c>
+      <c r="O96" s="36">
+        <v>523</v>
+      </c>
+      <c r="P96" s="36">
         <f t="shared" si="14"/>
-        <v>2051.3333333333335</v>
-      </c>
-      <c r="M96" s="38">
-        <v>37504</v>
-      </c>
-      <c r="N96" s="38">
-        <v>16</v>
-      </c>
-      <c r="O96" s="38">
-        <v>523</v>
-      </c>
-      <c r="P96" s="38">
-        <f t="shared" si="15"/>
         <v>8.4985375365615859E-2</v>
       </c>
-      <c r="Q96" s="39">
-        <f t="shared" si="16"/>
+      <c r="Q96" s="37">
+        <f>O96/D96</f>
         <v>174.33333333333334</v>
       </c>
-      <c r="R96" s="38">
+      <c r="R96" s="36">
         <v>3187</v>
       </c>
     </row>
@@ -19570,10 +21280,851 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01003F91-0606-F947-9FDB-912D78703A7E}">
+  <dimension ref="B2:C106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4">
+        <f>CORREL(B7:B106, C7:C106)</f>
+        <v>0.99983808062691393</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59">
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77">
+        <v>200</v>
+      </c>
+      <c r="C77">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78">
+        <v>200</v>
+      </c>
+      <c r="C78">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79">
+        <v>200</v>
+      </c>
+      <c r="C79">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80">
+        <v>200</v>
+      </c>
+      <c r="C80">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81">
+        <v>200</v>
+      </c>
+      <c r="C81">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82">
+        <v>200</v>
+      </c>
+      <c r="C82">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83">
+        <v>200</v>
+      </c>
+      <c r="C83">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84">
+        <v>200</v>
+      </c>
+      <c r="C84">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85">
+        <v>200</v>
+      </c>
+      <c r="C85">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86">
+        <v>200</v>
+      </c>
+      <c r="C86">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87">
+        <v>500</v>
+      </c>
+      <c r="C87">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88">
+        <v>500</v>
+      </c>
+      <c r="C88">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89">
+        <v>500</v>
+      </c>
+      <c r="C89">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90">
+        <v>500</v>
+      </c>
+      <c r="C90">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91">
+        <v>500</v>
+      </c>
+      <c r="C91">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92">
+        <v>500</v>
+      </c>
+      <c r="C92">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93">
+        <v>500</v>
+      </c>
+      <c r="C93">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94">
+        <v>500</v>
+      </c>
+      <c r="C94">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95">
+        <v>500</v>
+      </c>
+      <c r="C95">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96">
+        <v>500</v>
+      </c>
+      <c r="C96">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97">
+        <v>1000</v>
+      </c>
+      <c r="C97">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98">
+        <v>1000</v>
+      </c>
+      <c r="C98">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99">
+        <v>1000</v>
+      </c>
+      <c r="C99">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100">
+        <v>1000</v>
+      </c>
+      <c r="C100">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101">
+        <v>1000</v>
+      </c>
+      <c r="C101">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102">
+        <v>1000</v>
+      </c>
+      <c r="C102">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103">
+        <v>1000</v>
+      </c>
+      <c r="C103">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104">
+        <v>1000</v>
+      </c>
+      <c r="C104">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105">
+        <v>1000</v>
+      </c>
+      <c r="C105">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106">
+        <v>1000</v>
+      </c>
+      <c r="C106">
+        <v>2160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D10FB-35D9-6644-9CBF-948E883FB7C9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
@@ -19584,11 +22135,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD3939F-B255-B24A-99D1-39EFD23212CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
@@ -19597,7 +22148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0EFD3C-F499-F646-BC9C-13C05B0320AE}">
   <dimension ref="B3:P14"/>
   <sheetViews>
@@ -26799,7 +29350,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="19">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>232</v>
       </c>
     </row>
@@ -26999,7 +29550,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="28">
+      <c r="B35" s="26">
         <v>102</v>
       </c>
       <c r="C35" t="s">
@@ -27007,7 +29558,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="28">
+      <c r="B36" s="26">
         <v>120</v>
       </c>
       <c r="C36" t="s">
@@ -27015,7 +29566,7 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="29">
+      <c r="B37" s="27">
         <f>(((B36-B35)/10)*7) + B35</f>
         <v>114.6</v>
       </c>
@@ -27040,7 +29591,7 @@
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="29">
+      <c r="B41" s="27">
         <f>B37*B40</f>
         <v>14473.98</v>
       </c>
@@ -27129,7 +29680,7 @@
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="33">
+      <c r="B61" s="31">
         <v>0.25750000000000001</v>
       </c>
       <c r="C61" t="s">
@@ -27151,7 +29702,7 @@
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="33">
+      <c r="B67" s="31">
         <f>B63/B58</f>
         <v>0.95370370370370372</v>
       </c>
@@ -27160,7 +29711,7 @@
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="37">
+      <c r="B68" s="35">
         <f>B41*B67</f>
         <v>13803.888333333332</v>
       </c>
@@ -27182,7 +29733,7 @@
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="35">
+      <c r="B73" s="33">
         <f>(B68-B72)/B72</f>
         <v>3.8667293704539682E-2</v>
       </c>
@@ -27228,51 +29779,51 @@
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <v>0.77847222222222223</v>
       </c>
       <c r="C5" t="s">
@@ -27318,7 +29869,7 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>0.77848379629629638</v>
       </c>
       <c r="C6" t="s">
@@ -27364,7 +29915,7 @@
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>0.77849537037037031</v>
       </c>
       <c r="C7" t="s">
@@ -27410,7 +29961,7 @@
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>0.77850694444444446</v>
       </c>
       <c r="C8" t="s">
@@ -27456,7 +30007,7 @@
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="27">
+      <c r="B9" s="25">
         <v>0.7785185185185185</v>
       </c>
       <c r="C9" t="s">
@@ -27502,7 +30053,7 @@
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="27">
+      <c r="B10" s="25">
         <v>0.77853009259259265</v>
       </c>
       <c r="C10" t="s">
@@ -27548,7 +30099,7 @@
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="27">
+      <c r="B11" s="25">
         <v>0.77854166666666658</v>
       </c>
       <c r="C11" t="s">
@@ -27594,7 +30145,7 @@
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="27">
+      <c r="B12" s="25">
         <v>0.77855324074074073</v>
       </c>
       <c r="C12" t="s">
@@ -27640,7 +30191,7 @@
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="34">
+      <c r="B13" s="32">
         <v>0.77856481481481488</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -27686,7 +30237,7 @@
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="27">
+      <c r="B14" s="25">
         <v>0.77857638888888892</v>
       </c>
       <c r="C14" t="s">
@@ -27732,7 +30283,7 @@
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <v>0.77858796296296295</v>
       </c>
       <c r="C15" t="s">
@@ -27778,7 +30329,7 @@
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="27">
+      <c r="B16" s="25">
         <v>0.77859953703703699</v>
       </c>
       <c r="C16" t="s">
@@ -27824,7 +30375,7 @@
       </c>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="27">
+      <c r="B17" s="25">
         <v>0.77861111111111114</v>
       </c>
       <c r="C17" t="s">
@@ -27870,7 +30421,7 @@
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <v>0.77862268518518529</v>
       </c>
       <c r="C18" t="s">
@@ -27916,7 +30467,7 @@
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="27">
+      <c r="B19" s="25">
         <v>0.77863425925925922</v>
       </c>
       <c r="C19" t="s">
@@ -27962,7 +30513,7 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="27">
+      <c r="B20" s="25">
         <v>0.77864583333333337</v>
       </c>
       <c r="C20" t="s">
@@ -28008,7 +30559,7 @@
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="27">
+      <c r="B21" s="25">
         <v>0.77865740740740741</v>
       </c>
       <c r="C21" t="s">
@@ -28054,7 +30605,7 @@
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="27">
+      <c r="B22" s="25">
         <v>0.77866898148148145</v>
       </c>
       <c r="C22" t="s">
@@ -28100,7 +30651,7 @@
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="27">
+      <c r="B23" s="25">
         <v>0.77868055555555549</v>
       </c>
       <c r="C23" t="s">
@@ -28146,7 +30697,7 @@
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="27">
+      <c r="B24" s="25">
         <v>0.77869212962962964</v>
       </c>
       <c r="C24" t="s">
@@ -28192,7 +30743,7 @@
       </c>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="27">
+      <c r="B25" s="25">
         <v>0.77870370370370379</v>
       </c>
       <c r="C25" t="s">
@@ -28238,7 +30789,7 @@
       </c>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="27">
+      <c r="B26" s="25">
         <v>0.77871527777777771</v>
       </c>
       <c r="C26" t="s">
@@ -28284,7 +30835,7 @@
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="27">
+      <c r="B27" s="25">
         <v>0.77872685185185186</v>
       </c>
       <c r="C27" t="s">
@@ -28330,7 +30881,7 @@
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="27">
+      <c r="B28" s="25">
         <v>0.7787384259259259</v>
       </c>
       <c r="C28" t="s">
@@ -28376,7 +30927,7 @@
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="27">
+      <c r="B29" s="25">
         <v>0.77875000000000005</v>
       </c>
       <c r="C29" t="s">
@@ -28422,7 +30973,7 @@
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="27">
+      <c r="B30" s="25">
         <v>0.77876157407407398</v>
       </c>
       <c r="C30" t="s">
@@ -28468,7 +31019,7 @@
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="27">
+      <c r="B31" s="25">
         <v>0.77877314814814813</v>
       </c>
       <c r="C31" t="s">
@@ -28514,7 +31065,7 @@
       </c>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="27">
+      <c r="B32" s="25">
         <v>0.77878472222222228</v>
       </c>
       <c r="C32" t="s">
@@ -28560,7 +31111,7 @@
       </c>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="27">
+      <c r="B33" s="25">
         <v>0.77879629629629632</v>
       </c>
       <c r="C33" t="s">
@@ -28606,7 +31157,7 @@
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="27">
+      <c r="B34" s="25">
         <v>0.77880787037037036</v>
       </c>
       <c r="C34" t="s">
@@ -28652,7 +31203,7 @@
       </c>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="27">
+      <c r="B35" s="25">
         <v>0.7788194444444444</v>
       </c>
       <c r="C35" t="s">
@@ -28698,7 +31249,7 @@
       </c>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="27">
+      <c r="B36" s="25">
         <v>0.77883101851851855</v>
       </c>
       <c r="C36" t="s">
@@ -28744,7 +31295,7 @@
       </c>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="27">
+      <c r="B37" s="25">
         <v>0.7788425925925927</v>
       </c>
       <c r="C37" t="s">
@@ -28790,7 +31341,7 @@
       </c>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="27">
+      <c r="B38" s="25">
         <v>0.77885416666666663</v>
       </c>
       <c r="C38" t="s">
@@ -28836,7 +31387,7 @@
       </c>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="27">
+      <c r="B39" s="25">
         <v>0.77886574074074078</v>
       </c>
       <c r="C39" t="s">
@@ -28882,7 +31433,7 @@
       </c>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="27">
+      <c r="B40" s="25">
         <v>0.77887731481481481</v>
       </c>
       <c r="C40" t="s">
@@ -28928,7 +31479,7 @@
       </c>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="27">
+      <c r="B41" s="25">
         <v>0.77888888888888896</v>
       </c>
       <c r="C41" t="s">
@@ -28974,7 +31525,7 @@
       </c>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="27">
+      <c r="B42" s="25">
         <v>0.77890046296296289</v>
       </c>
       <c r="C42" t="s">
@@ -29020,7 +31571,7 @@
       </c>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="27">
+      <c r="B43" s="25">
         <v>0.77891203703703704</v>
       </c>
       <c r="C43" t="s">
@@ -29066,7 +31617,7 @@
       </c>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="27">
+      <c r="B44" s="25">
         <v>0.77892361111111119</v>
       </c>
       <c r="C44" t="s">
@@ -29112,7 +31663,7 @@
       </c>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="27">
+      <c r="B45" s="25">
         <v>0.77893518518518512</v>
       </c>
       <c r="C45" t="s">
@@ -29158,7 +31709,7 @@
       </c>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="27">
+      <c r="B46" s="25">
         <v>0.77894675925925927</v>
       </c>
       <c r="C46" t="s">
@@ -29204,7 +31755,7 @@
       </c>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="27">
+      <c r="B47" s="25">
         <v>0.77895833333333331</v>
       </c>
       <c r="C47" t="s">
@@ -29250,7 +31801,7 @@
       </c>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="27">
+      <c r="B48" s="25">
         <v>0.77896990740740746</v>
       </c>
       <c r="C48" t="s">
@@ -29296,7 +31847,7 @@
       </c>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="27">
+      <c r="B49" s="25">
         <v>0.77898148148148139</v>
       </c>
       <c r="C49" t="s">
@@ -29342,7 +31893,7 @@
       </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="27">
+      <c r="B50" s="25">
         <v>0.77899305555555554</v>
       </c>
       <c r="C50" t="s">
@@ -29388,7 +31939,7 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="27">
+      <c r="B51" s="25">
         <v>0.77900462962962969</v>
       </c>
       <c r="C51" t="s">
@@ -29434,7 +31985,7 @@
       </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="27">
+      <c r="B52" s="25">
         <v>0.77901620370370372</v>
       </c>
       <c r="C52" t="s">
@@ -29480,7 +32031,7 @@
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="27">
+      <c r="B53" s="25">
         <v>0.77902777777777776</v>
       </c>
       <c r="C53" t="s">
@@ -29526,7 +32077,7 @@
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="27">
+      <c r="B54" s="25">
         <v>0.7790393518518518</v>
       </c>
       <c r="C54" t="s">
@@ -29572,7 +32123,7 @@
       </c>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="27">
+      <c r="B55" s="25">
         <v>0.77905092592592595</v>
       </c>
       <c r="C55" t="s">
@@ -29618,7 +32169,7 @@
       </c>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="27">
+      <c r="B56" s="25">
         <v>0.7790625000000001</v>
       </c>
       <c r="C56" t="s">
@@ -29664,7 +32215,7 @@
       </c>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="27">
+      <c r="B57" s="25">
         <v>0.77907407407407403</v>
       </c>
       <c r="C57" t="s">
@@ -29710,7 +32261,7 @@
       </c>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="27">
+      <c r="B58" s="25">
         <v>0.77908564814814818</v>
       </c>
       <c r="C58" t="s">
@@ -29756,7 +32307,7 @@
       </c>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="27">
+      <c r="B59" s="25">
         <v>0.77909722222222222</v>
       </c>
       <c r="C59" t="s">
@@ -29802,7 +32353,7 @@
       </c>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" s="27">
+      <c r="B60" s="25">
         <v>0.77910879629629637</v>
       </c>
       <c r="C60" t="s">
@@ -29848,7 +32399,7 @@
       </c>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="27">
+      <c r="B61" s="25">
         <v>0.7791203703703703</v>
       </c>
       <c r="C61" t="s">
@@ -29894,7 +32445,7 @@
       </c>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" s="27">
+      <c r="B62" s="25">
         <v>0.77913194444444445</v>
       </c>
       <c r="C62" t="s">
@@ -29940,7 +32491,7 @@
       </c>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="27">
+      <c r="B63" s="25">
         <v>0.7791435185185186</v>
       </c>
       <c r="C63" t="s">
@@ -29986,7 +32537,7 @@
       </c>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="27">
+      <c r="B64" s="25">
         <v>0.77915509259259252</v>
       </c>
       <c r="C64" t="s">
@@ -30032,7 +32583,7 @@
       </c>
     </row>
     <row r="65" spans="2:15">
-      <c r="B65" s="27">
+      <c r="B65" s="25">
         <v>0.77916666666666667</v>
       </c>
       <c r="C65" t="s">
@@ -30078,7 +32629,7 @@
       </c>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="27">
+      <c r="B66" s="25">
         <v>0.77917824074074071</v>
       </c>
       <c r="C66" t="s">
@@ -30124,7 +32675,7 @@
       </c>
     </row>
     <row r="67" spans="2:15">
-      <c r="B67" s="27">
+      <c r="B67" s="25">
         <v>0.77918981481481486</v>
       </c>
       <c r="C67" t="s">
@@ -30170,7 +32721,7 @@
       </c>
     </row>
     <row r="68" spans="2:15">
-      <c r="B68" s="27">
+      <c r="B68" s="25">
         <v>0.77920138888888879</v>
       </c>
       <c r="C68" t="s">
@@ -30216,7 +32767,7 @@
       </c>
     </row>
     <row r="69" spans="2:15">
-      <c r="B69" s="27">
+      <c r="B69" s="25">
         <v>0.77921296296296294</v>
       </c>
       <c r="C69" t="s">
@@ -30262,7 +32813,7 @@
       </c>
     </row>
     <row r="70" spans="2:15">
-      <c r="B70" s="27">
+      <c r="B70" s="25">
         <v>0.77922453703703709</v>
       </c>
       <c r="C70" t="s">
@@ -30308,7 +32859,7 @@
       </c>
     </row>
     <row r="71" spans="2:15">
-      <c r="B71" s="27">
+      <c r="B71" s="25">
         <v>0.77923611111111113</v>
       </c>
       <c r="C71" t="s">
@@ -30354,7 +32905,7 @@
       </c>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" s="27">
+      <c r="B72" s="25">
         <v>0.77924768518518517</v>
       </c>
       <c r="C72" t="s">
@@ -30400,7 +32951,7 @@
       </c>
     </row>
     <row r="73" spans="2:15">
-      <c r="B73" s="27">
+      <c r="B73" s="25">
         <v>0.77925925925925921</v>
       </c>
       <c r="C73" t="s">
@@ -30446,7 +32997,7 @@
       </c>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" s="27">
+      <c r="B74" s="25">
         <v>0.77927083333333336</v>
       </c>
       <c r="C74" t="s">
@@ -30492,7 +33043,7 @@
       </c>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" s="27">
+      <c r="B75" s="25">
         <v>0.77928240740740751</v>
       </c>
       <c r="C75" t="s">
@@ -30538,7 +33089,7 @@
       </c>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" s="27">
+      <c r="B76" s="25">
         <v>0.77929398148148143</v>
       </c>
       <c r="C76" t="s">
@@ -30584,7 +33135,7 @@
       </c>
     </row>
     <row r="77" spans="2:15">
-      <c r="B77" s="27">
+      <c r="B77" s="25">
         <v>0.77930555555555558</v>
       </c>
       <c r="C77" t="s">
@@ -30630,7 +33181,7 @@
       </c>
     </row>
     <row r="78" spans="2:15">
-      <c r="B78" s="27">
+      <c r="B78" s="25">
         <v>0.77931712962962962</v>
       </c>
       <c r="C78" t="s">
@@ -30676,7 +33227,7 @@
       </c>
     </row>
     <row r="79" spans="2:15">
-      <c r="B79" s="27">
+      <c r="B79" s="25">
         <v>0.77932870370370377</v>
       </c>
       <c r="C79" t="s">
@@ -30722,7 +33273,7 @@
       </c>
     </row>
     <row r="80" spans="2:15">
-      <c r="B80" s="27">
+      <c r="B80" s="25">
         <v>0.7793402777777777</v>
       </c>
       <c r="C80" t="s">
@@ -30768,7 +33319,7 @@
       </c>
     </row>
     <row r="81" spans="2:15">
-      <c r="B81" s="27">
+      <c r="B81" s="25">
         <v>0.77935185185185185</v>
       </c>
       <c r="C81" t="s">
@@ -30814,7 +33365,7 @@
       </c>
     </row>
     <row r="82" spans="2:15">
-      <c r="B82" s="27">
+      <c r="B82" s="25">
         <v>0.779363425925926</v>
       </c>
       <c r="C82" t="s">
@@ -30860,7 +33411,7 @@
       </c>
     </row>
     <row r="83" spans="2:15">
-      <c r="B83" s="27">
+      <c r="B83" s="25">
         <v>0.77937499999999993</v>
       </c>
       <c r="C83" t="s">
@@ -30906,7 +33457,7 @@
       </c>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="27">
+      <c r="B84" s="25">
         <v>0.77938657407407408</v>
       </c>
       <c r="C84" t="s">
@@ -30952,7 +33503,7 @@
       </c>
     </row>
     <row r="85" spans="2:15">
-      <c r="B85" s="27">
+      <c r="B85" s="25">
         <v>0.77939814814814812</v>
       </c>
       <c r="C85" t="s">
@@ -30998,7 +33549,7 @@
       </c>
     </row>
     <row r="86" spans="2:15">
-      <c r="B86" s="27">
+      <c r="B86" s="25">
         <v>0.77940972222222227</v>
       </c>
       <c r="C86" t="s">
@@ -31044,7 +33595,7 @@
       </c>
     </row>
     <row r="87" spans="2:15">
-      <c r="B87" s="27">
+      <c r="B87" s="25">
         <v>0.7794212962962962</v>
       </c>
       <c r="C87" t="s">
@@ -31090,7 +33641,7 @@
       </c>
     </row>
     <row r="88" spans="2:15">
-      <c r="B88" s="27">
+      <c r="B88" s="25">
         <v>0.77943287037037035</v>
       </c>
       <c r="C88" t="s">
@@ -31136,7 +33687,7 @@
       </c>
     </row>
     <row r="89" spans="2:15">
-      <c r="B89" s="27">
+      <c r="B89" s="25">
         <v>0.7794444444444445</v>
       </c>
       <c r="C89" t="s">
@@ -31182,7 +33733,7 @@
       </c>
     </row>
     <row r="90" spans="2:15">
-      <c r="B90" s="27">
+      <c r="B90" s="25">
         <v>0.77945601851851853</v>
       </c>
       <c r="C90" t="s">
@@ -31228,7 +33779,7 @@
       </c>
     </row>
     <row r="91" spans="2:15">
-      <c r="B91" s="27">
+      <c r="B91" s="25">
         <v>0.77946759259259257</v>
       </c>
       <c r="C91" t="s">
@@ -31274,7 +33825,7 @@
       </c>
     </row>
     <row r="92" spans="2:15">
-      <c r="B92" s="27">
+      <c r="B92" s="25">
         <v>0.77947916666666661</v>
       </c>
       <c r="C92" t="s">
@@ -31320,7 +33871,7 @@
       </c>
     </row>
     <row r="93" spans="2:15">
-      <c r="B93" s="27">
+      <c r="B93" s="25">
         <v>0.77949074074074076</v>
       </c>
       <c r="C93" t="s">
@@ -31366,7 +33917,7 @@
       </c>
     </row>
     <row r="94" spans="2:15">
-      <c r="B94" s="27">
+      <c r="B94" s="25">
         <v>0.77950231481481491</v>
       </c>
       <c r="C94" t="s">
@@ -31412,7 +33963,7 @@
       </c>
     </row>
     <row r="95" spans="2:15">
-      <c r="B95" s="27">
+      <c r="B95" s="25">
         <v>0.77951388888888884</v>
       </c>
       <c r="C95" t="s">
@@ -31458,7 +34009,7 @@
       </c>
     </row>
     <row r="96" spans="2:15">
-      <c r="B96" s="27">
+      <c r="B96" s="25">
         <v>0.77952546296296299</v>
       </c>
       <c r="C96" t="s">
@@ -31504,7 +34055,7 @@
       </c>
     </row>
     <row r="97" spans="2:15">
-      <c r="B97" s="27">
+      <c r="B97" s="25">
         <v>0.77953703703703703</v>
       </c>
       <c r="C97" t="s">
@@ -31550,7 +34101,7 @@
       </c>
     </row>
     <row r="98" spans="2:15">
-      <c r="B98" s="27">
+      <c r="B98" s="25">
         <v>0.77954861111111118</v>
       </c>
       <c r="C98" t="s">
@@ -31596,7 +34147,7 @@
       </c>
     </row>
     <row r="99" spans="2:15">
-      <c r="B99" s="27">
+      <c r="B99" s="25">
         <v>0.77956018518518511</v>
       </c>
       <c r="C99" t="s">
@@ -31642,7 +34193,7 @@
       </c>
     </row>
     <row r="100" spans="2:15">
-      <c r="B100" s="27">
+      <c r="B100" s="25">
         <v>0.77957175925925926</v>
       </c>
       <c r="C100" t="s">
@@ -31688,7 +34239,7 @@
       </c>
     </row>
     <row r="101" spans="2:15">
-      <c r="B101" s="27">
+      <c r="B101" s="25">
         <v>0.77958333333333341</v>
       </c>
       <c r="C101" t="s">
@@ -31734,7 +34285,7 @@
       </c>
     </row>
     <row r="102" spans="2:15">
-      <c r="B102" s="27">
+      <c r="B102" s="25">
         <v>0.77959490740740733</v>
       </c>
       <c r="C102" t="s">
@@ -31780,7 +34331,7 @@
       </c>
     </row>
     <row r="103" spans="2:15">
-      <c r="B103" s="27">
+      <c r="B103" s="25">
         <v>0.77960648148148148</v>
       </c>
       <c r="C103" t="s">
@@ -31826,7 +34377,7 @@
       </c>
     </row>
     <row r="104" spans="2:15">
-      <c r="B104" s="27">
+      <c r="B104" s="25">
         <v>0.77961805555555552</v>
       </c>
       <c r="C104" t="s">
@@ -31872,7 +34423,7 @@
       </c>
     </row>
     <row r="105" spans="2:15">
-      <c r="B105" s="27">
+      <c r="B105" s="25">
         <v>0.77962962962962967</v>
       </c>
       <c r="C105" t="s">
@@ -31918,7 +34469,7 @@
       </c>
     </row>
     <row r="106" spans="2:15">
-      <c r="B106" s="27">
+      <c r="B106" s="25">
         <v>0.7796412037037036</v>
       </c>
       <c r="C106" t="s">
@@ -31964,7 +34515,7 @@
       </c>
     </row>
     <row r="107" spans="2:15">
-      <c r="B107" s="27">
+      <c r="B107" s="25">
         <v>0.77965277777777775</v>
       </c>
       <c r="C107" t="s">
@@ -32010,7 +34561,7 @@
       </c>
     </row>
     <row r="108" spans="2:15">
-      <c r="B108" s="27">
+      <c r="B108" s="25">
         <v>0.7796643518518519</v>
       </c>
       <c r="C108" t="s">
@@ -32056,7 +34607,7 @@
       </c>
     </row>
     <row r="109" spans="2:15">
-      <c r="B109" s="27">
+      <c r="B109" s="25">
         <v>0.77967592592592594</v>
       </c>
       <c r="C109" t="s">
@@ -32102,7 +34653,7 @@
       </c>
     </row>
     <row r="110" spans="2:15">
-      <c r="B110" s="27">
+      <c r="B110" s="25">
         <v>0.77968749999999998</v>
       </c>
       <c r="C110" t="s">
@@ -32148,7 +34699,7 @@
       </c>
     </row>
     <row r="111" spans="2:15">
-      <c r="B111" s="27">
+      <c r="B111" s="25">
         <v>0.77969907407407402</v>
       </c>
       <c r="C111" t="s">
@@ -32194,7 +34745,7 @@
       </c>
     </row>
     <row r="112" spans="2:15">
-      <c r="B112" s="27">
+      <c r="B112" s="25">
         <v>0.77971064814814817</v>
       </c>
       <c r="C112" t="s">
@@ -32240,7 +34791,7 @@
       </c>
     </row>
     <row r="113" spans="2:15">
-      <c r="B113" s="27">
+      <c r="B113" s="25">
         <v>0.77972222222222232</v>
       </c>
       <c r="C113" t="s">
@@ -32286,7 +34837,7 @@
       </c>
     </row>
     <row r="114" spans="2:15">
-      <c r="B114" s="27">
+      <c r="B114" s="25">
         <v>0.77973379629629624</v>
       </c>
       <c r="C114" t="s">
@@ -32332,7 +34883,7 @@
       </c>
     </row>
     <row r="115" spans="2:15">
-      <c r="B115" s="27">
+      <c r="B115" s="25">
         <v>0.77974537037037039</v>
       </c>
       <c r="C115" t="s">
@@ -32378,7 +34929,7 @@
       </c>
     </row>
     <row r="116" spans="2:15">
-      <c r="B116" s="27">
+      <c r="B116" s="25">
         <v>0.77975694444444443</v>
       </c>
       <c r="C116" t="s">
@@ -32424,7 +34975,7 @@
       </c>
     </row>
     <row r="117" spans="2:15">
-      <c r="B117" s="27">
+      <c r="B117" s="25">
         <v>0.77976851851851858</v>
       </c>
       <c r="C117" t="s">
@@ -32470,7 +35021,7 @@
       </c>
     </row>
     <row r="118" spans="2:15">
-      <c r="B118" s="27">
+      <c r="B118" s="25">
         <v>0.77978009259259251</v>
       </c>
       <c r="C118" t="s">
@@ -32516,7 +35067,7 @@
       </c>
     </row>
     <row r="119" spans="2:15">
-      <c r="B119" s="27">
+      <c r="B119" s="25">
         <v>0.77979166666666666</v>
       </c>
       <c r="C119" t="s">
@@ -32562,7 +35113,7 @@
       </c>
     </row>
     <row r="120" spans="2:15">
-      <c r="B120" s="27">
+      <c r="B120" s="25">
         <v>0.77980324074074081</v>
       </c>
       <c r="C120" t="s">
@@ -32608,7 +35159,7 @@
       </c>
     </row>
     <row r="121" spans="2:15">
-      <c r="B121" s="27">
+      <c r="B121" s="25">
         <v>0.77981481481481474</v>
       </c>
       <c r="C121" t="s">
@@ -32654,7 +35205,7 @@
       </c>
     </row>
     <row r="122" spans="2:15">
-      <c r="B122" s="27">
+      <c r="B122" s="25">
         <v>0.77982638888888889</v>
       </c>
       <c r="C122" t="s">
@@ -32700,7 +35251,7 @@
       </c>
     </row>
     <row r="123" spans="2:15">
-      <c r="B123" s="27">
+      <c r="B123" s="25">
         <v>0.77983796296296293</v>
       </c>
       <c r="C123" t="s">
@@ -32746,7 +35297,7 @@
       </c>
     </row>
     <row r="124" spans="2:15">
-      <c r="B124" s="27">
+      <c r="B124" s="25">
         <v>0.77984953703703708</v>
       </c>
       <c r="C124" t="s">
@@ -32792,7 +35343,7 @@
       </c>
     </row>
     <row r="125" spans="2:15">
-      <c r="B125" s="27">
+      <c r="B125" s="25">
         <v>0.77986111111111101</v>
       </c>
       <c r="C125" t="s">
@@ -32838,7 +35389,7 @@
       </c>
     </row>
     <row r="126" spans="2:15">
-      <c r="B126" s="27">
+      <c r="B126" s="25">
         <v>0.77987268518518515</v>
       </c>
       <c r="C126" t="s">
@@ -32884,7 +35435,7 @@
       </c>
     </row>
     <row r="127" spans="2:15">
-      <c r="B127" s="27">
+      <c r="B127" s="25">
         <v>0.7798842592592593</v>
       </c>
       <c r="C127" t="s">
@@ -32930,7 +35481,7 @@
       </c>
     </row>
     <row r="128" spans="2:15">
-      <c r="B128" s="27">
+      <c r="B128" s="25">
         <v>0.77989583333333334</v>
       </c>
       <c r="C128" t="s">
@@ -32976,7 +35527,7 @@
       </c>
     </row>
     <row r="129" spans="2:15">
-      <c r="B129" s="27">
+      <c r="B129" s="25">
         <v>0.77990740740740738</v>
       </c>
       <c r="C129" t="s">
@@ -33022,7 +35573,7 @@
       </c>
     </row>
     <row r="130" spans="2:15">
-      <c r="B130" s="27">
+      <c r="B130" s="25">
         <v>0.77991898148148142</v>
       </c>
       <c r="C130" t="s">
@@ -33068,7 +35619,7 @@
       </c>
     </row>
     <row r="131" spans="2:15">
-      <c r="B131" s="27">
+      <c r="B131" s="25">
         <v>0.77993055555555557</v>
       </c>
       <c r="C131" t="s">
@@ -33114,7 +35665,7 @@
       </c>
     </row>
     <row r="132" spans="2:15">
-      <c r="B132" s="27">
+      <c r="B132" s="25">
         <v>0.77994212962962972</v>
       </c>
       <c r="C132" t="s">
@@ -33160,7 +35711,7 @@
       </c>
     </row>
     <row r="133" spans="2:15">
-      <c r="B133" s="27">
+      <c r="B133" s="25">
         <v>0.77995370370370365</v>
       </c>
       <c r="C133" t="s">
@@ -33206,7 +35757,7 @@
       </c>
     </row>
     <row r="134" spans="2:15">
-      <c r="B134" s="27">
+      <c r="B134" s="25">
         <v>0.7799652777777778</v>
       </c>
       <c r="C134" t="s">
@@ -33252,7 +35803,7 @@
       </c>
     </row>
     <row r="135" spans="2:15">
-      <c r="B135" s="27">
+      <c r="B135" s="25">
         <v>0.77997685185185184</v>
       </c>
       <c r="C135" t="s">
@@ -33298,7 +35849,7 @@
       </c>
     </row>
     <row r="136" spans="2:15">
-      <c r="B136" s="27">
+      <c r="B136" s="25">
         <v>0.77998842592592599</v>
       </c>
       <c r="C136" t="s">
@@ -33344,7 +35895,7 @@
       </c>
     </row>
     <row r="137" spans="2:15">
-      <c r="B137" s="27">
+      <c r="B137" s="25">
         <v>0.77999999999999992</v>
       </c>
       <c r="C137" t="s">
@@ -33390,7 +35941,7 @@
       </c>
     </row>
     <row r="138" spans="2:15">
-      <c r="B138" s="34">
+      <c r="B138" s="32">
         <v>0.78001157407407407</v>
       </c>
       <c r="C138" s="20" t="s">
@@ -33436,7 +35987,7 @@
       </c>
     </row>
     <row r="139" spans="2:15" hidden="1">
-      <c r="B139" s="27">
+      <c r="B139" s="25">
         <v>0.78002314814814822</v>
       </c>
       <c r="C139" t="s">
@@ -33482,7 +36033,7 @@
       </c>
     </row>
     <row r="140" spans="2:15" hidden="1">
-      <c r="B140" s="27">
+      <c r="B140" s="25">
         <v>0.78003472222222225</v>
       </c>
       <c r="C140" t="s">
@@ -33528,7 +36079,7 @@
       </c>
     </row>
     <row r="141" spans="2:15" hidden="1">
-      <c r="B141" s="27">
+      <c r="B141" s="25">
         <v>0.78004629629629629</v>
       </c>
       <c r="C141" t="s">
@@ -33574,7 +36125,7 @@
       </c>
     </row>
     <row r="142" spans="2:15" hidden="1">
-      <c r="B142" s="27">
+      <c r="B142" s="25">
         <v>0.78005787037037033</v>
       </c>
       <c r="C142" t="s">
@@ -33620,7 +36171,7 @@
       </c>
     </row>
     <row r="143" spans="2:15" hidden="1">
-      <c r="B143" s="27">
+      <c r="B143" s="25">
         <v>0.78006944444444448</v>
       </c>
       <c r="C143" t="s">
@@ -33666,7 +36217,7 @@
       </c>
     </row>
     <row r="144" spans="2:15" hidden="1">
-      <c r="B144" s="27">
+      <c r="B144" s="25">
         <v>0.78008101851851863</v>
       </c>
       <c r="C144" t="s">
@@ -33712,7 +36263,7 @@
       </c>
     </row>
     <row r="145" spans="2:16" hidden="1">
-      <c r="B145" s="27">
+      <c r="B145" s="25">
         <v>0.78009259259259256</v>
       </c>
       <c r="C145" t="s">
@@ -33758,7 +36309,7 @@
       </c>
     </row>
     <row r="146" spans="2:16" hidden="1">
-      <c r="B146" s="27">
+      <c r="B146" s="25">
         <v>0.78010416666666671</v>
       </c>
       <c r="C146" t="s">
@@ -33804,7 +36355,7 @@
       </c>
     </row>
     <row r="147" spans="2:16" hidden="1">
-      <c r="B147" s="27">
+      <c r="B147" s="25">
         <v>0.78011574074074075</v>
       </c>
       <c r="C147" t="s">
@@ -33850,7 +36401,7 @@
       </c>
     </row>
     <row r="148" spans="2:16" hidden="1">
-      <c r="B148" s="27">
+      <c r="B148" s="25">
         <v>0.78012731481481479</v>
       </c>
       <c r="C148" t="s">
@@ -33896,7 +36447,7 @@
       </c>
     </row>
     <row r="149" spans="2:16" hidden="1">
-      <c r="B149" s="27">
+      <c r="B149" s="25">
         <v>0.78013888888888883</v>
       </c>
       <c r="C149" t="s">
@@ -33942,7 +36493,7 @@
       </c>
     </row>
     <row r="150" spans="2:16" hidden="1">
-      <c r="B150" s="27">
+      <c r="B150" s="25">
         <v>0.78015046296296298</v>
       </c>
       <c r="C150" t="s">
@@ -33988,7 +36539,7 @@
       </c>
     </row>
     <row r="151" spans="2:16" hidden="1">
-      <c r="B151" s="27">
+      <c r="B151" s="25">
         <v>0.78016203703703713</v>
       </c>
       <c r="C151" t="s">
@@ -34034,7 +36585,7 @@
       </c>
     </row>
     <row r="152" spans="2:16" hidden="1">
-      <c r="B152" s="27">
+      <c r="B152" s="25">
         <v>0.78017361111111105</v>
       </c>
       <c r="C152" t="s">
@@ -34080,7 +36631,7 @@
       </c>
     </row>
     <row r="153" spans="2:16" hidden="1">
-      <c r="B153" s="27">
+      <c r="B153" s="25">
         <v>0.7801851851851852</v>
       </c>
       <c r="C153" t="s">
@@ -34126,7 +36677,7 @@
       </c>
     </row>
     <row r="154" spans="2:16" hidden="1">
-      <c r="B154" s="27">
+      <c r="B154" s="25">
         <v>0.78019675925925924</v>
       </c>
       <c r="C154" t="s">
@@ -34172,7 +36723,7 @@
       </c>
     </row>
     <row r="155" spans="2:16" hidden="1">
-      <c r="B155" s="27">
+      <c r="B155" s="25">
         <v>0.78020833333333339</v>
       </c>
       <c r="C155" t="s">
@@ -34221,11 +36772,11 @@
       <c r="L157" t="s">
         <v>106</v>
       </c>
-      <c r="N157" s="28">
+      <c r="N157" s="26">
         <f>AVERAGE(N13:N138)</f>
         <v>27.05515873015873</v>
       </c>
-      <c r="O157" s="28">
+      <c r="O157" s="26">
         <f>AVERAGE(O13:O138)</f>
         <v>26.984047619047629</v>
       </c>
@@ -34238,11 +36789,11 @@
       <c r="L158" t="s">
         <v>222</v>
       </c>
-      <c r="N158" s="28">
+      <c r="N158" s="26">
         <f>STDEV(N13:N138)</f>
         <v>5.8688808792309972</v>
       </c>
-      <c r="O158" s="28">
+      <c r="O158" s="26">
         <f>STDEV(O13:O138)</f>
         <v>5.8265104724623864</v>
       </c>
@@ -34251,11 +36802,11 @@
       <c r="L159" t="s">
         <v>108</v>
       </c>
-      <c r="N159" s="28">
+      <c r="N159" s="26">
         <f>MIN(N13:N138)</f>
         <v>10.829999999999998</v>
       </c>
-      <c r="O159" s="28">
+      <c r="O159" s="26">
         <f>MIN(O13:O138)</f>
         <v>10.83</v>
       </c>
@@ -34264,11 +36815,11 @@
       <c r="L160" t="s">
         <v>109</v>
       </c>
-      <c r="N160" s="28">
+      <c r="N160" s="26">
         <f>MAX(N13:N138)</f>
         <v>74.180000000000007</v>
       </c>
-      <c r="O160" s="28">
+      <c r="O160" s="26">
         <f>MAX(O13:O138)</f>
         <v>73.930000000000007</v>
       </c>
@@ -34312,27 +36863,27 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="21"/>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>200</v>
       </c>
     </row>
@@ -34417,7 +36968,7 @@
       <c r="F9">
         <v>25.31</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="28" t="s">
         <v>101</v>
       </c>
       <c r="H9" s="20"/>
@@ -35480,7 +38031,7 @@
       <c r="F62">
         <v>25.51</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="G62" s="28" t="s">
         <v>101</v>
       </c>
       <c r="H62" s="20"/>
@@ -36998,27 +39549,27 @@
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>200</v>
       </c>
     </row>
@@ -38120,7 +40671,7 @@
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38238,7 +40789,7 @@
         <v>164</v>
       </c>
       <c r="C12">
-        <f>CORREL(Results!K55:K66,Results!L55:L66)</f>
+        <f>CORREL(Results!K60:K71,Results!L60:L71)</f>
         <v>0.78895075115954516</v>
       </c>
     </row>
